--- a/Bagaria Family Tree.xlsx
+++ b/Bagaria Family Tree.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bagaria\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="312">
   <si>
     <t>I</t>
   </si>
@@ -44,9 +39,6 @@
     <t>Girdhari Lal Bagaria</t>
   </si>
   <si>
-    <t xml:space="preserve">(adopted by Nagar Mal Bagaria &amp; Mohari Devi) </t>
-  </si>
-  <si>
     <t>Ajay Bagaria</t>
   </si>
   <si>
@@ -77,9 +69,6 @@
     <t>Babu Lal Bagaria</t>
   </si>
   <si>
-    <t>(adopted by Rameshwar Lal Bagaria)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    I</t>
   </si>
   <si>
@@ -149,42 +138,24 @@
     <t>Hardeo Das Bagaria</t>
   </si>
   <si>
-    <t>Mrs….</t>
-  </si>
-  <si>
     <t>Basanti Devi</t>
   </si>
   <si>
     <t xml:space="preserve">Rameshwar Lal Bagaria </t>
   </si>
   <si>
-    <t>Mrs ……</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>Mrs…..</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Iswar Dut Bagaria</t>
   </si>
   <si>
     <t>Nagar Mal Bagaria</t>
   </si>
   <si>
-    <t>Mr…….</t>
-  </si>
-  <si>
     <t>Satyanarayan Prasad Singhania</t>
   </si>
   <si>
     <t xml:space="preserve">Geeta </t>
   </si>
   <si>
-    <t>(adopted) Girdhari Lal Bagaria</t>
-  </si>
-  <si>
     <t>Kamal Nayan  Bagaria</t>
   </si>
   <si>
@@ -194,9 +165,6 @@
     <t xml:space="preserve">Rahul Bagaria </t>
   </si>
   <si>
-    <t xml:space="preserve"> Resham </t>
-  </si>
-  <si>
     <t>Mayank Burman</t>
   </si>
   <si>
@@ -242,12 +210,6 @@
     <t xml:space="preserve">Uma </t>
   </si>
   <si>
-    <t>Purni Devi</t>
-  </si>
-  <si>
-    <t>(adopted)  Babu Lal Bagaria</t>
-  </si>
-  <si>
     <t>Shyam Sunder Saraf</t>
   </si>
   <si>
@@ -278,21 +240,12 @@
     <t xml:space="preserve">Sunanda </t>
   </si>
   <si>
-    <t xml:space="preserve">Mohan Lal Tibrewala </t>
-  </si>
-  <si>
-    <t>(either son or grand son of Sedu Mal)</t>
-  </si>
-  <si>
     <t>Suanti Devi</t>
   </si>
   <si>
     <t xml:space="preserve">Bisheshwar Lal Tibrewala </t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Arvind Kajaria</t>
   </si>
   <si>
@@ -314,9 +267,6 @@
     <t xml:space="preserve">Mohari Devi </t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>Tibrewala Family</t>
   </si>
   <si>
@@ -413,9 +363,6 @@
     <t>Arun Kumar Bagaria</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Beena Devi</t>
   </si>
   <si>
@@ -599,12 +546,6 @@
     <t>Vineet Sultania</t>
   </si>
   <si>
-    <t>(Mrs….. (First wife )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mohari Devi (Second wife))</t>
-  </si>
-  <si>
     <t>(Asha (first wife)</t>
   </si>
   <si>
@@ -674,9 +615,6 @@
     <t>Anshula</t>
   </si>
   <si>
-    <t>Aadhya Mor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annaisha Bubna </t>
   </si>
   <si>
@@ -710,9 +648,6 @@
     <t xml:space="preserve">Anandi Bagaria </t>
   </si>
   <si>
-    <t>Neha Bagaria</t>
-  </si>
-  <si>
     <t>Harsh Vardhan Bagaria</t>
   </si>
   <si>
@@ -722,9 +657,6 @@
     <t>Priyanka</t>
   </si>
   <si>
-    <t>Prerna Kayal</t>
-  </si>
-  <si>
     <t>Yash Bagaria</t>
   </si>
   <si>
@@ -764,9 +696,6 @@
     <t>Aayush Kedia</t>
   </si>
   <si>
-    <t>rishi Pandey</t>
-  </si>
-  <si>
     <t>Riya Pandey</t>
   </si>
   <si>
@@ -827,9 +756,6 @@
     <t>Priya</t>
   </si>
   <si>
-    <t>Sonam Khemka</t>
-  </si>
-  <si>
     <t>Sonika Khemka</t>
   </si>
   <si>
@@ -947,14 +873,210 @@
     <t>Saransh Singhania</t>
   </si>
   <si>
-    <t>red - start level design from here</t>
+    <t>Rishi Pandey</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Subham Bhageria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerna </t>
+  </si>
+  <si>
+    <t>Chandan Bhalotia</t>
+  </si>
+  <si>
+    <t>Dinesh Bagaria</t>
+  </si>
+  <si>
+    <t>Parina</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subah </t>
+  </si>
+  <si>
+    <t>Aadya Mor</t>
+  </si>
+  <si>
+    <t>Arush Mor</t>
+  </si>
+  <si>
+    <t>Ahan Mor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (twins)</t>
+  </si>
+  <si>
+    <t>(twins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smt </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Smt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (First wife )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Resham </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bagaria</t>
+    </r>
+  </si>
+  <si>
+    <t>Bagaria</t>
+  </si>
+  <si>
+    <t>Smt</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Girdhari Lal Bagaria </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(adopted from Babu Lal &amp; Purni Devi Bagaria)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(adopted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Rameshwar Lal &amp; Basanti Devi Bagaria)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Babu Lal Bagaria </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Adopted from Hardeo Das Bagaria)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purni Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (Tiberawala Sisters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Mohari Devi (Second wife)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Tiberawala Sisters)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonam </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(adopted by Nagar Mal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; Mohari Devi Bagaria) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mohan Lal Tibrewala </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (either son or grand son of Sedu Mal Bagaria)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1074,7 +1196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1084,12 +1205,17 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1255,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1702,7 +1840,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1801,8 +1939,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1815,7 +1951,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1828,9 +1963,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1851,7 +1983,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1880,7 +2011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1929,9 +2059,40 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="389">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2326,14 +2487,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2659,249 +2812,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HZ161"/>
+  <dimension ref="A1:ID161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="GV23" sqref="GV23"/>
+    <sheetView tabSelected="1" topLeftCell="CG12" workbookViewId="0">
+      <selection activeCell="CT65" sqref="CT65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="1.5" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
-    <col min="4" max="4" width="1.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="2.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.69921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="26.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="1.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="1.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.19921875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.19921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="56.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="2.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.296875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="1.796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="1.83203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="12" style="2" customWidth="1"/>
     <col min="21" max="21" width="3" style="2" customWidth="1"/>
-    <col min="22" max="22" width="32.69921875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="2.296875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.796875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="43.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="2.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" style="2" customWidth="1"/>
     <col min="25" max="25" width="3.5" style="2" customWidth="1"/>
-    <col min="26" max="27" width="2.296875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.296875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="3.296875" style="4" customWidth="1"/>
+    <col min="26" max="27" width="2.33203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="4" customWidth="1"/>
     <col min="30" max="30" width="14.5" style="4" customWidth="1"/>
-    <col min="31" max="31" width="2.796875" style="4" customWidth="1"/>
+    <col min="31" max="31" width="2.83203125" style="4" customWidth="1"/>
     <col min="32" max="32" width="18" style="4" customWidth="1"/>
     <col min="33" max="33" width="2.5" style="4" customWidth="1"/>
-    <col min="34" max="34" width="13.69921875" style="4" customWidth="1"/>
-    <col min="35" max="35" width="1.796875" style="4" customWidth="1"/>
-    <col min="36" max="36" width="17.69921875" style="4" customWidth="1"/>
-    <col min="37" max="37" width="1.796875" style="4" customWidth="1"/>
-    <col min="38" max="38" width="15.796875" style="4" customWidth="1"/>
-    <col min="39" max="39" width="1.796875" style="4" customWidth="1"/>
-    <col min="40" max="40" width="13.69921875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="13.6640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="1.83203125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" style="4" customWidth="1"/>
+    <col min="37" max="37" width="1.83203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="15.83203125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="1.83203125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" style="4" customWidth="1"/>
     <col min="41" max="41" width="2" style="4" customWidth="1"/>
-    <col min="42" max="42" width="13.796875" style="4" customWidth="1"/>
+    <col min="42" max="42" width="13.83203125" style="4" customWidth="1"/>
     <col min="43" max="43" width="2.5" style="4" customWidth="1"/>
     <col min="44" max="44" width="17.5" style="4" customWidth="1"/>
-    <col min="45" max="45" width="3.296875" style="4" customWidth="1"/>
-    <col min="46" max="46" width="16.296875" style="4" customWidth="1"/>
-    <col min="47" max="47" width="3.19921875" style="4" customWidth="1"/>
-    <col min="48" max="48" width="13.19921875" style="4" customWidth="1"/>
-    <col min="49" max="49" width="1.796875" style="4" customWidth="1"/>
-    <col min="50" max="50" width="16.796875" style="4" customWidth="1"/>
-    <col min="51" max="51" width="3.296875" style="4" customWidth="1"/>
-    <col min="52" max="52" width="16.19921875" style="4" customWidth="1"/>
-    <col min="53" max="53" width="2.296875" style="4" customWidth="1"/>
+    <col min="45" max="45" width="3.33203125" style="4" customWidth="1"/>
+    <col min="46" max="46" width="16.33203125" style="4" customWidth="1"/>
+    <col min="47" max="47" width="3.1640625" style="4" customWidth="1"/>
+    <col min="48" max="48" width="13.1640625" style="4" customWidth="1"/>
+    <col min="49" max="49" width="1.83203125" style="4" customWidth="1"/>
+    <col min="50" max="50" width="16.83203125" style="4" customWidth="1"/>
+    <col min="51" max="51" width="3.33203125" style="4" customWidth="1"/>
+    <col min="52" max="52" width="16.1640625" style="4" customWidth="1"/>
+    <col min="53" max="53" width="2.33203125" style="4" customWidth="1"/>
     <col min="54" max="54" width="21.5" style="4" customWidth="1"/>
-    <col min="55" max="55" width="3.296875" style="4" customWidth="1"/>
-    <col min="56" max="56" width="16.69921875" style="4" customWidth="1"/>
-    <col min="57" max="57" width="2.69921875" style="4" customWidth="1"/>
-    <col min="58" max="58" width="16.69921875" style="4" customWidth="1"/>
+    <col min="55" max="55" width="3.33203125" style="4" customWidth="1"/>
+    <col min="56" max="56" width="16.6640625" style="4" customWidth="1"/>
+    <col min="57" max="57" width="2.6640625" style="4" customWidth="1"/>
+    <col min="58" max="58" width="16.6640625" style="4" customWidth="1"/>
     <col min="59" max="59" width="2.5" style="4" customWidth="1"/>
-    <col min="60" max="60" width="16.69921875" style="4" customWidth="1"/>
+    <col min="60" max="60" width="16.6640625" style="4" customWidth="1"/>
     <col min="61" max="61" width="3" style="4" customWidth="1"/>
-    <col min="62" max="62" width="20.19921875" style="4" customWidth="1"/>
-    <col min="63" max="63" width="2.69921875" style="4" customWidth="1"/>
+    <col min="62" max="62" width="20.1640625" style="4" customWidth="1"/>
+    <col min="63" max="63" width="2.6640625" style="4" customWidth="1"/>
     <col min="64" max="64" width="17" style="4" customWidth="1"/>
     <col min="65" max="65" width="3" style="4" customWidth="1"/>
-    <col min="66" max="66" width="13.69921875" style="4" customWidth="1"/>
+    <col min="66" max="66" width="13.6640625" style="4" customWidth="1"/>
     <col min="67" max="67" width="2.5" style="4" customWidth="1"/>
-    <col min="68" max="68" width="30.69921875" style="4" customWidth="1"/>
+    <col min="68" max="68" width="30.6640625" style="4" customWidth="1"/>
     <col min="69" max="69" width="2" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.796875" style="1" customWidth="1"/>
+    <col min="70" max="70" width="15.83203125" style="1" customWidth="1"/>
     <col min="71" max="71" width="2.5" style="1" customWidth="1"/>
-    <col min="72" max="72" width="14.296875" style="1" customWidth="1"/>
+    <col min="72" max="72" width="14.33203125" style="1" customWidth="1"/>
     <col min="73" max="73" width="2.5" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.69921875" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15.6640625" style="1" customWidth="1"/>
     <col min="75" max="75" width="2.5" style="1" customWidth="1"/>
-    <col min="76" max="76" width="15.296875" style="1" customWidth="1"/>
-    <col min="77" max="77" width="2.296875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="14.296875" style="1" customWidth="1"/>
+    <col min="76" max="76" width="15.33203125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="2.33203125" style="1" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" style="1" customWidth="1"/>
     <col min="79" max="79" width="2" style="1" customWidth="1"/>
     <col min="80" max="80" width="14" style="1" customWidth="1"/>
-    <col min="81" max="81" width="2.796875" style="1" customWidth="1"/>
+    <col min="81" max="81" width="2.83203125" style="1" customWidth="1"/>
     <col min="82" max="82" width="12" style="1" customWidth="1"/>
-    <col min="83" max="83" width="2.796875" style="1" customWidth="1"/>
+    <col min="83" max="83" width="2.83203125" style="1" customWidth="1"/>
     <col min="84" max="84" width="16.5" style="1" customWidth="1"/>
-    <col min="85" max="85" width="2.69921875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="18.69921875" style="1" customWidth="1"/>
-    <col min="87" max="87" width="2.19921875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="18" style="1" customWidth="1"/>
-    <col min="89" max="89" width="3" style="1" customWidth="1"/>
-    <col min="90" max="90" width="17.296875" style="1" customWidth="1"/>
-    <col min="91" max="91" width="2.69921875" style="1" customWidth="1"/>
-    <col min="92" max="92" width="24" style="1" customWidth="1"/>
-    <col min="93" max="93" width="2.296875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="20" style="1" customWidth="1"/>
-    <col min="95" max="95" width="2.19921875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="17.69921875" style="1" customWidth="1"/>
-    <col min="97" max="97" width="2" style="1" customWidth="1"/>
-    <col min="98" max="98" width="17.796875" style="1" customWidth="1"/>
-    <col min="99" max="99" width="2.296875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="13.796875" style="1" customWidth="1"/>
-    <col min="101" max="101" width="1.19921875" style="1" customWidth="1"/>
-    <col min="102" max="102" width="9.5" style="1" customWidth="1"/>
-    <col min="103" max="103" width="2.296875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="12.796875" style="1" customWidth="1"/>
-    <col min="105" max="105" width="1.19921875" style="1" customWidth="1"/>
-    <col min="106" max="106" width="20.19921875" style="1" customWidth="1"/>
-    <col min="107" max="107" width="1.69921875" style="1" customWidth="1"/>
-    <col min="108" max="108" width="12.296875" style="1" customWidth="1"/>
-    <col min="109" max="109" width="2.19921875" style="1" customWidth="1"/>
-    <col min="110" max="110" width="16.296875" style="1" customWidth="1"/>
-    <col min="111" max="111" width="1.69921875" style="1" customWidth="1"/>
-    <col min="112" max="112" width="11.296875" style="1" customWidth="1"/>
-    <col min="113" max="113" width="2.19921875" style="1" customWidth="1"/>
-    <col min="114" max="114" width="21.5" style="1" customWidth="1"/>
-    <col min="115" max="115" width="2.69921875" style="1" customWidth="1"/>
-    <col min="116" max="116" width="13.19921875" style="1" customWidth="1"/>
-    <col min="117" max="117" width="2.19921875" style="1" customWidth="1"/>
-    <col min="118" max="118" width="18.69921875" style="1" customWidth="1"/>
-    <col min="119" max="119" width="2.296875" style="1" customWidth="1"/>
-    <col min="120" max="120" width="13.69921875" style="1" customWidth="1"/>
-    <col min="121" max="121" width="2" style="1" customWidth="1"/>
-    <col min="122" max="122" width="15" style="1" customWidth="1"/>
-    <col min="123" max="123" width="2.296875" style="1" customWidth="1"/>
-    <col min="124" max="124" width="14.296875" style="1" customWidth="1"/>
-    <col min="125" max="125" width="2.5" style="1" customWidth="1"/>
-    <col min="126" max="126" width="14.69921875" style="1" customWidth="1"/>
-    <col min="127" max="127" width="2.19921875" style="1" customWidth="1"/>
-    <col min="128" max="128" width="22" style="1" customWidth="1"/>
-    <col min="129" max="129" width="2.69921875" style="1" customWidth="1"/>
-    <col min="130" max="130" width="13.296875" style="1" customWidth="1"/>
-    <col min="131" max="131" width="1.5" style="1" customWidth="1"/>
-    <col min="132" max="132" width="10.796875" style="1" customWidth="1"/>
-    <col min="133" max="133" width="1.69921875" style="1" customWidth="1"/>
-    <col min="134" max="134" width="16.296875" style="1" customWidth="1"/>
-    <col min="135" max="135" width="2.19921875" style="1" customWidth="1"/>
-    <col min="136" max="136" width="11.69921875" style="1" customWidth="1"/>
-    <col min="137" max="137" width="2.296875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="13.19921875" style="1" customWidth="1"/>
-    <col min="139" max="139" width="2.296875" style="1" customWidth="1"/>
-    <col min="140" max="140" width="15.5" style="1" customWidth="1"/>
-    <col min="141" max="141" width="1.69921875" style="1" customWidth="1"/>
-    <col min="142" max="142" width="15.5" style="1" customWidth="1"/>
-    <col min="143" max="143" width="1.5" style="1" customWidth="1"/>
-    <col min="144" max="144" width="21.796875" style="1" customWidth="1"/>
-    <col min="145" max="145" width="2" style="1" customWidth="1"/>
-    <col min="146" max="146" width="19.796875" style="1" customWidth="1"/>
-    <col min="147" max="147" width="1" style="1" customWidth="1"/>
-    <col min="148" max="148" width="19.796875" style="1" customWidth="1"/>
-    <col min="149" max="149" width="2.296875" style="1" customWidth="1"/>
-    <col min="150" max="150" width="14.796875" style="1" customWidth="1"/>
-    <col min="151" max="151" width="2" style="1" customWidth="1"/>
-    <col min="152" max="152" width="15.5" style="1" customWidth="1"/>
-    <col min="153" max="153" width="2.19921875" style="1" customWidth="1"/>
-    <col min="154" max="154" width="14" style="1" customWidth="1"/>
+    <col min="85" max="85" width="2.6640625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="18.6640625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="3.33203125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="10.6640625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="2.1640625" style="1" customWidth="1"/>
+    <col min="90" max="90" width="12.1640625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="2.5" style="1" customWidth="1"/>
+    <col min="92" max="92" width="10.33203125" style="1" customWidth="1"/>
+    <col min="93" max="93" width="3" style="1" customWidth="1"/>
+    <col min="94" max="94" width="17.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="2.6640625" style="1" customWidth="1"/>
+    <col min="96" max="96" width="45.83203125" style="1" customWidth="1"/>
+    <col min="97" max="97" width="2.33203125" style="1" customWidth="1"/>
+    <col min="98" max="98" width="20" style="1" customWidth="1"/>
+    <col min="99" max="99" width="2.1640625" style="1" customWidth="1"/>
+    <col min="100" max="100" width="17.6640625" style="1" customWidth="1"/>
+    <col min="101" max="101" width="2" style="1" customWidth="1"/>
+    <col min="102" max="102" width="17.83203125" style="1" customWidth="1"/>
+    <col min="103" max="103" width="2.33203125" style="1" customWidth="1"/>
+    <col min="104" max="104" width="13.83203125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.1640625" style="1" customWidth="1"/>
+    <col min="106" max="106" width="9.5" style="1" customWidth="1"/>
+    <col min="107" max="107" width="2.33203125" style="1" customWidth="1"/>
+    <col min="108" max="108" width="12.83203125" style="1" customWidth="1"/>
+    <col min="109" max="109" width="1.1640625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="20.1640625" style="1" customWidth="1"/>
+    <col min="111" max="111" width="1.6640625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="12.33203125" style="1" customWidth="1"/>
+    <col min="113" max="113" width="2.1640625" style="1" customWidth="1"/>
+    <col min="114" max="114" width="16.33203125" style="1" customWidth="1"/>
+    <col min="115" max="115" width="1.6640625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="11.33203125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="2.1640625" style="1" customWidth="1"/>
+    <col min="118" max="118" width="21.5" style="1" customWidth="1"/>
+    <col min="119" max="119" width="2.6640625" style="1" customWidth="1"/>
+    <col min="120" max="120" width="13.1640625" style="1" customWidth="1"/>
+    <col min="121" max="121" width="2.1640625" style="1" customWidth="1"/>
+    <col min="122" max="122" width="18.6640625" style="1" customWidth="1"/>
+    <col min="123" max="123" width="2.33203125" style="1" customWidth="1"/>
+    <col min="124" max="124" width="13.6640625" style="1" customWidth="1"/>
+    <col min="125" max="125" width="2" style="1" customWidth="1"/>
+    <col min="126" max="126" width="15" style="1" customWidth="1"/>
+    <col min="127" max="127" width="2.33203125" style="1" customWidth="1"/>
+    <col min="128" max="128" width="14.33203125" style="1" customWidth="1"/>
+    <col min="129" max="129" width="2.5" style="1" customWidth="1"/>
+    <col min="130" max="130" width="14.6640625" style="1" customWidth="1"/>
+    <col min="131" max="131" width="2.1640625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="22" style="1" customWidth="1"/>
+    <col min="133" max="133" width="2.6640625" style="1" customWidth="1"/>
+    <col min="134" max="134" width="13.33203125" style="1" customWidth="1"/>
+    <col min="135" max="135" width="1.5" style="1" customWidth="1"/>
+    <col min="136" max="136" width="10.83203125" style="1" customWidth="1"/>
+    <col min="137" max="137" width="1.6640625" style="1" customWidth="1"/>
+    <col min="138" max="138" width="16.33203125" style="1" customWidth="1"/>
+    <col min="139" max="139" width="2.1640625" style="1" customWidth="1"/>
+    <col min="140" max="140" width="11.6640625" style="1" customWidth="1"/>
+    <col min="141" max="141" width="2.33203125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="13.1640625" style="1" customWidth="1"/>
+    <col min="143" max="143" width="2.33203125" style="1" customWidth="1"/>
+    <col min="144" max="144" width="15.5" style="1" customWidth="1"/>
+    <col min="145" max="145" width="1.6640625" style="1" customWidth="1"/>
+    <col min="146" max="146" width="15.5" style="1" customWidth="1"/>
+    <col min="147" max="147" width="1.5" style="1" customWidth="1"/>
+    <col min="148" max="148" width="21.83203125" style="1" customWidth="1"/>
+    <col min="149" max="149" width="2" style="1" customWidth="1"/>
+    <col min="150" max="150" width="19.83203125" style="1" customWidth="1"/>
+    <col min="151" max="151" width="1" style="1" customWidth="1"/>
+    <col min="152" max="152" width="19.83203125" style="1" customWidth="1"/>
+    <col min="153" max="153" width="2.33203125" style="1" customWidth="1"/>
+    <col min="154" max="154" width="14.83203125" style="1" customWidth="1"/>
     <col min="155" max="155" width="2" style="1" customWidth="1"/>
-    <col min="156" max="156" width="13.69921875" style="1" customWidth="1"/>
-    <col min="157" max="157" width="1.5" style="1" customWidth="1"/>
-    <col min="158" max="158" width="16.296875" style="1" customWidth="1"/>
-    <col min="159" max="159" width="1.69921875" style="1" customWidth="1"/>
-    <col min="160" max="160" width="15.19921875" style="1" customWidth="1"/>
-    <col min="161" max="161" width="2.19921875" style="1" customWidth="1"/>
-    <col min="162" max="162" width="16.19921875" style="1" customWidth="1"/>
-    <col min="163" max="163" width="1.5" style="1" customWidth="1"/>
-    <col min="164" max="164" width="16.19921875" style="1" customWidth="1"/>
-    <col min="165" max="165" width="2.19921875" style="1" customWidth="1"/>
-    <col min="166" max="166" width="39" style="1" customWidth="1"/>
-    <col min="167" max="167" width="3.19921875" style="1" customWidth="1"/>
-    <col min="168" max="168" width="11.296875" style="1" customWidth="1"/>
-    <col min="169" max="169" width="2.296875" style="1" customWidth="1"/>
-    <col min="170" max="170" width="13" style="1" customWidth="1"/>
-    <col min="171" max="171" width="2.5" style="1" customWidth="1"/>
-    <col min="172" max="172" width="17.796875" style="1" customWidth="1"/>
-    <col min="173" max="173" width="1.796875" style="1" customWidth="1"/>
-    <col min="174" max="174" width="12.796875" style="1" customWidth="1"/>
-    <col min="175" max="175" width="2.69921875" style="1" customWidth="1"/>
-    <col min="176" max="176" width="14" style="1" customWidth="1"/>
-    <col min="177" max="177" width="2.296875" style="1" customWidth="1"/>
-    <col min="178" max="178" width="13.5" style="1" customWidth="1"/>
-    <col min="179" max="179" width="2.5" style="1" customWidth="1"/>
-    <col min="180" max="180" width="18.5" style="1" customWidth="1"/>
-    <col min="181" max="181" width="1.5" style="1" customWidth="1"/>
-    <col min="182" max="182" width="12.69921875" style="1" customWidth="1"/>
-    <col min="183" max="183" width="3" style="1" customWidth="1"/>
-    <col min="184" max="184" width="13" style="1" customWidth="1"/>
+    <col min="156" max="156" width="15.5" style="1" customWidth="1"/>
+    <col min="157" max="157" width="2.1640625" style="1" customWidth="1"/>
+    <col min="158" max="158" width="15" style="1" customWidth="1"/>
+    <col min="159" max="159" width="2" style="1" customWidth="1"/>
+    <col min="160" max="160" width="13.6640625" style="1" customWidth="1"/>
+    <col min="161" max="161" width="1.5" style="1" customWidth="1"/>
+    <col min="162" max="162" width="16.33203125" style="1" customWidth="1"/>
+    <col min="163" max="163" width="1.6640625" style="1" customWidth="1"/>
+    <col min="164" max="164" width="15.1640625" style="1" customWidth="1"/>
+    <col min="165" max="165" width="2.1640625" style="1" customWidth="1"/>
+    <col min="166" max="166" width="16.1640625" style="1" customWidth="1"/>
+    <col min="167" max="167" width="1.5" style="1" customWidth="1"/>
+    <col min="168" max="168" width="16.1640625" style="1" customWidth="1"/>
+    <col min="169" max="169" width="2.1640625" style="1" customWidth="1"/>
+    <col min="170" max="170" width="39" style="1" customWidth="1"/>
+    <col min="171" max="171" width="3.1640625" style="1" customWidth="1"/>
+    <col min="172" max="172" width="11.33203125" style="1" customWidth="1"/>
+    <col min="173" max="173" width="2.33203125" style="1" customWidth="1"/>
+    <col min="174" max="174" width="13" style="1" customWidth="1"/>
+    <col min="175" max="175" width="2.5" style="1" customWidth="1"/>
+    <col min="176" max="176" width="17.83203125" style="1" customWidth="1"/>
+    <col min="177" max="177" width="1.83203125" style="1" customWidth="1"/>
+    <col min="178" max="178" width="12.83203125" style="1" customWidth="1"/>
+    <col min="179" max="179" width="2.6640625" style="1" customWidth="1"/>
+    <col min="180" max="180" width="14" style="1" customWidth="1"/>
+    <col min="181" max="181" width="2.33203125" style="1" customWidth="1"/>
+    <col min="182" max="182" width="13.5" style="1" customWidth="1"/>
+    <col min="183" max="183" width="2.5" style="1" customWidth="1"/>
+    <col min="184" max="184" width="18.5" style="1" customWidth="1"/>
     <col min="185" max="185" width="1.5" style="1" customWidth="1"/>
-    <col min="186" max="186" width="11.296875" style="1" customWidth="1"/>
-    <col min="187" max="187" width="2.296875" style="1" customWidth="1"/>
-    <col min="188" max="188" width="13.19921875" style="1" customWidth="1"/>
-    <col min="189" max="189" width="1.69921875" style="1" customWidth="1"/>
-    <col min="190" max="190" width="14.19921875" style="1" customWidth="1"/>
-    <col min="191" max="191" width="1.5" style="1" customWidth="1"/>
-    <col min="192" max="192" width="13.19921875" style="1" customWidth="1"/>
-    <col min="193" max="193" width="2" style="1" customWidth="1"/>
-    <col min="194" max="194" width="21.5" style="1" customWidth="1"/>
-    <col min="195" max="195" width="1.296875" style="1" customWidth="1"/>
-    <col min="196" max="196" width="13.796875" style="1" customWidth="1"/>
-    <col min="197" max="197" width="2.296875" style="1" customWidth="1"/>
-    <col min="198" max="198" width="13" style="1" customWidth="1"/>
-    <col min="199" max="199" width="1.69921875" style="1" customWidth="1"/>
-    <col min="200" max="200" width="15.19921875" style="1" customWidth="1"/>
-    <col min="201" max="201" width="1.796875" style="1" customWidth="1"/>
-    <col min="202" max="202" width="12.796875" style="1" customWidth="1"/>
-    <col min="203" max="203" width="3.19921875" style="1" customWidth="1"/>
-    <col min="204" max="204" width="20" style="1" customWidth="1"/>
-    <col min="205" max="205" width="2.19921875" style="1" customWidth="1"/>
-    <col min="206" max="206" width="15.296875" style="1" customWidth="1"/>
-    <col min="207" max="207" width="1.796875" style="1" customWidth="1"/>
-    <col min="208" max="208" width="2.69921875" style="4" customWidth="1"/>
-    <col min="209" max="209" width="3.796875" style="1" customWidth="1"/>
-    <col min="210" max="210" width="16.796875" style="1" customWidth="1"/>
-    <col min="211" max="211" width="2.296875" style="1" customWidth="1"/>
-    <col min="212" max="212" width="18.296875" style="1" customWidth="1"/>
-    <col min="213" max="213" width="2.796875" style="1" customWidth="1"/>
-    <col min="214" max="214" width="16.5" style="1" customWidth="1"/>
-    <col min="215" max="215" width="2.296875" style="1" customWidth="1"/>
-    <col min="216" max="216" width="15.796875" style="1" customWidth="1"/>
-    <col min="217" max="217" width="2.296875" style="1" customWidth="1"/>
-    <col min="218" max="218" width="16.296875" style="1" customWidth="1"/>
-    <col min="219" max="219" width="2.296875" style="1" customWidth="1"/>
-    <col min="220" max="220" width="13.69921875" style="1" customWidth="1"/>
-    <col min="221" max="221" width="2.296875" style="1" customWidth="1"/>
-    <col min="222" max="222" width="18" style="1" customWidth="1"/>
-    <col min="223" max="223" width="2.296875" style="1" customWidth="1"/>
+    <col min="186" max="186" width="12.6640625" style="1" customWidth="1"/>
+    <col min="187" max="187" width="3" style="1" customWidth="1"/>
+    <col min="188" max="188" width="13" style="1" customWidth="1"/>
+    <col min="189" max="189" width="1.5" style="1" customWidth="1"/>
+    <col min="190" max="190" width="11.33203125" style="1" customWidth="1"/>
+    <col min="191" max="191" width="2.33203125" style="1" customWidth="1"/>
+    <col min="192" max="192" width="13.1640625" style="1" customWidth="1"/>
+    <col min="193" max="193" width="1.6640625" style="1" customWidth="1"/>
+    <col min="194" max="194" width="14.1640625" style="1" customWidth="1"/>
+    <col min="195" max="195" width="1.5" style="1" customWidth="1"/>
+    <col min="196" max="196" width="13.1640625" style="1" customWidth="1"/>
+    <col min="197" max="197" width="2" style="1" customWidth="1"/>
+    <col min="198" max="198" width="21.5" style="1" customWidth="1"/>
+    <col min="199" max="199" width="1.33203125" style="1" customWidth="1"/>
+    <col min="200" max="200" width="13.83203125" style="1" customWidth="1"/>
+    <col min="201" max="201" width="2.33203125" style="1" customWidth="1"/>
+    <col min="202" max="202" width="13" style="1" customWidth="1"/>
+    <col min="203" max="203" width="1.6640625" style="1" customWidth="1"/>
+    <col min="204" max="204" width="15.1640625" style="1" customWidth="1"/>
+    <col min="205" max="205" width="1.83203125" style="1" customWidth="1"/>
+    <col min="206" max="206" width="12.83203125" style="1" customWidth="1"/>
+    <col min="207" max="207" width="3.1640625" style="1" customWidth="1"/>
+    <col min="208" max="208" width="20" style="1" customWidth="1"/>
+    <col min="209" max="209" width="2.1640625" style="1" customWidth="1"/>
+    <col min="210" max="210" width="15.33203125" style="1" customWidth="1"/>
+    <col min="211" max="211" width="1.83203125" style="1" customWidth="1"/>
+    <col min="212" max="212" width="2.6640625" style="4" customWidth="1"/>
+    <col min="213" max="213" width="3.83203125" style="1" customWidth="1"/>
+    <col min="214" max="214" width="16.83203125" style="1" customWidth="1"/>
+    <col min="215" max="215" width="2.33203125" style="1" customWidth="1"/>
+    <col min="216" max="216" width="18.33203125" style="1" customWidth="1"/>
+    <col min="217" max="217" width="2.83203125" style="1" customWidth="1"/>
+    <col min="218" max="218" width="16.5" style="1" customWidth="1"/>
+    <col min="219" max="219" width="2.33203125" style="1" customWidth="1"/>
+    <col min="220" max="220" width="15.83203125" style="1" customWidth="1"/>
+    <col min="221" max="221" width="2.33203125" style="1" customWidth="1"/>
+    <col min="222" max="222" width="16.33203125" style="1" customWidth="1"/>
+    <col min="223" max="223" width="2.33203125" style="1" customWidth="1"/>
+    <col min="224" max="224" width="13.6640625" style="1" customWidth="1"/>
+    <col min="225" max="225" width="2.33203125" style="1" customWidth="1"/>
+    <col min="226" max="226" width="18" style="1" customWidth="1"/>
+    <col min="227" max="227" width="2.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234" s="26" customFormat="1">
+    <row r="1" spans="1:238" s="26" customFormat="1">
       <c r="A1" s="4"/>
-      <c r="CN1" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="CO1" s="100"/>
-      <c r="CP1" s="100"/>
-      <c r="HP1" s="4"/>
-      <c r="HQ1" s="4"/>
-      <c r="HR1" s="4"/>
-      <c r="HS1" s="4"/>
+      <c r="CR1" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS1" s="95"/>
+      <c r="CT1" s="95"/>
       <c r="HT1" s="4"/>
       <c r="HU1" s="4"/>
       <c r="HV1" s="4"/>
@@ -2909,13 +3062,13 @@
       <c r="HX1" s="4"/>
       <c r="HY1" s="4"/>
       <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
     </row>
-    <row r="2" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="2" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="4"/>
-      <c r="HP2" s="4"/>
-      <c r="HQ2" s="4"/>
-      <c r="HR2" s="4"/>
-      <c r="HS2" s="4"/>
       <c r="HT2" s="4"/>
       <c r="HU2" s="4"/>
       <c r="HV2" s="4"/>
@@ -2923,18 +3076,18 @@
       <c r="HX2" s="4"/>
       <c r="HY2" s="4"/>
       <c r="HZ2" s="4"/>
+      <c r="IA2" s="4"/>
+      <c r="IB2" s="4"/>
+      <c r="IC2" s="4"/>
+      <c r="ID2" s="4"/>
     </row>
-    <row r="3" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="3" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="4"/>
-      <c r="CN3" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO3" s="120"/>
-      <c r="CP3" s="120"/>
-      <c r="CQ3" s="27"/>
-      <c r="CR3" s="27"/>
-      <c r="CS3" s="27"/>
-      <c r="CT3" s="27"/>
+      <c r="CR3" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="CS3" s="114"/>
+      <c r="CT3" s="114"/>
       <c r="CU3" s="27"/>
       <c r="CV3" s="27"/>
       <c r="CW3" s="27"/>
@@ -3044,10 +3197,10 @@
       <c r="GW3" s="27"/>
       <c r="GX3" s="27"/>
       <c r="GY3" s="27"/>
-      <c r="HP3" s="4"/>
-      <c r="HQ3" s="4"/>
-      <c r="HR3" s="4"/>
-      <c r="HS3" s="4"/>
+      <c r="GZ3" s="27"/>
+      <c r="HA3" s="27"/>
+      <c r="HB3" s="27"/>
+      <c r="HC3" s="27"/>
       <c r="HT3" s="4"/>
       <c r="HU3" s="4"/>
       <c r="HV3" s="4"/>
@@ -3055,16 +3208,16 @@
       <c r="HX3" s="4"/>
       <c r="HY3" s="4"/>
       <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
     </row>
-    <row r="4" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="4" spans="1:238" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
-      <c r="CN4" s="28" t="s">
+      <c r="CR4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="CO4" s="28"/>
-      <c r="CP4" s="28"/>
-      <c r="CQ4" s="28"/>
-      <c r="CR4" s="28"/>
       <c r="CS4" s="28"/>
       <c r="CT4" s="28"/>
       <c r="CU4" s="28"/>
@@ -3176,10 +3329,10 @@
       <c r="GW4" s="28"/>
       <c r="GX4" s="28"/>
       <c r="GY4" s="28"/>
-      <c r="HP4" s="4"/>
-      <c r="HQ4" s="4"/>
-      <c r="HR4" s="4"/>
-      <c r="HS4" s="4"/>
+      <c r="GZ4" s="28"/>
+      <c r="HA4" s="28"/>
+      <c r="HB4" s="28"/>
+      <c r="HC4" s="28"/>
       <c r="HT4" s="4"/>
       <c r="HU4" s="4"/>
       <c r="HV4" s="4"/>
@@ -3187,18 +3340,18 @@
       <c r="HX4" s="4"/>
       <c r="HY4" s="4"/>
       <c r="HZ4" s="4"/>
+      <c r="IA4" s="4"/>
+      <c r="IB4" s="4"/>
+      <c r="IC4" s="4"/>
+      <c r="ID4" s="4"/>
     </row>
-    <row r="5" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="5" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="CN5" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO5" s="120"/>
-      <c r="CP5" s="120"/>
-      <c r="CQ5" s="27"/>
-      <c r="CR5" s="27"/>
-      <c r="CS5" s="27"/>
-      <c r="CT5" s="27"/>
+      <c r="CR5" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS5" s="114"/>
+      <c r="CT5" s="114"/>
       <c r="CU5" s="27"/>
       <c r="CV5" s="27"/>
       <c r="CW5" s="27"/>
@@ -3308,10 +3461,10 @@
       <c r="GW5" s="27"/>
       <c r="GX5" s="27"/>
       <c r="GY5" s="27"/>
-      <c r="HP5" s="4"/>
-      <c r="HQ5" s="4"/>
-      <c r="HR5" s="4"/>
-      <c r="HS5" s="4"/>
+      <c r="GZ5" s="27"/>
+      <c r="HA5" s="27"/>
+      <c r="HB5" s="27"/>
+      <c r="HC5" s="27"/>
       <c r="HT5" s="4"/>
       <c r="HU5" s="4"/>
       <c r="HV5" s="4"/>
@@ -3319,8 +3472,12 @@
       <c r="HX5" s="4"/>
       <c r="HY5" s="4"/>
       <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
     </row>
-    <row r="6" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="6" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -3412,13 +3569,13 @@
       <c r="CK6" s="29"/>
       <c r="CL6" s="29"/>
       <c r="CM6" s="29"/>
-      <c r="CN6" s="30" t="s">
+      <c r="CN6" s="29"/>
+      <c r="CO6" s="29"/>
+      <c r="CP6" s="29"/>
+      <c r="CQ6" s="29"/>
+      <c r="CR6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="CO6" s="30"/>
-      <c r="CP6" s="30"/>
-      <c r="CQ6" s="30"/>
-      <c r="CR6" s="30"/>
       <c r="CS6" s="30"/>
       <c r="CT6" s="30"/>
       <c r="CU6" s="30"/>
@@ -3530,10 +3687,10 @@
       <c r="GW6" s="30"/>
       <c r="GX6" s="30"/>
       <c r="GY6" s="30"/>
-      <c r="GZ6" s="29"/>
-      <c r="HA6" s="29"/>
-      <c r="HB6" s="29"/>
-      <c r="HC6" s="29"/>
+      <c r="GZ6" s="30"/>
+      <c r="HA6" s="30"/>
+      <c r="HB6" s="30"/>
+      <c r="HC6" s="30"/>
       <c r="HD6" s="29"/>
       <c r="HE6" s="29"/>
       <c r="HF6" s="29"/>
@@ -3546,10 +3703,10 @@
       <c r="HM6" s="29"/>
       <c r="HN6" s="29"/>
       <c r="HO6" s="29"/>
-      <c r="HP6" s="4"/>
-      <c r="HQ6" s="4"/>
-      <c r="HR6" s="4"/>
-      <c r="HS6" s="4"/>
+      <c r="HP6" s="29"/>
+      <c r="HQ6" s="29"/>
+      <c r="HR6" s="29"/>
+      <c r="HS6" s="29"/>
       <c r="HT6" s="4"/>
       <c r="HU6" s="4"/>
       <c r="HV6" s="4"/>
@@ -3557,8 +3714,12 @@
       <c r="HX6" s="4"/>
       <c r="HY6" s="4"/>
       <c r="HZ6" s="4"/>
+      <c r="IA6" s="4"/>
+      <c r="IB6" s="4"/>
+      <c r="IC6" s="4"/>
+      <c r="ID6" s="4"/>
     </row>
-    <row r="7" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="7" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -3648,16 +3809,16 @@
       <c r="CI7" s="29"/>
       <c r="CJ7" s="29"/>
       <c r="CK7" s="29"/>
+      <c r="CL7" s="29"/>
       <c r="CM7" s="29"/>
-      <c r="CN7" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="CO7" s="120"/>
-      <c r="CP7" s="120"/>
-      <c r="CQ7" s="31"/>
-      <c r="CR7" s="31"/>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="31"/>
+      <c r="CN7" s="29"/>
+      <c r="CO7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS7" s="114"/>
+      <c r="CT7" s="114"/>
       <c r="CU7" s="31"/>
       <c r="CV7" s="31"/>
       <c r="CW7" s="31"/>
@@ -3767,10 +3928,10 @@
       <c r="GW7" s="31"/>
       <c r="GX7" s="31"/>
       <c r="GY7" s="31"/>
-      <c r="GZ7" s="29"/>
-      <c r="HA7" s="29"/>
-      <c r="HB7" s="29"/>
-      <c r="HC7" s="29"/>
+      <c r="GZ7" s="31"/>
+      <c r="HA7" s="31"/>
+      <c r="HB7" s="31"/>
+      <c r="HC7" s="31"/>
       <c r="HD7" s="29"/>
       <c r="HE7" s="29"/>
       <c r="HF7" s="29"/>
@@ -3783,10 +3944,10 @@
       <c r="HM7" s="29"/>
       <c r="HN7" s="29"/>
       <c r="HO7" s="29"/>
-      <c r="HP7" s="4"/>
-      <c r="HQ7" s="4"/>
-      <c r="HR7" s="4"/>
-      <c r="HS7" s="4"/>
+      <c r="HP7" s="29"/>
+      <c r="HQ7" s="29"/>
+      <c r="HR7" s="29"/>
+      <c r="HS7" s="29"/>
       <c r="HT7" s="4"/>
       <c r="HU7" s="4"/>
       <c r="HV7" s="4"/>
@@ -3794,8 +3955,12 @@
       <c r="HX7" s="4"/>
       <c r="HY7" s="4"/>
       <c r="HZ7" s="4"/>
+      <c r="IA7" s="4"/>
+      <c r="IB7" s="4"/>
+      <c r="IC7" s="4"/>
+      <c r="ID7" s="4"/>
     </row>
-    <row r="8" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="8" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -3887,13 +4052,13 @@
       <c r="CK8" s="29"/>
       <c r="CL8" s="29"/>
       <c r="CM8" s="29"/>
-      <c r="CN8" s="30" t="s">
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="CO8" s="30"/>
-      <c r="CP8" s="30"/>
-      <c r="CQ8" s="30"/>
-      <c r="CR8" s="30"/>
       <c r="CS8" s="30"/>
       <c r="CT8" s="30"/>
       <c r="CU8" s="30"/>
@@ -4005,10 +4170,10 @@
       <c r="GW8" s="30"/>
       <c r="GX8" s="30"/>
       <c r="GY8" s="30"/>
-      <c r="GZ8" s="29"/>
-      <c r="HA8" s="29"/>
-      <c r="HB8" s="29"/>
-      <c r="HC8" s="29"/>
+      <c r="GZ8" s="30"/>
+      <c r="HA8" s="30"/>
+      <c r="HB8" s="30"/>
+      <c r="HC8" s="30"/>
       <c r="HD8" s="29"/>
       <c r="HE8" s="29"/>
       <c r="HF8" s="29"/>
@@ -4021,10 +4186,10 @@
       <c r="HM8" s="29"/>
       <c r="HN8" s="29"/>
       <c r="HO8" s="29"/>
-      <c r="HP8" s="4"/>
-      <c r="HQ8" s="4"/>
-      <c r="HR8" s="4"/>
-      <c r="HS8" s="4"/>
+      <c r="HP8" s="29"/>
+      <c r="HQ8" s="29"/>
+      <c r="HR8" s="29"/>
+      <c r="HS8" s="29"/>
       <c r="HT8" s="4"/>
       <c r="HU8" s="4"/>
       <c r="HV8" s="4"/>
@@ -4032,8 +4197,12 @@
       <c r="HX8" s="4"/>
       <c r="HY8" s="4"/>
       <c r="HZ8" s="4"/>
+      <c r="IA8" s="4"/>
+      <c r="IB8" s="4"/>
+      <c r="IC8" s="4"/>
+      <c r="ID8" s="4"/>
     </row>
-    <row r="9" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="9" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -4123,16 +4292,16 @@
       <c r="CI9" s="29"/>
       <c r="CJ9" s="29"/>
       <c r="CK9" s="29"/>
+      <c r="CL9" s="29"/>
       <c r="CM9" s="29"/>
-      <c r="CN9" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO9" s="120"/>
-      <c r="CP9" s="120"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="32"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS9" s="114"/>
+      <c r="CT9" s="114"/>
       <c r="CU9" s="32"/>
       <c r="CV9" s="32"/>
       <c r="CW9" s="32"/>
@@ -4242,10 +4411,10 @@
       <c r="GW9" s="32"/>
       <c r="GX9" s="32"/>
       <c r="GY9" s="32"/>
-      <c r="GZ9" s="29"/>
-      <c r="HA9" s="29"/>
-      <c r="HB9" s="29"/>
-      <c r="HC9" s="29"/>
+      <c r="GZ9" s="32"/>
+      <c r="HA9" s="32"/>
+      <c r="HB9" s="32"/>
+      <c r="HC9" s="32"/>
       <c r="HD9" s="29"/>
       <c r="HE9" s="29"/>
       <c r="HF9" s="29"/>
@@ -4258,10 +4427,10 @@
       <c r="HM9" s="29"/>
       <c r="HN9" s="29"/>
       <c r="HO9" s="29"/>
-      <c r="HP9" s="4"/>
-      <c r="HQ9" s="4"/>
-      <c r="HR9" s="4"/>
-      <c r="HS9" s="4"/>
+      <c r="HP9" s="29"/>
+      <c r="HQ9" s="29"/>
+      <c r="HR9" s="29"/>
+      <c r="HS9" s="29"/>
       <c r="HT9" s="4"/>
       <c r="HU9" s="4"/>
       <c r="HV9" s="4"/>
@@ -4269,8 +4438,12 @@
       <c r="HX9" s="4"/>
       <c r="HY9" s="4"/>
       <c r="HZ9" s="4"/>
+      <c r="IA9" s="4"/>
+      <c r="IB9" s="4"/>
+      <c r="IC9" s="4"/>
+      <c r="ID9" s="4"/>
     </row>
-    <row r="10" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="10" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -4362,13 +4535,13 @@
       <c r="CK10" s="29"/>
       <c r="CL10" s="29"/>
       <c r="CM10" s="29"/>
-      <c r="CN10" s="30" t="s">
+      <c r="CN10" s="29"/>
+      <c r="CO10" s="29"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="29"/>
+      <c r="CR10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="CO10" s="30"/>
-      <c r="CP10" s="30"/>
-      <c r="CQ10" s="30"/>
-      <c r="CR10" s="30"/>
       <c r="CS10" s="30"/>
       <c r="CT10" s="30"/>
       <c r="CU10" s="30"/>
@@ -4480,10 +4653,10 @@
       <c r="GW10" s="30"/>
       <c r="GX10" s="30"/>
       <c r="GY10" s="30"/>
-      <c r="GZ10" s="29"/>
-      <c r="HA10" s="29"/>
-      <c r="HB10" s="29"/>
-      <c r="HC10" s="29"/>
+      <c r="GZ10" s="30"/>
+      <c r="HA10" s="30"/>
+      <c r="HB10" s="30"/>
+      <c r="HC10" s="30"/>
       <c r="HD10" s="29"/>
       <c r="HE10" s="29"/>
       <c r="HF10" s="29"/>
@@ -4496,10 +4669,10 @@
       <c r="HM10" s="29"/>
       <c r="HN10" s="29"/>
       <c r="HO10" s="29"/>
-      <c r="HP10" s="4"/>
-      <c r="HQ10" s="4"/>
-      <c r="HR10" s="4"/>
-      <c r="HS10" s="4"/>
+      <c r="HP10" s="29"/>
+      <c r="HQ10" s="29"/>
+      <c r="HR10" s="29"/>
+      <c r="HS10" s="29"/>
       <c r="HT10" s="4"/>
       <c r="HU10" s="4"/>
       <c r="HV10" s="4"/>
@@ -4507,8 +4680,12 @@
       <c r="HX10" s="4"/>
       <c r="HY10" s="4"/>
       <c r="HZ10" s="4"/>
+      <c r="IA10" s="4"/>
+      <c r="IB10" s="4"/>
+      <c r="IC10" s="4"/>
+      <c r="ID10" s="4"/>
     </row>
-    <row r="11" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="11" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -4598,16 +4775,16 @@
       <c r="CI11" s="29"/>
       <c r="CJ11" s="29"/>
       <c r="CK11" s="29"/>
+      <c r="CL11" s="29"/>
       <c r="CM11" s="29"/>
-      <c r="CN11" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="CO11" s="120"/>
-      <c r="CP11" s="120"/>
-      <c r="CQ11" s="31"/>
-      <c r="CR11" s="31"/>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="31"/>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="29"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS11" s="114"/>
+      <c r="CT11" s="114"/>
       <c r="CU11" s="31"/>
       <c r="CV11" s="31"/>
       <c r="CW11" s="31"/>
@@ -4717,10 +4894,10 @@
       <c r="GW11" s="31"/>
       <c r="GX11" s="31"/>
       <c r="GY11" s="31"/>
-      <c r="GZ11" s="29"/>
-      <c r="HA11" s="29"/>
-      <c r="HB11" s="29"/>
-      <c r="HC11" s="29"/>
+      <c r="GZ11" s="31"/>
+      <c r="HA11" s="31"/>
+      <c r="HB11" s="31"/>
+      <c r="HC11" s="31"/>
       <c r="HD11" s="29"/>
       <c r="HE11" s="29"/>
       <c r="HF11" s="29"/>
@@ -4733,10 +4910,10 @@
       <c r="HM11" s="29"/>
       <c r="HN11" s="29"/>
       <c r="HO11" s="29"/>
-      <c r="HP11" s="4"/>
-      <c r="HQ11" s="4"/>
-      <c r="HR11" s="4"/>
-      <c r="HS11" s="4"/>
+      <c r="HP11" s="29"/>
+      <c r="HQ11" s="29"/>
+      <c r="HR11" s="29"/>
+      <c r="HS11" s="29"/>
       <c r="HT11" s="4"/>
       <c r="HU11" s="4"/>
       <c r="HV11" s="4"/>
@@ -4744,8 +4921,12 @@
       <c r="HX11" s="4"/>
       <c r="HY11" s="4"/>
       <c r="HZ11" s="4"/>
+      <c r="IA11" s="4"/>
+      <c r="IB11" s="4"/>
+      <c r="IC11" s="4"/>
+      <c r="ID11" s="4"/>
     </row>
-    <row r="12" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="12" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -4837,13 +5018,13 @@
       <c r="CK12" s="29"/>
       <c r="CL12" s="29"/>
       <c r="CM12" s="29"/>
-      <c r="CN12" s="30" t="s">
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="29"/>
+      <c r="CP12" s="29"/>
+      <c r="CQ12" s="29"/>
+      <c r="CR12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="CO12" s="30"/>
-      <c r="CP12" s="30"/>
-      <c r="CQ12" s="30"/>
-      <c r="CR12" s="30"/>
       <c r="CS12" s="30"/>
       <c r="CT12" s="30"/>
       <c r="CU12" s="30"/>
@@ -4955,10 +5136,10 @@
       <c r="GW12" s="30"/>
       <c r="GX12" s="30"/>
       <c r="GY12" s="30"/>
-      <c r="GZ12" s="29"/>
-      <c r="HA12" s="29"/>
-      <c r="HB12" s="29"/>
-      <c r="HC12" s="29"/>
+      <c r="GZ12" s="30"/>
+      <c r="HA12" s="30"/>
+      <c r="HB12" s="30"/>
+      <c r="HC12" s="30"/>
       <c r="HD12" s="29"/>
       <c r="HE12" s="29"/>
       <c r="HF12" s="29"/>
@@ -4971,10 +5152,10 @@
       <c r="HM12" s="29"/>
       <c r="HN12" s="29"/>
       <c r="HO12" s="29"/>
-      <c r="HP12" s="4"/>
-      <c r="HQ12" s="4"/>
-      <c r="HR12" s="4"/>
-      <c r="HS12" s="4"/>
+      <c r="HP12" s="29"/>
+      <c r="HQ12" s="29"/>
+      <c r="HR12" s="29"/>
+      <c r="HS12" s="29"/>
       <c r="HT12" s="4"/>
       <c r="HU12" s="4"/>
       <c r="HV12" s="4"/>
@@ -4982,8 +5163,12 @@
       <c r="HX12" s="4"/>
       <c r="HY12" s="4"/>
       <c r="HZ12" s="4"/>
+      <c r="IA12" s="4"/>
+      <c r="IB12" s="4"/>
+      <c r="IC12" s="4"/>
+      <c r="ID12" s="4"/>
     </row>
-    <row r="13" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="13" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -5073,16 +5258,16 @@
       <c r="CI13" s="29"/>
       <c r="CJ13" s="29"/>
       <c r="CK13" s="29"/>
+      <c r="CL13" s="29"/>
       <c r="CM13" s="29"/>
-      <c r="CN13" s="99" t="s">
+      <c r="CN13" s="29"/>
+      <c r="CO13" s="29"/>
+      <c r="CQ13" s="29"/>
+      <c r="CR13" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="CO13" s="120"/>
-      <c r="CP13" s="120"/>
-      <c r="CQ13" s="31"/>
-      <c r="CR13" s="31"/>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="31"/>
+      <c r="CS13" s="114"/>
+      <c r="CT13" s="114"/>
       <c r="CU13" s="31"/>
       <c r="CV13" s="31"/>
       <c r="CW13" s="31"/>
@@ -5192,10 +5377,10 @@
       <c r="GW13" s="31"/>
       <c r="GX13" s="31"/>
       <c r="GY13" s="31"/>
-      <c r="GZ13" s="29"/>
-      <c r="HA13" s="29"/>
-      <c r="HB13" s="29"/>
-      <c r="HC13" s="29"/>
+      <c r="GZ13" s="31"/>
+      <c r="HA13" s="31"/>
+      <c r="HB13" s="31"/>
+      <c r="HC13" s="31"/>
       <c r="HD13" s="29"/>
       <c r="HE13" s="29"/>
       <c r="HF13" s="29"/>
@@ -5208,10 +5393,10 @@
       <c r="HM13" s="29"/>
       <c r="HN13" s="29"/>
       <c r="HO13" s="29"/>
-      <c r="HP13" s="4"/>
-      <c r="HQ13" s="4"/>
-      <c r="HR13" s="4"/>
-      <c r="HS13" s="4"/>
+      <c r="HP13" s="29"/>
+      <c r="HQ13" s="29"/>
+      <c r="HR13" s="29"/>
+      <c r="HS13" s="29"/>
       <c r="HT13" s="4"/>
       <c r="HU13" s="4"/>
       <c r="HV13" s="4"/>
@@ -5219,8 +5404,12 @@
       <c r="HX13" s="4"/>
       <c r="HY13" s="4"/>
       <c r="HZ13" s="4"/>
+      <c r="IA13" s="4"/>
+      <c r="IB13" s="4"/>
+      <c r="IC13" s="4"/>
+      <c r="ID13" s="4"/>
     </row>
-    <row r="14" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="14" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -5312,13 +5501,13 @@
       <c r="CK14" s="29"/>
       <c r="CL14" s="29"/>
       <c r="CM14" s="29"/>
-      <c r="CN14" s="30" t="s">
+      <c r="CN14" s="29"/>
+      <c r="CO14" s="29"/>
+      <c r="CP14" s="29"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="CO14" s="30"/>
-      <c r="CP14" s="30"/>
-      <c r="CQ14" s="30"/>
-      <c r="CR14" s="30"/>
       <c r="CS14" s="30"/>
       <c r="CT14" s="30"/>
       <c r="CU14" s="30"/>
@@ -5430,10 +5619,10 @@
       <c r="GW14" s="30"/>
       <c r="GX14" s="30"/>
       <c r="GY14" s="30"/>
-      <c r="GZ14" s="29"/>
-      <c r="HA14" s="29"/>
-      <c r="HB14" s="29"/>
-      <c r="HC14" s="29"/>
+      <c r="GZ14" s="30"/>
+      <c r="HA14" s="30"/>
+      <c r="HB14" s="30"/>
+      <c r="HC14" s="30"/>
       <c r="HD14" s="29"/>
       <c r="HE14" s="29"/>
       <c r="HF14" s="29"/>
@@ -5446,10 +5635,10 @@
       <c r="HM14" s="29"/>
       <c r="HN14" s="29"/>
       <c r="HO14" s="29"/>
-      <c r="HP14" s="4"/>
-      <c r="HQ14" s="4"/>
-      <c r="HR14" s="4"/>
-      <c r="HS14" s="4"/>
+      <c r="HP14" s="29"/>
+      <c r="HQ14" s="29"/>
+      <c r="HR14" s="29"/>
+      <c r="HS14" s="29"/>
       <c r="HT14" s="4"/>
       <c r="HU14" s="4"/>
       <c r="HV14" s="4"/>
@@ -5457,8 +5646,12 @@
       <c r="HX14" s="4"/>
       <c r="HY14" s="4"/>
       <c r="HZ14" s="4"/>
+      <c r="IA14" s="4"/>
+      <c r="IB14" s="4"/>
+      <c r="IC14" s="4"/>
+      <c r="ID14" s="4"/>
     </row>
-    <row r="15" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="15" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -5548,16 +5741,16 @@
       <c r="CI15" s="29"/>
       <c r="CJ15" s="29"/>
       <c r="CK15" s="29"/>
+      <c r="CL15" s="29"/>
       <c r="CM15" s="29"/>
-      <c r="CN15" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO15" s="120"/>
-      <c r="CP15" s="120"/>
-      <c r="CQ15" s="31"/>
-      <c r="CR15" s="31"/>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="31"/>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="29"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS15" s="114"/>
+      <c r="CT15" s="114"/>
       <c r="CU15" s="31"/>
       <c r="CV15" s="31"/>
       <c r="CW15" s="31"/>
@@ -5667,10 +5860,10 @@
       <c r="GW15" s="31"/>
       <c r="GX15" s="31"/>
       <c r="GY15" s="31"/>
-      <c r="GZ15" s="29"/>
-      <c r="HA15" s="29"/>
-      <c r="HB15" s="29"/>
-      <c r="HC15" s="29"/>
+      <c r="GZ15" s="31"/>
+      <c r="HA15" s="31"/>
+      <c r="HB15" s="31"/>
+      <c r="HC15" s="31"/>
       <c r="HD15" s="29"/>
       <c r="HE15" s="29"/>
       <c r="HF15" s="29"/>
@@ -5683,10 +5876,10 @@
       <c r="HM15" s="29"/>
       <c r="HN15" s="29"/>
       <c r="HO15" s="29"/>
-      <c r="HP15" s="4"/>
-      <c r="HQ15" s="4"/>
-      <c r="HR15" s="4"/>
-      <c r="HS15" s="4"/>
+      <c r="HP15" s="29"/>
+      <c r="HQ15" s="29"/>
+      <c r="HR15" s="29"/>
+      <c r="HS15" s="29"/>
       <c r="HT15" s="4"/>
       <c r="HU15" s="4"/>
       <c r="HV15" s="4"/>
@@ -5694,8 +5887,12 @@
       <c r="HX15" s="4"/>
       <c r="HY15" s="4"/>
       <c r="HZ15" s="4"/>
+      <c r="IA15" s="4"/>
+      <c r="IB15" s="4"/>
+      <c r="IC15" s="4"/>
+      <c r="ID15" s="4"/>
     </row>
-    <row r="16" spans="1:234" s="26" customFormat="1" ht="16.2" thickBot="1">
+    <row r="16" spans="1:238" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -5787,13 +5984,13 @@
       <c r="CK16" s="29"/>
       <c r="CL16" s="29"/>
       <c r="CM16" s="29"/>
-      <c r="CN16" s="33" t="s">
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="29"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="CO16" s="33"/>
-      <c r="CP16" s="33"/>
-      <c r="CQ16" s="33"/>
-      <c r="CR16" s="33"/>
       <c r="CS16" s="33"/>
       <c r="CT16" s="33"/>
       <c r="CU16" s="33"/>
@@ -5905,10 +6102,10 @@
       <c r="GW16" s="33"/>
       <c r="GX16" s="33"/>
       <c r="GY16" s="33"/>
-      <c r="GZ16" s="29"/>
-      <c r="HA16" s="29"/>
-      <c r="HB16" s="29"/>
-      <c r="HC16" s="29"/>
+      <c r="GZ16" s="33"/>
+      <c r="HA16" s="33"/>
+      <c r="HB16" s="33"/>
+      <c r="HC16" s="33"/>
       <c r="HD16" s="29"/>
       <c r="HE16" s="29"/>
       <c r="HF16" s="29"/>
@@ -5921,10 +6118,10 @@
       <c r="HM16" s="29"/>
       <c r="HN16" s="29"/>
       <c r="HO16" s="29"/>
-      <c r="HP16" s="4"/>
-      <c r="HQ16" s="4"/>
-      <c r="HR16" s="4"/>
-      <c r="HS16" s="4"/>
+      <c r="HP16" s="29"/>
+      <c r="HQ16" s="29"/>
+      <c r="HR16" s="29"/>
+      <c r="HS16" s="29"/>
       <c r="HT16" s="4"/>
       <c r="HU16" s="4"/>
       <c r="HV16" s="4"/>
@@ -5932,8 +6129,12 @@
       <c r="HX16" s="4"/>
       <c r="HY16" s="4"/>
       <c r="HZ16" s="4"/>
+      <c r="IA16" s="4"/>
+      <c r="IB16" s="4"/>
+      <c r="IC16" s="4"/>
+      <c r="ID16" s="4"/>
     </row>
-    <row r="17" spans="1:234">
+    <row r="17" spans="1:238">
       <c r="A17" s="4"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5947,11 +6148,11 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="77" t="s">
+      <c r="N17" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="74" t="s">
         <v>1</v>
       </c>
       <c r="Q17" s="40"/>
@@ -6029,15 +6230,15 @@
       <c r="CK17" s="43"/>
       <c r="CL17" s="43"/>
       <c r="CM17" s="43"/>
-      <c r="CN17" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="CO17" s="57"/>
-      <c r="CP17" s="57"/>
-      <c r="CQ17" s="44"/>
-      <c r="CR17" s="44"/>
-      <c r="CS17" s="44"/>
-      <c r="CT17" s="44"/>
+      <c r="CN17" s="43"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS17" s="55"/>
+      <c r="CT17" s="55"/>
       <c r="CU17" s="44"/>
       <c r="CV17" s="44"/>
       <c r="CW17" s="44"/>
@@ -6147,28 +6348,28 @@
       <c r="GW17" s="44"/>
       <c r="GX17" s="44"/>
       <c r="GY17" s="44"/>
-      <c r="GZ17" s="45"/>
-      <c r="HA17" s="46"/>
-      <c r="HB17" s="46"/>
-      <c r="HC17" s="46"/>
-      <c r="HD17" s="46"/>
+      <c r="GZ17" s="44"/>
+      <c r="HA17" s="44"/>
+      <c r="HB17" s="44"/>
+      <c r="HC17" s="44"/>
+      <c r="HD17" s="45"/>
       <c r="HE17" s="46"/>
       <c r="HF17" s="46"/>
       <c r="HG17" s="46"/>
-      <c r="HH17" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="HI17" s="39"/>
-      <c r="HJ17" s="10"/>
-      <c r="HK17" s="10"/>
-      <c r="HL17" s="10"/>
-      <c r="HM17" s="10"/>
+      <c r="HH17" s="46"/>
+      <c r="HI17" s="46"/>
+      <c r="HJ17" s="46"/>
+      <c r="HK17" s="46"/>
+      <c r="HL17" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="HM17" s="39"/>
       <c r="HN17" s="10"/>
       <c r="HO17" s="10"/>
-      <c r="HP17" s="4"/>
-      <c r="HQ17" s="4"/>
-      <c r="HR17" s="4"/>
-      <c r="HS17" s="4"/>
+      <c r="HP17" s="10"/>
+      <c r="HQ17" s="10"/>
+      <c r="HR17" s="10"/>
+      <c r="HS17" s="10"/>
       <c r="HT17" s="4"/>
       <c r="HU17" s="4"/>
       <c r="HV17" s="4"/>
@@ -6176,8 +6377,12 @@
       <c r="HX17" s="4"/>
       <c r="HY17" s="4"/>
       <c r="HZ17" s="4"/>
+      <c r="IA17" s="4"/>
+      <c r="IB17" s="4"/>
+      <c r="IC17" s="4"/>
+      <c r="ID17" s="4"/>
     </row>
-    <row r="18" spans="1:234" ht="16.2" thickBot="1">
+    <row r="18" spans="1:238" ht="16" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6191,11 +6396,11 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="74"/>
-      <c r="P18" s="78" t="s">
+      <c r="N18" s="152" t="s">
+        <v>302</v>
+      </c>
+      <c r="O18" s="71"/>
+      <c r="P18" s="75" t="s">
         <v>1</v>
       </c>
       <c r="Q18" s="47"/>
@@ -6273,13 +6478,13 @@
       <c r="CK18" s="50"/>
       <c r="CL18" s="50"/>
       <c r="CM18" s="50"/>
-      <c r="CN18" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="CO18" s="51"/>
-      <c r="CP18" s="51"/>
-      <c r="CQ18" s="51"/>
-      <c r="CR18" s="51"/>
+      <c r="CN18" s="50"/>
+      <c r="CO18" s="50"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="51" t="s">
+        <v>39</v>
+      </c>
       <c r="CS18" s="51"/>
       <c r="CT18" s="51"/>
       <c r="CU18" s="51"/>
@@ -6391,28 +6596,28 @@
       <c r="GW18" s="51"/>
       <c r="GX18" s="51"/>
       <c r="GY18" s="51"/>
-      <c r="GZ18" s="52"/>
-      <c r="HA18" s="53"/>
-      <c r="HB18" s="53"/>
-      <c r="HC18" s="53"/>
-      <c r="HD18" s="53"/>
+      <c r="GZ18" s="51"/>
+      <c r="HA18" s="51"/>
+      <c r="HB18" s="51"/>
+      <c r="HC18" s="51"/>
+      <c r="HD18" s="52"/>
       <c r="HE18" s="53"/>
       <c r="HF18" s="53"/>
       <c r="HG18" s="53"/>
-      <c r="HH18" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="HI18" s="39"/>
-      <c r="HJ18" s="10"/>
-      <c r="HK18" s="10"/>
-      <c r="HL18" s="10"/>
-      <c r="HM18" s="10"/>
+      <c r="HH18" s="53"/>
+      <c r="HI18" s="53"/>
+      <c r="HJ18" s="53"/>
+      <c r="HK18" s="53"/>
+      <c r="HL18" s="144" t="s">
+        <v>302</v>
+      </c>
+      <c r="HM18" s="39"/>
       <c r="HN18" s="10"/>
       <c r="HO18" s="10"/>
-      <c r="HP18" s="4"/>
-      <c r="HQ18" s="4"/>
-      <c r="HR18" s="4"/>
-      <c r="HS18" s="4"/>
+      <c r="HP18" s="10"/>
+      <c r="HQ18" s="10"/>
+      <c r="HR18" s="10"/>
+      <c r="HS18" s="10"/>
       <c r="HT18" s="4"/>
       <c r="HU18" s="4"/>
       <c r="HV18" s="4"/>
@@ -6420,8 +6625,12 @@
       <c r="HX18" s="4"/>
       <c r="HY18" s="4"/>
       <c r="HZ18" s="4"/>
+      <c r="IA18" s="4"/>
+      <c r="IB18" s="4"/>
+      <c r="IC18" s="4"/>
+      <c r="ID18" s="4"/>
     </row>
-    <row r="19" spans="1:234" ht="16.2" thickBot="1">
+    <row r="19" spans="1:238" ht="16" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -6438,7 +6647,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P19" s="22" t="s">
         <v>1</v>
@@ -6518,13 +6727,13 @@
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
-      <c r="CN19" s="12" t="s">
+      <c r="CN19" s="11"/>
+      <c r="CO19" s="11"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
       <c r="CS19" s="12"/>
       <c r="CT19" s="12"/>
       <c r="CU19" s="12"/>
@@ -6636,28 +6845,28 @@
       <c r="GW19" s="12"/>
       <c r="GX19" s="12"/>
       <c r="GY19" s="12"/>
-      <c r="GZ19" s="14"/>
-      <c r="HA19" s="13"/>
-      <c r="HB19" s="13"/>
-      <c r="HC19" s="13"/>
-      <c r="HD19" s="13"/>
+      <c r="GZ19" s="12"/>
+      <c r="HA19" s="12"/>
+      <c r="HB19" s="12"/>
+      <c r="HC19" s="12"/>
+      <c r="HD19" s="14"/>
       <c r="HE19" s="13"/>
       <c r="HF19" s="13"/>
       <c r="HG19" s="13"/>
-      <c r="HH19" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="HH19" s="13"/>
       <c r="HI19" s="13"/>
       <c r="HJ19" s="13"/>
       <c r="HK19" s="13"/>
-      <c r="HL19" s="13"/>
+      <c r="HL19" s="13" t="s">
+        <v>0</v>
+      </c>
       <c r="HM19" s="13"/>
       <c r="HN19" s="13"/>
       <c r="HO19" s="13"/>
-      <c r="HP19" s="4"/>
-      <c r="HQ19" s="4"/>
-      <c r="HR19" s="4"/>
-      <c r="HS19" s="4"/>
+      <c r="HP19" s="13"/>
+      <c r="HQ19" s="13"/>
+      <c r="HR19" s="13"/>
+      <c r="HS19" s="13"/>
       <c r="HT19" s="4"/>
       <c r="HU19" s="4"/>
       <c r="HV19" s="4"/>
@@ -6665,24 +6874,28 @@
       <c r="HX19" s="4"/>
       <c r="HY19" s="4"/>
       <c r="HZ19" s="4"/>
+      <c r="IA19" s="4"/>
+      <c r="IB19" s="4"/>
+      <c r="IC19" s="4"/>
+      <c r="ID19" s="4"/>
     </row>
-    <row r="20" spans="1:234" ht="16.2" thickBot="1">
+    <row r="20" spans="1:238" ht="16" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="62" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="60" t="s">
         <v>14</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="62" t="s">
-        <v>15</v>
       </c>
       <c r="J20" s="41"/>
       <c r="K20" s="41" t="s">
@@ -6690,11 +6903,11 @@
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
-      <c r="N20" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="62" t="s">
+      <c r="N20" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="69"/>
+      <c r="P20" s="60" t="s">
         <v>1</v>
       </c>
       <c r="Q20" s="41"/>
@@ -6702,12 +6915,12 @@
       <c r="S20" s="41"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
-      <c r="V20" s="62" t="s">
-        <v>16</v>
+      <c r="V20" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="W20" s="41"/>
-      <c r="X20" s="79" t="s">
-        <v>49</v>
+      <c r="X20" s="153" t="s">
+        <v>301</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="15"/>
@@ -6776,15 +6989,15 @@
       <c r="CK20" s="11"/>
       <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
-      <c r="CN20" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="CO20" s="110"/>
-      <c r="CP20" s="110"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="11"/>
+      <c r="CP20" s="11"/>
+      <c r="CQ20" s="11"/>
+      <c r="CR20" s="137" t="s">
+        <v>306</v>
+      </c>
+      <c r="CS20" s="105"/>
+      <c r="CT20" s="105"/>
       <c r="CU20" s="17"/>
       <c r="CV20" s="17"/>
       <c r="CW20" s="17"/>
@@ -6894,40 +7107,40 @@
       <c r="GW20" s="17"/>
       <c r="GX20" s="17"/>
       <c r="GY20" s="17"/>
-      <c r="GZ20" s="9"/>
-      <c r="HA20" s="10"/>
-      <c r="HB20" s="101" t="s">
+      <c r="GZ20" s="17"/>
+      <c r="HA20" s="17"/>
+      <c r="HB20" s="17"/>
+      <c r="HC20" s="17"/>
+      <c r="HD20" s="9"/>
+      <c r="HE20" s="10"/>
+      <c r="HF20" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="HG20" s="97"/>
+      <c r="HH20" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="HI20" s="97"/>
+      <c r="HJ20" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="HC20" s="102"/>
-      <c r="HD20" s="102" t="s">
+      <c r="HK20" s="97"/>
+      <c r="HL20" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="HE20" s="102"/>
-      <c r="HF20" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="HG20" s="102"/>
-      <c r="HH20" s="102" t="s">
+      <c r="HM20" s="97"/>
+      <c r="HN20" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="HI20" s="102"/>
-      <c r="HJ20" s="102" t="s">
+      <c r="HO20" s="97"/>
+      <c r="HP20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="HQ20" s="97"/>
+      <c r="HR20" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="HK20" s="102"/>
-      <c r="HL20" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="HM20" s="102"/>
-      <c r="HN20" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="HO20" s="18"/>
-      <c r="HP20" s="4"/>
-      <c r="HQ20" s="4"/>
-      <c r="HR20" s="4"/>
-      <c r="HS20" s="4"/>
+      <c r="HS20" s="18"/>
       <c r="HT20" s="4"/>
       <c r="HU20" s="4"/>
       <c r="HV20" s="4"/>
@@ -6935,38 +7148,46 @@
       <c r="HX20" s="4"/>
       <c r="HY20" s="4"/>
       <c r="HZ20" s="4"/>
+      <c r="IA20" s="4"/>
+      <c r="IB20" s="4"/>
+      <c r="IC20" s="4"/>
+      <c r="ID20" s="4"/>
     </row>
-    <row r="21" spans="1:234" ht="16.2" thickBot="1">
+    <row r="21" spans="1:238" ht="16" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="48" t="s">
-        <v>46</v>
+      <c r="G21" s="145" t="s">
+        <v>298</v>
       </c>
       <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="145" t="s">
+        <v>302</v>
+      </c>
       <c r="J21" s="48"/>
-      <c r="K21" s="48" t="s">
-        <v>191</v>
+      <c r="K21" s="143" t="s">
+        <v>299</v>
       </c>
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="48" t="s">
-        <v>192</v>
+      <c r="O21" s="71"/>
+      <c r="P21" s="143" t="s">
+        <v>308</v>
       </c>
       <c r="Q21" s="48"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="143" t="s">
+        <v>305</v>
+      </c>
       <c r="W21" s="48"/>
-      <c r="X21" s="60"/>
+      <c r="X21" s="58"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="16"/>
@@ -7034,13 +7255,13 @@
       <c r="CK21" s="11"/>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
-      <c r="CN21" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="CO21" s="17"/>
-      <c r="CP21" s="17"/>
-      <c r="CQ21" s="17"/>
-      <c r="CR21" s="17"/>
+      <c r="CN21" s="11"/>
+      <c r="CO21" s="11"/>
+      <c r="CP21" s="11"/>
+      <c r="CQ21" s="11"/>
+      <c r="CR21" s="154" t="s">
+        <v>307</v>
+      </c>
       <c r="CS21" s="17"/>
       <c r="CT21" s="17"/>
       <c r="CU21" s="17"/>
@@ -7152,40 +7373,40 @@
       <c r="GW21" s="17"/>
       <c r="GX21" s="17"/>
       <c r="GY21" s="17"/>
-      <c r="GZ21" s="9"/>
-      <c r="HA21" s="10"/>
-      <c r="HB21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="HC21" s="8"/>
-      <c r="HD21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="HE21" s="8"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="9"/>
+      <c r="HE21" s="10"/>
       <c r="HF21" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="HG21" s="8"/>
       <c r="HH21" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="HI21" s="8"/>
       <c r="HJ21" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="HK21" s="8"/>
       <c r="HL21" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="HM21" s="8"/>
       <c r="HN21" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="HO21" s="8"/>
-      <c r="HP21" s="4"/>
-      <c r="HQ21" s="4"/>
-      <c r="HR21" s="4"/>
-      <c r="HS21" s="4"/>
+      <c r="HP21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="HQ21" s="8"/>
+      <c r="HR21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="HS21" s="8"/>
       <c r="HT21" s="4"/>
       <c r="HU21" s="4"/>
       <c r="HV21" s="4"/>
@@ -7193,16 +7414,20 @@
       <c r="HX21" s="4"/>
       <c r="HY21" s="4"/>
       <c r="HZ21" s="4"/>
+      <c r="IA21" s="4"/>
+      <c r="IB21" s="4"/>
+      <c r="IC21" s="4"/>
+      <c r="ID21" s="4"/>
     </row>
-    <row r="22" spans="1:234" ht="16.2" thickBot="1">
+    <row r="22" spans="1:238" ht="16" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="10"/>
       <c r="C22" s="22" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="22" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="13" t="s">
@@ -7231,7 +7456,7 @@
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="13" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13" t="s">
@@ -7304,15 +7529,15 @@
       <c r="CK22" s="11"/>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
-      <c r="CN22" s="12" t="s">
+      <c r="CN22" s="11"/>
+      <c r="CO22" s="11"/>
+      <c r="CP22" s="11"/>
+      <c r="CQ22" s="11"/>
+      <c r="CR22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CO22" s="12"/>
-      <c r="CP22" s="12"/>
-      <c r="CQ22" s="11"/>
-      <c r="CR22" s="11"/>
-      <c r="CS22" s="11"/>
-      <c r="CT22" s="11"/>
+      <c r="CS22" s="12"/>
+      <c r="CT22" s="12"/>
       <c r="CU22" s="11"/>
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
@@ -7422,18 +7647,14 @@
       <c r="GW22" s="11"/>
       <c r="GX22" s="11"/>
       <c r="GY22" s="11"/>
-      <c r="GZ22" s="9"/>
-      <c r="HA22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="HB22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="HC22" s="13"/>
-      <c r="HD22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="HE22" s="13"/>
+      <c r="GZ22" s="11"/>
+      <c r="HA22" s="11"/>
+      <c r="HB22" s="11"/>
+      <c r="HC22" s="11"/>
+      <c r="HD22" s="9"/>
+      <c r="HE22" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="HF22" s="13" t="s">
         <v>1</v>
       </c>
@@ -7453,11 +7674,15 @@
       <c r="HN22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="HO22" s="10"/>
-      <c r="HP22" s="4"/>
-      <c r="HQ22" s="4"/>
-      <c r="HR22" s="4"/>
-      <c r="HS22" s="4"/>
+      <c r="HO22" s="13"/>
+      <c r="HP22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="HQ22" s="13"/>
+      <c r="HR22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="HS22" s="10"/>
       <c r="HT22" s="4"/>
       <c r="HU22" s="4"/>
       <c r="HV22" s="4"/>
@@ -7465,31 +7690,35 @@
       <c r="HX22" s="4"/>
       <c r="HY22" s="4"/>
       <c r="HZ22" s="4"/>
+      <c r="IA22" s="4"/>
+      <c r="IB22" s="4"/>
+      <c r="IC22" s="4"/>
+      <c r="ID22" s="4"/>
     </row>
-    <row r="23" spans="1:234" ht="16.2" thickBot="1">
+    <row r="23" spans="1:238" ht="16" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="65" t="s">
-        <v>47</v>
+      <c r="G23" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="63" t="s">
-        <v>9</v>
+      <c r="I23" s="61" t="s">
+        <v>8</v>
       </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="76"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65" t="s">
-        <v>52</v>
+      <c r="K23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="137" t="s">
+        <v>304</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
@@ -7528,24 +7757,24 @@
       <c r="AY23" s="20"/>
       <c r="AZ23" s="20"/>
       <c r="BA23" s="20"/>
-      <c r="BB23" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC23" s="84"/>
-      <c r="BD23" s="84"/>
-      <c r="BE23" s="84"/>
-      <c r="BF23" s="84"/>
-      <c r="BG23" s="84"/>
-      <c r="BH23" s="84"/>
-      <c r="BI23" s="84"/>
-      <c r="BJ23" s="84"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
-      <c r="BM23" s="84"/>
-      <c r="BN23" s="84"/>
-      <c r="BO23" s="84"/>
-      <c r="BP23" s="122" t="s">
-        <v>227</v>
+      <c r="BB23" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="80"/>
+      <c r="BI23" s="80"/>
+      <c r="BJ23" s="80"/>
+      <c r="BK23" s="80"/>
+      <c r="BL23" s="80"/>
+      <c r="BM23" s="80"/>
+      <c r="BN23" s="80"/>
+      <c r="BO23" s="80"/>
+      <c r="BP23" s="116" t="s">
+        <v>208</v>
       </c>
       <c r="BQ23" s="43"/>
       <c r="BR23" s="43"/>
@@ -7570,15 +7799,15 @@
       <c r="CK23" s="43"/>
       <c r="CL23" s="43"/>
       <c r="CM23" s="43"/>
-      <c r="CN23" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="CO23" s="93"/>
-      <c r="CP23" s="93"/>
+      <c r="CN23" s="43"/>
+      <c r="CO23" s="43"/>
+      <c r="CP23" s="43"/>
       <c r="CQ23" s="43"/>
-      <c r="CR23" s="43"/>
-      <c r="CS23" s="43"/>
-      <c r="CT23" s="43"/>
+      <c r="CR23" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="CS23" s="88"/>
+      <c r="CT23" s="88"/>
       <c r="CU23" s="43"/>
       <c r="CV23" s="43"/>
       <c r="CW23" s="43"/>
@@ -7594,15 +7823,15 @@
       <c r="DG23" s="43"/>
       <c r="DH23" s="43"/>
       <c r="DI23" s="43"/>
-      <c r="DJ23" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="DK23" s="83"/>
-      <c r="DL23" s="83"/>
+      <c r="DJ23" s="43"/>
+      <c r="DK23" s="43"/>
+      <c r="DL23" s="43"/>
       <c r="DM23" s="43"/>
-      <c r="DN23" s="43"/>
-      <c r="DO23" s="43"/>
-      <c r="DP23" s="43"/>
+      <c r="DN23" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="DO23" s="79"/>
+      <c r="DP23" s="79"/>
       <c r="DQ23" s="43"/>
       <c r="DR23" s="43"/>
       <c r="DS23" s="43"/>
@@ -7626,17 +7855,17 @@
       <c r="EK23" s="43"/>
       <c r="EL23" s="43"/>
       <c r="EM23" s="43"/>
-      <c r="EN23" s="143" t="s">
-        <v>114</v>
-      </c>
-      <c r="EO23" s="83"/>
-      <c r="EP23" s="83"/>
-      <c r="EQ23" s="83"/>
-      <c r="ER23" s="83"/>
-      <c r="ES23" s="43"/>
-      <c r="ET23" s="43"/>
-      <c r="EU23" s="43"/>
-      <c r="EV23" s="43"/>
+      <c r="EN23" s="43"/>
+      <c r="EO23" s="43"/>
+      <c r="EP23" s="43"/>
+      <c r="EQ23" s="43"/>
+      <c r="ER23" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="ES23" s="79"/>
+      <c r="ET23" s="79"/>
+      <c r="EU23" s="79"/>
+      <c r="EV23" s="79"/>
       <c r="EW23" s="43"/>
       <c r="EX23" s="43"/>
       <c r="EY23" s="43"/>
@@ -7650,33 +7879,33 @@
       <c r="FG23" s="43"/>
       <c r="FH23" s="43"/>
       <c r="FI23" s="43"/>
-      <c r="FJ23" s="83" t="s">
-        <v>5</v>
-      </c>
+      <c r="FJ23" s="43"/>
       <c r="FK23" s="43"/>
       <c r="FL23" s="43"/>
       <c r="FM23" s="43"/>
-      <c r="FN23" s="43"/>
+      <c r="FN23" s="79" t="s">
+        <v>5</v>
+      </c>
       <c r="FO23" s="43"/>
-      <c r="FP23" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="FQ23" s="83"/>
-      <c r="FR23" s="83"/>
+      <c r="FP23" s="43"/>
+      <c r="FQ23" s="43"/>
+      <c r="FR23" s="43"/>
       <c r="FS23" s="43"/>
-      <c r="FT23" s="43"/>
-      <c r="FU23" s="43"/>
-      <c r="FV23" s="43"/>
+      <c r="FT23" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="FU23" s="79"/>
+      <c r="FV23" s="79"/>
       <c r="FW23" s="43"/>
-      <c r="FX23" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="FY23" s="83"/>
-      <c r="FZ23" s="83"/>
+      <c r="FX23" s="43"/>
+      <c r="FY23" s="43"/>
+      <c r="FZ23" s="43"/>
       <c r="GA23" s="43"/>
-      <c r="GB23" s="43"/>
-      <c r="GC23" s="43"/>
-      <c r="GD23" s="43"/>
+      <c r="GB23" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="GC23" s="79"/>
+      <c r="GD23" s="79"/>
       <c r="GE23" s="43"/>
       <c r="GF23" s="43"/>
       <c r="GG23" s="43"/>
@@ -7684,29 +7913,29 @@
       <c r="GI23" s="43"/>
       <c r="GJ23" s="43"/>
       <c r="GK23" s="43"/>
-      <c r="GL23" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="GM23" s="83"/>
-      <c r="GN23" s="83"/>
+      <c r="GL23" s="43"/>
+      <c r="GM23" s="43"/>
+      <c r="GN23" s="43"/>
       <c r="GO23" s="43"/>
-      <c r="GP23" s="43"/>
-      <c r="GQ23" s="43"/>
-      <c r="GR23" s="43"/>
+      <c r="GP23" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="GQ23" s="79"/>
+      <c r="GR23" s="79"/>
       <c r="GS23" s="43"/>
       <c r="GT23" s="43"/>
       <c r="GU23" s="43"/>
-      <c r="GV23" s="144" t="s">
-        <v>149</v>
-      </c>
-      <c r="GW23" s="17"/>
-      <c r="GX23" s="17"/>
-      <c r="GY23" s="17"/>
-      <c r="GZ23" s="9"/>
-      <c r="HA23" s="10"/>
-      <c r="HB23" s="10"/>
-      <c r="HC23" s="10"/>
-      <c r="HD23" s="10"/>
+      <c r="GV23" s="43"/>
+      <c r="GW23" s="43"/>
+      <c r="GX23" s="43"/>
+      <c r="GY23" s="43"/>
+      <c r="GZ23" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="9"/>
       <c r="HE23" s="10"/>
       <c r="HF23" s="10"/>
       <c r="HG23" s="10"/>
@@ -7718,10 +7947,10 @@
       <c r="HM23" s="10"/>
       <c r="HN23" s="10"/>
       <c r="HO23" s="10"/>
-      <c r="HP23" s="4"/>
-      <c r="HQ23" s="4"/>
-      <c r="HR23" s="4"/>
-      <c r="HS23" s="4"/>
+      <c r="HP23" s="10"/>
+      <c r="HQ23" s="10"/>
+      <c r="HR23" s="10"/>
+      <c r="HS23" s="10"/>
       <c r="HT23" s="4"/>
       <c r="HU23" s="4"/>
       <c r="HV23" s="4"/>
@@ -7729,31 +7958,35 @@
       <c r="HX23" s="4"/>
       <c r="HY23" s="4"/>
       <c r="HZ23" s="4"/>
+      <c r="IA23" s="4"/>
+      <c r="IB23" s="4"/>
+      <c r="IC23" s="4"/>
+      <c r="ID23" s="4"/>
     </row>
-    <row r="24" spans="1:234" ht="16.2" thickBot="1">
+    <row r="24" spans="1:238" ht="16" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="66" t="s">
-        <v>41</v>
+      <c r="G24" s="146" t="s">
+        <v>298</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="64" t="s">
-        <v>45</v>
+      <c r="I24" s="62" t="s">
+        <v>1</v>
       </c>
       <c r="J24" s="8"/>
-      <c r="K24" s="75" t="s">
-        <v>50</v>
+      <c r="K24" s="72" t="s">
+        <v>43</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="75" t="s">
-        <v>148</v>
+      <c r="P24" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
@@ -7792,23 +8025,25 @@
       <c r="AY24" s="20"/>
       <c r="AZ24" s="20"/>
       <c r="BA24" s="20"/>
-      <c r="BB24" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC24" s="85"/>
-      <c r="BD24" s="85"/>
-      <c r="BE24" s="85"/>
-      <c r="BF24" s="85"/>
-      <c r="BG24" s="85"/>
-      <c r="BH24" s="85"/>
-      <c r="BI24" s="85"/>
-      <c r="BJ24" s="85"/>
-      <c r="BK24" s="85"/>
-      <c r="BL24" s="85"/>
-      <c r="BM24" s="85"/>
-      <c r="BN24" s="85"/>
-      <c r="BO24" s="85"/>
-      <c r="BP24" s="85"/>
+      <c r="BB24" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC24" s="81"/>
+      <c r="BD24" s="81"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="81"/>
+      <c r="BG24" s="81"/>
+      <c r="BH24" s="81"/>
+      <c r="BI24" s="81"/>
+      <c r="BJ24" s="81"/>
+      <c r="BK24" s="81"/>
+      <c r="BL24" s="81"/>
+      <c r="BM24" s="81"/>
+      <c r="BN24" s="81"/>
+      <c r="BO24" s="81"/>
+      <c r="BP24" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="BQ24" s="50"/>
       <c r="BR24" s="50"/>
       <c r="BS24" s="50"/>
@@ -7832,15 +8067,15 @@
       <c r="CK24" s="50"/>
       <c r="CL24" s="50"/>
       <c r="CM24" s="50"/>
-      <c r="CN24" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO24" s="92"/>
-      <c r="CP24" s="92"/>
+      <c r="CN24" s="50"/>
+      <c r="CO24" s="50"/>
+      <c r="CP24" s="50"/>
       <c r="CQ24" s="50"/>
-      <c r="CR24" s="50"/>
-      <c r="CS24" s="50"/>
-      <c r="CT24" s="50"/>
+      <c r="CR24" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="CS24" s="87"/>
+      <c r="CT24" s="87"/>
       <c r="CU24" s="50"/>
       <c r="CV24" s="50"/>
       <c r="CW24" s="50"/>
@@ -7856,13 +8091,13 @@
       <c r="DG24" s="50"/>
       <c r="DH24" s="50"/>
       <c r="DI24" s="50"/>
-      <c r="DJ24" s="50" t="s">
-        <v>101</v>
-      </c>
+      <c r="DJ24" s="50"/>
       <c r="DK24" s="50"/>
       <c r="DL24" s="50"/>
       <c r="DM24" s="50"/>
-      <c r="DN24" s="50"/>
+      <c r="DN24" s="50" t="s">
+        <v>86</v>
+      </c>
       <c r="DO24" s="50"/>
       <c r="DP24" s="50"/>
       <c r="DQ24" s="50"/>
@@ -7888,13 +8123,13 @@
       <c r="EK24" s="50"/>
       <c r="EL24" s="50"/>
       <c r="EM24" s="50"/>
-      <c r="EN24" s="50" t="s">
-        <v>113</v>
-      </c>
+      <c r="EN24" s="50"/>
       <c r="EO24" s="50"/>
       <c r="EP24" s="50"/>
       <c r="EQ24" s="50"/>
-      <c r="ER24" s="50"/>
+      <c r="ER24" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="ES24" s="50"/>
       <c r="ET24" s="50"/>
       <c r="EU24" s="50"/>
@@ -7916,25 +8151,27 @@
       <c r="FK24" s="50"/>
       <c r="FL24" s="50"/>
       <c r="FM24" s="50"/>
-      <c r="FN24" s="50"/>
+      <c r="FN24" s="143" t="s">
+        <v>310</v>
+      </c>
       <c r="FO24" s="50"/>
-      <c r="FP24" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="FP24" s="50"/>
       <c r="FQ24" s="50"/>
       <c r="FR24" s="50"/>
       <c r="FS24" s="50"/>
-      <c r="FT24" s="50"/>
+      <c r="FT24" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="FU24" s="50"/>
       <c r="FV24" s="50"/>
       <c r="FW24" s="50"/>
-      <c r="FX24" s="50" t="s">
-        <v>130</v>
-      </c>
+      <c r="FX24" s="50"/>
       <c r="FY24" s="50"/>
       <c r="FZ24" s="50"/>
       <c r="GA24" s="50"/>
-      <c r="GB24" s="50"/>
+      <c r="GB24" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="GC24" s="50"/>
       <c r="GD24" s="50"/>
       <c r="GE24" s="50"/>
@@ -7944,29 +8181,29 @@
       <c r="GI24" s="50"/>
       <c r="GJ24" s="50"/>
       <c r="GK24" s="50"/>
-      <c r="GL24" s="50" t="s">
-        <v>138</v>
-      </c>
+      <c r="GL24" s="50"/>
       <c r="GM24" s="50"/>
       <c r="GN24" s="50"/>
       <c r="GO24" s="50"/>
-      <c r="GP24" s="50"/>
+      <c r="GP24" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="GQ24" s="50"/>
       <c r="GR24" s="50"/>
       <c r="GS24" s="50"/>
       <c r="GT24" s="50"/>
       <c r="GU24" s="50"/>
-      <c r="GV24" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="GW24" s="17"/>
-      <c r="GX24" s="17"/>
-      <c r="GY24" s="17"/>
-      <c r="GZ24" s="9"/>
-      <c r="HA24" s="10"/>
-      <c r="HB24" s="10"/>
-      <c r="HC24" s="10"/>
-      <c r="HD24" s="10"/>
+      <c r="GV24" s="50"/>
+      <c r="GW24" s="50"/>
+      <c r="GX24" s="50"/>
+      <c r="GY24" s="50"/>
+      <c r="GZ24" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="9"/>
       <c r="HE24" s="10"/>
       <c r="HF24" s="10"/>
       <c r="HG24" s="10"/>
@@ -7978,10 +8215,10 @@
       <c r="HM24" s="10"/>
       <c r="HN24" s="10"/>
       <c r="HO24" s="10"/>
-      <c r="HP24" s="4"/>
-      <c r="HQ24" s="4"/>
-      <c r="HR24" s="4"/>
-      <c r="HS24" s="4"/>
+      <c r="HP24" s="10"/>
+      <c r="HQ24" s="10"/>
+      <c r="HR24" s="10"/>
+      <c r="HS24" s="10"/>
       <c r="HT24" s="4"/>
       <c r="HU24" s="4"/>
       <c r="HV24" s="4"/>
@@ -7989,8 +8226,12 @@
       <c r="HX24" s="4"/>
       <c r="HY24" s="4"/>
       <c r="HZ24" s="4"/>
+      <c r="IA24" s="4"/>
+      <c r="IB24" s="4"/>
+      <c r="IC24" s="4"/>
+      <c r="ID24" s="4"/>
     </row>
-    <row r="25" spans="1:234" ht="16.2" thickBot="1">
+    <row r="25" spans="1:238" ht="16" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -8004,7 +8245,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -8068,9 +8309,7 @@
       <c r="BM25" s="11"/>
       <c r="BN25" s="11"/>
       <c r="BO25" s="11"/>
-      <c r="BP25" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="BP25" s="11"/>
       <c r="BQ25" s="11"/>
       <c r="BR25" s="11"/>
       <c r="BS25" s="11"/>
@@ -8092,19 +8331,19 @@
       <c r="CI25" s="11"/>
       <c r="CJ25" s="11"/>
       <c r="CK25" s="11"/>
-      <c r="CL25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM25" s="12"/>
-      <c r="CN25" s="12" t="s">
+      <c r="CL25" s="11"/>
+      <c r="CM25" s="11"/>
+      <c r="CN25" s="11"/>
+      <c r="CO25" s="11"/>
+      <c r="CP25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ25" s="12"/>
+      <c r="CR25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CO25" s="12"/>
-      <c r="CP25" s="12"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
-      <c r="CS25" s="11"/>
-      <c r="CT25" s="11"/>
+      <c r="CS25" s="12"/>
+      <c r="CT25" s="12"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
@@ -8120,15 +8359,15 @@
       <c r="DG25" s="11"/>
       <c r="DH25" s="11"/>
       <c r="DI25" s="11"/>
-      <c r="DJ25" s="12" t="s">
+      <c r="DJ25" s="11"/>
+      <c r="DK25" s="11"/>
+      <c r="DL25" s="11"/>
+      <c r="DM25" s="11"/>
+      <c r="DN25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DK25" s="12"/>
-      <c r="DL25" s="12"/>
-      <c r="DM25" s="11"/>
-      <c r="DN25" s="11"/>
-      <c r="DO25" s="11"/>
-      <c r="DP25" s="11"/>
+      <c r="DO25" s="12"/>
+      <c r="DP25" s="12"/>
       <c r="DQ25" s="11"/>
       <c r="DR25" s="11"/>
       <c r="DS25" s="11"/>
@@ -8152,17 +8391,17 @@
       <c r="EK25" s="11"/>
       <c r="EL25" s="11"/>
       <c r="EM25" s="11"/>
-      <c r="EN25" s="12" t="s">
+      <c r="EN25" s="11"/>
+      <c r="EO25" s="11"/>
+      <c r="EP25" s="11"/>
+      <c r="EQ25" s="11"/>
+      <c r="ER25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="EO25" s="12"/>
-      <c r="EP25" s="12"/>
-      <c r="EQ25" s="12"/>
-      <c r="ER25" s="12"/>
-      <c r="ES25" s="11"/>
-      <c r="ET25" s="11"/>
-      <c r="EU25" s="11"/>
-      <c r="EV25" s="11"/>
+      <c r="ES25" s="12"/>
+      <c r="ET25" s="12"/>
+      <c r="EU25" s="12"/>
+      <c r="EV25" s="12"/>
       <c r="EW25" s="11"/>
       <c r="EX25" s="11"/>
       <c r="EY25" s="11"/>
@@ -8176,33 +8415,31 @@
       <c r="FG25" s="11"/>
       <c r="FH25" s="11"/>
       <c r="FI25" s="11"/>
-      <c r="FJ25" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="FJ25" s="11"/>
       <c r="FK25" s="11"/>
       <c r="FL25" s="11"/>
       <c r="FM25" s="11"/>
       <c r="FN25" s="11"/>
       <c r="FO25" s="11"/>
-      <c r="FP25" s="12" t="s">
+      <c r="FP25" s="11"/>
+      <c r="FQ25" s="11"/>
+      <c r="FR25" s="11"/>
+      <c r="FS25" s="11"/>
+      <c r="FT25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="FQ25" s="12"/>
-      <c r="FR25" s="12"/>
-      <c r="FS25" s="11"/>
-      <c r="FT25" s="11"/>
-      <c r="FU25" s="11"/>
-      <c r="FV25" s="11"/>
+      <c r="FU25" s="12"/>
+      <c r="FV25" s="12"/>
       <c r="FW25" s="11"/>
-      <c r="FX25" s="12" t="s">
+      <c r="FX25" s="11"/>
+      <c r="FY25" s="11"/>
+      <c r="FZ25" s="11"/>
+      <c r="GA25" s="11"/>
+      <c r="GB25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="FY25" s="12"/>
-      <c r="FZ25" s="12"/>
-      <c r="GA25" s="11"/>
-      <c r="GB25" s="11"/>
-      <c r="GC25" s="11"/>
-      <c r="GD25" s="11"/>
+      <c r="GC25" s="12"/>
+      <c r="GD25" s="12"/>
       <c r="GE25" s="11"/>
       <c r="GF25" s="11"/>
       <c r="GG25" s="11"/>
@@ -8210,29 +8447,29 @@
       <c r="GI25" s="11"/>
       <c r="GJ25" s="11"/>
       <c r="GK25" s="11"/>
-      <c r="GL25" s="12" t="s">
+      <c r="GL25" s="11"/>
+      <c r="GM25" s="11"/>
+      <c r="GN25" s="11"/>
+      <c r="GO25" s="11"/>
+      <c r="GP25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="GM25" s="12"/>
-      <c r="GN25" s="12"/>
-      <c r="GO25" s="11"/>
-      <c r="GP25" s="11"/>
-      <c r="GQ25" s="11"/>
-      <c r="GR25" s="11"/>
+      <c r="GQ25" s="12"/>
+      <c r="GR25" s="12"/>
       <c r="GS25" s="11"/>
       <c r="GT25" s="11"/>
       <c r="GU25" s="11"/>
-      <c r="GV25" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="GV25" s="11"/>
       <c r="GW25" s="11"/>
       <c r="GX25" s="11"/>
       <c r="GY25" s="11"/>
-      <c r="GZ25" s="9"/>
-      <c r="HA25" s="10"/>
-      <c r="HB25" s="10"/>
-      <c r="HC25" s="10"/>
-      <c r="HD25" s="10"/>
+      <c r="GZ25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA25" s="11"/>
+      <c r="HB25" s="11"/>
+      <c r="HC25" s="11"/>
+      <c r="HD25" s="9"/>
       <c r="HE25" s="10"/>
       <c r="HF25" s="10"/>
       <c r="HG25" s="10"/>
@@ -8244,10 +8481,10 @@
       <c r="HM25" s="10"/>
       <c r="HN25" s="10"/>
       <c r="HO25" s="10"/>
-      <c r="HP25" s="4"/>
-      <c r="HQ25" s="4"/>
-      <c r="HR25" s="4"/>
-      <c r="HS25" s="4"/>
+      <c r="HP25" s="10"/>
+      <c r="HQ25" s="10"/>
+      <c r="HR25" s="10"/>
+      <c r="HS25" s="10"/>
       <c r="HT25" s="4"/>
       <c r="HU25" s="4"/>
       <c r="HV25" s="4"/>
@@ -8255,33 +8492,37 @@
       <c r="HX25" s="4"/>
       <c r="HY25" s="4"/>
       <c r="HZ25" s="4"/>
+      <c r="IA25" s="4"/>
+      <c r="IB25" s="4"/>
+      <c r="IC25" s="4"/>
+      <c r="ID25" s="4"/>
     </row>
-    <row r="26" spans="1:234">
+    <row r="26" spans="1:238">
       <c r="A26" s="4"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="61" t="s">
-        <v>11</v>
+      <c r="E26" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="F26" s="41"/>
-      <c r="G26" s="68" t="s">
-        <v>10</v>
+      <c r="G26" s="65" t="s">
+        <v>9</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="72"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="69"/>
       <c r="Q26" s="41"/>
-      <c r="R26" s="68" t="s">
-        <v>58</v>
+      <c r="R26" s="65" t="s">
+        <v>49</v>
       </c>
       <c r="S26" s="18"/>
-      <c r="T26" s="64" t="s">
+      <c r="T26" s="62" t="s">
         <v>1</v>
       </c>
       <c r="U26" s="8"/>
@@ -8295,67 +8536,67 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AF26" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
+      <c r="AF26" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="43"/>
       <c r="AK26" s="43"/>
       <c r="AL26" s="43"/>
       <c r="AM26" s="43"/>
-      <c r="AN26" s="106"/>
-      <c r="AO26" s="106"/>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
+      <c r="AN26" s="101"/>
+      <c r="AO26" s="101"/>
+      <c r="AP26" s="101"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
       <c r="AY26" s="43"/>
-      <c r="AZ26" s="108" t="s">
+      <c r="AZ26" s="103" t="s">
         <v>1</v>
       </c>
       <c r="BA26" s="43"/>
-      <c r="BB26" s="83" t="s">
-        <v>70</v>
+      <c r="BB26" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="BC26" s="43"/>
-      <c r="BD26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83" t="s">
+      <c r="BD26" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG26" s="79"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="BG26" s="83"/>
-      <c r="BH26" s="83"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK26" s="83"/>
-      <c r="BL26" s="83"/>
+      <c r="BK26" s="79"/>
+      <c r="BL26" s="79"/>
       <c r="BM26" s="43"/>
-      <c r="BN26" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO26" s="105"/>
+      <c r="BN26" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO26" s="100"/>
       <c r="BP26" s="11"/>
       <c r="BQ26" s="11"/>
       <c r="BR26" s="11"/>
       <c r="BS26" s="11"/>
       <c r="BT26" s="11"/>
       <c r="BU26" s="11"/>
-      <c r="BW26" s="136"/>
-      <c r="BX26" s="82" t="s">
-        <v>77</v>
+      <c r="BW26" s="130"/>
+      <c r="BX26" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="BY26" s="43"/>
       <c r="BZ26" s="43"/>
@@ -8364,203 +8605,203 @@
       <c r="CC26" s="43"/>
       <c r="CD26" s="43"/>
       <c r="CE26" s="43"/>
-      <c r="CF26" s="83" t="s">
-        <v>79</v>
+      <c r="CF26" s="79" t="s">
+        <v>68</v>
       </c>
       <c r="CG26" s="43"/>
-      <c r="CH26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI26" s="83"/>
-      <c r="CJ26" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="CK26" s="94"/>
-      <c r="CL26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM26" s="94"/>
-      <c r="CN26" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO26" s="83"/>
-      <c r="CP26" s="83"/>
-      <c r="CQ26" s="43"/>
-      <c r="CR26" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="CS26" s="83"/>
-      <c r="CT26" s="83"/>
-      <c r="CU26" s="83"/>
-      <c r="CV26" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="CW26" s="110"/>
-      <c r="CX26" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY26" s="11"/>
-      <c r="CZ26" s="11"/>
-      <c r="DA26" s="11"/>
-      <c r="DB26" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC26" s="83"/>
-      <c r="DD26" s="83"/>
-      <c r="DE26" s="43"/>
-      <c r="DF26" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG26" s="83"/>
-      <c r="DH26" s="83"/>
+      <c r="CH26" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI26" s="79"/>
+      <c r="CJ26" s="79"/>
+      <c r="CK26" s="79"/>
+      <c r="CL26" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM26" s="79"/>
+      <c r="CN26" s="79"/>
+      <c r="CO26" s="89"/>
+      <c r="CP26" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ26" s="89"/>
+      <c r="CR26" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="CS26" s="79"/>
+      <c r="CT26" s="79"/>
+      <c r="CU26" s="43"/>
+      <c r="CV26" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW26" s="79"/>
+      <c r="CX26" s="79"/>
+      <c r="CY26" s="79"/>
+      <c r="CZ26" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA26" s="105"/>
+      <c r="DB26" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC26" s="11"/>
+      <c r="DD26" s="11"/>
+      <c r="DE26" s="11"/>
+      <c r="DF26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG26" s="79"/>
+      <c r="DH26" s="79"/>
       <c r="DI26" s="43"/>
-      <c r="DJ26" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="DK26" s="83"/>
-      <c r="DL26" s="83"/>
+      <c r="DJ26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="DK26" s="79"/>
+      <c r="DL26" s="79"/>
       <c r="DM26" s="43"/>
-      <c r="DN26" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="DO26" s="43"/>
-      <c r="DP26" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="DQ26" s="110"/>
-      <c r="DR26" s="110"/>
-      <c r="DS26" s="110"/>
-      <c r="DT26" s="110"/>
-      <c r="DU26" s="110"/>
-      <c r="DV26" s="110"/>
-      <c r="DW26" s="11"/>
-      <c r="DX26" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="DY26" s="83"/>
-      <c r="DZ26" s="83"/>
-      <c r="EA26" s="83"/>
-      <c r="EB26" s="83"/>
-      <c r="EC26" s="83"/>
-      <c r="ED26" s="83"/>
-      <c r="EE26" s="83"/>
-      <c r="EF26" s="83"/>
-      <c r="EG26" s="43"/>
-      <c r="EH26" s="43"/>
-      <c r="EI26" s="43"/>
-      <c r="EJ26" s="83" t="s">
+      <c r="DN26" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="DO26" s="79"/>
+      <c r="DP26" s="79"/>
+      <c r="DQ26" s="43"/>
+      <c r="DR26" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="DS26" s="43"/>
+      <c r="DT26" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU26" s="105"/>
+      <c r="DV26" s="105"/>
+      <c r="DW26" s="105"/>
+      <c r="DX26" s="105"/>
+      <c r="DY26" s="105"/>
+      <c r="DZ26" s="105"/>
+      <c r="EA26" s="11"/>
+      <c r="EB26" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="EC26" s="79"/>
+      <c r="ED26" s="79"/>
+      <c r="EE26" s="79"/>
+      <c r="EF26" s="79"/>
+      <c r="EG26" s="79"/>
+      <c r="EH26" s="79"/>
+      <c r="EI26" s="79"/>
+      <c r="EJ26" s="79"/>
+      <c r="EK26" s="43"/>
+      <c r="EL26" s="43"/>
+      <c r="EM26" s="43"/>
+      <c r="EN26" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="EO26" s="79"/>
+      <c r="EP26" s="79"/>
+      <c r="EQ26" s="43"/>
+      <c r="ER26" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="ES26" s="79"/>
+      <c r="ET26" s="79"/>
+      <c r="EU26" s="79"/>
+      <c r="EV26" s="79"/>
+      <c r="EW26" s="43"/>
+      <c r="EX26" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="EY26" s="79"/>
+      <c r="EZ26" s="79"/>
+      <c r="FA26" s="79"/>
+      <c r="FB26" s="79"/>
+      <c r="FC26" s="79"/>
+      <c r="FD26" s="79"/>
+      <c r="FE26" s="43"/>
+      <c r="FF26" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="FG26" s="79"/>
+      <c r="FH26" s="79"/>
+      <c r="FI26" s="43"/>
+      <c r="FJ26" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="FK26" s="105"/>
+      <c r="FL26" s="105"/>
+      <c r="FM26" s="11"/>
+      <c r="FN26" s="11"/>
+      <c r="FO26" s="11"/>
+      <c r="FP26" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="FQ26" s="79"/>
+      <c r="FR26" s="79"/>
+      <c r="FS26" s="43"/>
+      <c r="FT26" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="FU26" s="79"/>
+      <c r="FV26" s="79"/>
+      <c r="FW26" s="43"/>
+      <c r="FX26" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY26" s="11"/>
+      <c r="FZ26" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="EK26" s="83"/>
-      <c r="EL26" s="83"/>
-      <c r="EM26" s="43"/>
-      <c r="EN26" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="EO26" s="83"/>
-      <c r="EP26" s="83"/>
-      <c r="EQ26" s="83"/>
-      <c r="ER26" s="83"/>
-      <c r="ES26" s="43"/>
-      <c r="ET26" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="EU26" s="83"/>
-      <c r="EV26" s="83"/>
-      <c r="EW26" s="83"/>
-      <c r="EX26" s="83"/>
-      <c r="EY26" s="83"/>
-      <c r="EZ26" s="83"/>
-      <c r="FA26" s="43"/>
-      <c r="FB26" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="FC26" s="83"/>
-      <c r="FD26" s="83"/>
-      <c r="FE26" s="43"/>
-      <c r="FF26" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="FG26" s="110"/>
-      <c r="FH26" s="110"/>
-      <c r="FI26" s="11"/>
-      <c r="FJ26" s="11"/>
-      <c r="FK26" s="11"/>
-      <c r="FL26" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="FM26" s="83"/>
-      <c r="FN26" s="83"/>
-      <c r="FO26" s="43"/>
-      <c r="FP26" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="FQ26" s="83"/>
-      <c r="FR26" s="83"/>
-      <c r="FS26" s="43"/>
-      <c r="FT26" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="FU26" s="11"/>
-      <c r="FV26" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="FW26" s="43"/>
-      <c r="FX26" s="83" t="s">
+      <c r="GA26" s="43"/>
+      <c r="GB26" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="GC26" s="79"/>
+      <c r="GD26" s="79"/>
+      <c r="GE26" s="43"/>
+      <c r="GF26" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="GG26" s="105"/>
+      <c r="GH26" s="105"/>
+      <c r="GI26" s="11"/>
+      <c r="GJ26" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="GK26" s="79"/>
+      <c r="GL26" s="79"/>
+      <c r="GM26" s="79"/>
+      <c r="GN26" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="GO26" s="79"/>
+      <c r="GP26" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ26" s="79"/>
+      <c r="GR26" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="GS26" s="79"/>
+      <c r="GT26" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU26" s="79"/>
+      <c r="GV26" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="GW26" s="11"/>
+      <c r="GX26" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="FY26" s="83"/>
-      <c r="FZ26" s="83"/>
-      <c r="GA26" s="43"/>
-      <c r="GB26" s="88" t="s">
+      <c r="GY26" s="79"/>
+      <c r="GZ26" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="GC26" s="110"/>
-      <c r="GD26" s="110"/>
-      <c r="GE26" s="11"/>
-      <c r="GF26" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="GG26" s="83"/>
-      <c r="GH26" s="83"/>
-      <c r="GI26" s="83"/>
-      <c r="GJ26" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="GK26" s="83"/>
-      <c r="GL26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="GM26" s="83"/>
-      <c r="GN26" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="GO26" s="83"/>
-      <c r="GP26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="GQ26" s="83"/>
-      <c r="GR26" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="GS26" s="11"/>
-      <c r="GT26" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="GU26" s="83"/>
-      <c r="GV26" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="GW26" s="83"/>
-      <c r="GX26" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="GY26" s="11"/>
-      <c r="GZ26" s="9"/>
-      <c r="HA26" s="10"/>
-      <c r="HB26" s="10"/>
-      <c r="HC26" s="10"/>
-      <c r="HD26" s="10"/>
+      <c r="HA26" s="79"/>
+      <c r="HB26" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="HC26" s="11"/>
+      <c r="HD26" s="9"/>
       <c r="HE26" s="10"/>
       <c r="HF26" s="10"/>
       <c r="HG26" s="10"/>
@@ -8572,10 +8813,10 @@
       <c r="HM26" s="10"/>
       <c r="HN26" s="10"/>
       <c r="HO26" s="10"/>
-      <c r="HP26" s="4"/>
-      <c r="HQ26" s="4"/>
-      <c r="HR26" s="4"/>
-      <c r="HS26" s="4"/>
+      <c r="HP26" s="10"/>
+      <c r="HQ26" s="10"/>
+      <c r="HR26" s="10"/>
+      <c r="HS26" s="10"/>
       <c r="HT26" s="4"/>
       <c r="HU26" s="4"/>
       <c r="HV26" s="4"/>
@@ -8583,28 +8824,32 @@
       <c r="HX26" s="4"/>
       <c r="HY26" s="4"/>
       <c r="HZ26" s="4"/>
+      <c r="IA26" s="4"/>
+      <c r="IB26" s="4"/>
+      <c r="IC26" s="4"/>
+      <c r="ID26" s="4"/>
     </row>
-    <row r="27" spans="1:234" ht="16.2" thickBot="1">
+    <row r="27" spans="1:238" ht="16" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="69"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="N27" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74" t="s">
-        <v>194</v>
+      <c r="N27" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="Q27" s="48"/>
-      <c r="R27" s="67" t="s">
-        <v>57</v>
+      <c r="R27" s="64" t="s">
+        <v>48</v>
       </c>
       <c r="S27" s="18"/>
       <c r="T27" s="8" t="s">
@@ -8621,8 +8866,8 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
-      <c r="AF27" s="80" t="s">
-        <v>59</v>
+      <c r="AF27" s="76" t="s">
+        <v>50</v>
       </c>
       <c r="AG27" s="50"/>
       <c r="AH27" s="50"/>
@@ -8631,12 +8876,12 @@
       <c r="AK27" s="50"/>
       <c r="AL27" s="50"/>
       <c r="AM27" s="50"/>
-      <c r="AN27" s="107"/>
-      <c r="AO27" s="107"/>
-      <c r="AP27" s="107"/>
+      <c r="AN27" s="102"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="102"/>
       <c r="AQ27" s="50"/>
       <c r="AR27" s="50" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AS27" s="50"/>
       <c r="AT27" s="50"/>
@@ -8645,12 +8890,12 @@
       <c r="AW27" s="50"/>
       <c r="AX27" s="50"/>
       <c r="AY27" s="50"/>
-      <c r="AZ27" s="109" t="s">
+      <c r="AZ27" s="104" t="s">
         <v>1</v>
       </c>
       <c r="BA27" s="50"/>
       <c r="BB27" s="50" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BC27" s="50"/>
       <c r="BD27" s="50" t="s">
@@ -8658,30 +8903,30 @@
       </c>
       <c r="BE27" s="50"/>
       <c r="BF27" s="50" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="BG27" s="50"/>
       <c r="BH27" s="50"/>
       <c r="BI27" s="50"/>
       <c r="BJ27" s="50" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
       <c r="BM27" s="50"/>
-      <c r="BN27" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO27" s="105"/>
+      <c r="BN27" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO27" s="100"/>
       <c r="BP27" s="11"/>
       <c r="BQ27" s="11"/>
       <c r="BR27" s="11"/>
       <c r="BS27" s="11"/>
       <c r="BT27" s="11"/>
       <c r="BU27" s="11"/>
-      <c r="BW27" s="137"/>
-      <c r="BX27" s="80" t="s">
-        <v>76</v>
+      <c r="BW27" s="131"/>
+      <c r="BX27" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="BY27" s="50"/>
       <c r="BZ27" s="50"/>
@@ -8691,82 +8936,82 @@
       <c r="CD27" s="50"/>
       <c r="CE27" s="50"/>
       <c r="CF27" s="50" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="CG27" s="50"/>
       <c r="CH27" s="50" t="s">
         <v>1</v>
       </c>
       <c r="CI27" s="50"/>
-      <c r="CJ27" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="CK27" s="95"/>
+      <c r="CJ27" s="50"/>
+      <c r="CK27" s="50"/>
       <c r="CL27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM27" s="95"/>
-      <c r="CN27" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="CO27" s="50"/>
-      <c r="CP27" s="50"/>
-      <c r="CQ27" s="50"/>
+        <v>69</v>
+      </c>
+      <c r="CM27" s="50"/>
+      <c r="CN27" s="50"/>
+      <c r="CO27" s="90"/>
+      <c r="CP27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ27" s="90"/>
       <c r="CR27" s="50" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="CS27" s="50"/>
       <c r="CT27" s="50"/>
       <c r="CU27" s="50"/>
-      <c r="CV27" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="CW27" s="17"/>
-      <c r="CX27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY27" s="11"/>
-      <c r="CZ27" s="11"/>
-      <c r="DA27" s="11"/>
-      <c r="DB27" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="DC27" s="50"/>
-      <c r="DD27" s="50"/>
-      <c r="DE27" s="50"/>
-      <c r="DF27" s="50" t="s">
-        <v>107</v>
+      <c r="CV27" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW27" s="50"/>
+      <c r="CX27" s="50"/>
+      <c r="CY27" s="50"/>
+      <c r="CZ27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="DA27" s="17"/>
+      <c r="DB27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC27" s="11"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="11"/>
+      <c r="DF27" s="76" t="s">
+        <v>88</v>
       </c>
       <c r="DG27" s="50"/>
       <c r="DH27" s="50"/>
       <c r="DI27" s="50"/>
       <c r="DJ27" s="50" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="DK27" s="50"/>
       <c r="DL27" s="50"/>
       <c r="DM27" s="50"/>
       <c r="DN27" s="50" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="DO27" s="50"/>
-      <c r="DP27" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="DQ27" s="17"/>
-      <c r="DR27" s="17"/>
-      <c r="DS27" s="17"/>
-      <c r="DT27" s="17"/>
+      <c r="DP27" s="50"/>
+      <c r="DQ27" s="50"/>
+      <c r="DR27" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS27" s="50"/>
+      <c r="DT27" s="77" t="s">
+        <v>96</v>
+      </c>
       <c r="DU27" s="17"/>
       <c r="DV27" s="17"/>
-      <c r="DW27" s="11"/>
-      <c r="DX27" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="DY27" s="50"/>
-      <c r="DZ27" s="50"/>
-      <c r="EA27" s="50"/>
-      <c r="EB27" s="50"/>
+      <c r="DW27" s="17"/>
+      <c r="DX27" s="17"/>
+      <c r="DY27" s="17"/>
+      <c r="DZ27" s="17"/>
+      <c r="EA27" s="11"/>
+      <c r="EB27" s="76" t="s">
+        <v>265</v>
+      </c>
       <c r="EC27" s="50"/>
       <c r="ED27" s="50"/>
       <c r="EE27" s="50"/>
@@ -8774,117 +9019,117 @@
       <c r="EG27" s="50"/>
       <c r="EH27" s="50"/>
       <c r="EI27" s="50"/>
-      <c r="EJ27" s="50" t="s">
-        <v>116</v>
-      </c>
+      <c r="EJ27" s="50"/>
       <c r="EK27" s="50"/>
       <c r="EL27" s="50"/>
       <c r="EM27" s="50"/>
       <c r="EN27" s="50" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="EO27" s="50"/>
       <c r="EP27" s="50"/>
       <c r="EQ27" s="50"/>
-      <c r="ER27" s="50"/>
+      <c r="ER27" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="ES27" s="50"/>
-      <c r="ET27" s="50" t="s">
-        <v>119</v>
-      </c>
+      <c r="ET27" s="50"/>
       <c r="EU27" s="50"/>
       <c r="EV27" s="50"/>
       <c r="EW27" s="50"/>
-      <c r="EX27" s="50"/>
+      <c r="EX27" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="EY27" s="50"/>
       <c r="EZ27" s="50"/>
       <c r="FA27" s="50"/>
-      <c r="FB27" s="50" t="s">
-        <v>121</v>
-      </c>
+      <c r="FB27" s="50"/>
       <c r="FC27" s="50"/>
       <c r="FD27" s="50"/>
       <c r="FE27" s="50"/>
-      <c r="FF27" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="FG27" s="17"/>
-      <c r="FH27" s="17"/>
-      <c r="FI27" s="11"/>
-      <c r="FJ27" s="11"/>
-      <c r="FK27" s="11"/>
-      <c r="FL27" s="80"/>
-      <c r="FM27" s="50"/>
-      <c r="FN27" s="50"/>
-      <c r="FO27" s="50"/>
-      <c r="FP27" s="50" t="s">
-        <v>127</v>
-      </c>
+      <c r="FF27" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="FG27" s="50"/>
+      <c r="FH27" s="50"/>
+      <c r="FI27" s="50"/>
+      <c r="FJ27" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="FK27" s="17"/>
+      <c r="FL27" s="17"/>
+      <c r="FM27" s="11"/>
+      <c r="FN27" s="11"/>
+      <c r="FO27" s="11"/>
+      <c r="FP27" s="76"/>
       <c r="FQ27" s="50"/>
       <c r="FR27" s="50"/>
       <c r="FS27" s="50"/>
-      <c r="FT27" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="FU27" s="11"/>
-      <c r="FV27" s="80" t="s">
-        <v>132</v>
-      </c>
+      <c r="FT27" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="FU27" s="50"/>
+      <c r="FV27" s="50"/>
       <c r="FW27" s="50"/>
-      <c r="FX27" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="FY27" s="50"/>
-      <c r="FZ27" s="50"/>
+      <c r="FX27" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="FY27" s="11"/>
+      <c r="FZ27" s="76" t="s">
+        <v>116</v>
+      </c>
       <c r="GA27" s="50"/>
-      <c r="GB27" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="GC27" s="17"/>
-      <c r="GD27" s="17"/>
-      <c r="GE27" s="11"/>
-      <c r="GF27" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="GG27" s="50"/>
-      <c r="GH27" s="50"/>
-      <c r="GI27" s="50"/>
-      <c r="GJ27" s="50" t="s">
-        <v>142</v>
+      <c r="GB27" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="GC27" s="50"/>
+      <c r="GD27" s="50"/>
+      <c r="GE27" s="50"/>
+      <c r="GF27" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="GG27" s="17"/>
+      <c r="GH27" s="17"/>
+      <c r="GI27" s="11"/>
+      <c r="GJ27" s="76" t="s">
+        <v>124</v>
       </c>
       <c r="GK27" s="50"/>
-      <c r="GL27" s="50" t="s">
-        <v>1</v>
-      </c>
+      <c r="GL27" s="50"/>
       <c r="GM27" s="50"/>
       <c r="GN27" s="50" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="GO27" s="50"/>
       <c r="GP27" s="50" t="s">
         <v>1</v>
       </c>
       <c r="GQ27" s="50"/>
-      <c r="GR27" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="GS27" s="11"/>
-      <c r="GT27" s="80" t="s">
-        <v>150</v>
+      <c r="GR27" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="GS27" s="50"/>
+      <c r="GT27" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="GU27" s="50"/>
-      <c r="GV27" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="GW27" s="50"/>
-      <c r="GX27" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="GY27" s="11"/>
-      <c r="GZ27" s="9"/>
-      <c r="HA27" s="10"/>
-      <c r="HB27" s="10"/>
-      <c r="HC27" s="10"/>
-      <c r="HD27" s="10"/>
+      <c r="GV27" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="GW27" s="11"/>
+      <c r="GX27" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="GY27" s="50"/>
+      <c r="GZ27" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="HA27" s="50"/>
+      <c r="HB27" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="HC27" s="11"/>
+      <c r="HD27" s="9"/>
       <c r="HE27" s="10"/>
       <c r="HF27" s="10"/>
       <c r="HG27" s="10"/>
@@ -8896,10 +9141,10 @@
       <c r="HM27" s="10"/>
       <c r="HN27" s="10"/>
       <c r="HO27" s="10"/>
-      <c r="HP27" s="4"/>
-      <c r="HQ27" s="4"/>
-      <c r="HR27" s="4"/>
-      <c r="HS27" s="4"/>
+      <c r="HP27" s="10"/>
+      <c r="HQ27" s="10"/>
+      <c r="HR27" s="10"/>
+      <c r="HS27" s="10"/>
       <c r="HT27" s="4"/>
       <c r="HU27" s="4"/>
       <c r="HV27" s="4"/>
@@ -8907,18 +9152,22 @@
       <c r="HX27" s="4"/>
       <c r="HY27" s="4"/>
       <c r="HZ27" s="4"/>
+      <c r="IA27" s="4"/>
+      <c r="IB27" s="4"/>
+      <c r="IC27" s="4"/>
+      <c r="ID27" s="4"/>
     </row>
-    <row r="28" spans="1:234" ht="16.2" thickBot="1">
+    <row r="28" spans="1:238" ht="16" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -8961,50 +9210,50 @@
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
-      <c r="AN28" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="89"/>
-      <c r="AP28" s="89"/>
-      <c r="AQ28" s="89"/>
+      <c r="AN28" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
       <c r="AR28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AS28" s="89"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
-      <c r="AZ28" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="89"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AX28" s="85"/>
+      <c r="AY28" s="85"/>
+      <c r="AZ28" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="85"/>
       <c r="BB28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BC28" s="89"/>
+      <c r="BC28" s="85"/>
       <c r="BD28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="BE28" s="89"/>
-      <c r="BF28" s="89" t="s">
+      <c r="BE28" s="85"/>
+      <c r="BF28" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="BG28" s="89"/>
-      <c r="BH28" s="89"/>
-      <c r="BI28" s="89"/>
+      <c r="BG28" s="85"/>
+      <c r="BH28" s="85"/>
+      <c r="BI28" s="85"/>
       <c r="BJ28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
-      <c r="BM28" s="89"/>
-      <c r="BN28" s="89" t="s">
+      <c r="BM28" s="85"/>
+      <c r="BN28" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="BO28" s="89"/>
+      <c r="BO28" s="85"/>
       <c r="BP28" s="11"/>
       <c r="BQ28" s="11"/>
       <c r="BR28" s="11"/>
@@ -9030,75 +9279,75 @@
         <v>1</v>
       </c>
       <c r="CI28" s="24"/>
-      <c r="CJ28" s="121" t="s">
+      <c r="CJ28" s="24"/>
+      <c r="CK28" s="24"/>
+      <c r="CL28" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="CK28" s="12"/>
-      <c r="CL28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM28" s="12"/>
-      <c r="CN28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO28" s="11"/>
-      <c r="CP28" s="11"/>
-      <c r="CQ28" s="11"/>
+      <c r="CM28" s="115"/>
+      <c r="CN28" s="115"/>
+      <c r="CO28" s="12"/>
+      <c r="CP28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ28" s="12"/>
       <c r="CR28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CS28" s="12"/>
+      <c r="CS28" s="11"/>
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
       <c r="CV28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CW28" s="11"/>
-      <c r="CX28" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="CW28" s="12"/>
+      <c r="CX28" s="11"/>
       <c r="CY28" s="11"/>
-      <c r="CZ28" s="11"/>
+      <c r="CZ28" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="DA28" s="11"/>
-      <c r="DB28" s="12" t="s">
+      <c r="DB28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC28" s="11"/>
+      <c r="DD28" s="11"/>
+      <c r="DE28" s="11"/>
+      <c r="DF28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DC28" s="12"/>
-      <c r="DD28" s="12"/>
-      <c r="DE28" s="11"/>
-      <c r="DF28" s="11" t="s">
+      <c r="DG28" s="12"/>
+      <c r="DH28" s="12"/>
+      <c r="DI28" s="11"/>
+      <c r="DJ28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="DG28" s="11"/>
-      <c r="DH28" s="11"/>
-      <c r="DI28" s="11"/>
-      <c r="DJ28" s="12" t="s">
+      <c r="DK28" s="11"/>
+      <c r="DL28" s="11"/>
+      <c r="DM28" s="11"/>
+      <c r="DN28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DK28" s="12"/>
-      <c r="DL28" s="12"/>
-      <c r="DM28" s="11"/>
-      <c r="DN28" s="11" t="s">
+      <c r="DO28" s="12"/>
+      <c r="DP28" s="12"/>
+      <c r="DQ28" s="11"/>
+      <c r="DR28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="DO28" s="11"/>
-      <c r="DP28" s="12" t="s">
+      <c r="DS28" s="11"/>
+      <c r="DT28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DQ28" s="12"/>
-      <c r="DR28" s="12"/>
-      <c r="DS28" s="12"/>
-      <c r="DT28" s="12"/>
       <c r="DU28" s="12"/>
       <c r="DV28" s="12"/>
-      <c r="DW28" s="11"/>
-      <c r="DX28" s="12" t="s">
+      <c r="DW28" s="12"/>
+      <c r="DX28" s="12"/>
+      <c r="DY28" s="12"/>
+      <c r="DZ28" s="12"/>
+      <c r="EA28" s="11"/>
+      <c r="EB28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DY28" s="11"/>
-      <c r="DZ28" s="11"/>
-      <c r="EA28" s="11"/>
-      <c r="EB28" s="11"/>
       <c r="EC28" s="11"/>
       <c r="ED28" s="11"/>
       <c r="EE28" s="11"/>
@@ -9106,9 +9355,7 @@
       <c r="EG28" s="11"/>
       <c r="EH28" s="11"/>
       <c r="EI28" s="11"/>
-      <c r="EJ28" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="EJ28" s="11"/>
       <c r="EK28" s="11"/>
       <c r="EL28" s="11"/>
       <c r="EM28" s="11"/>
@@ -9118,40 +9365,40 @@
       <c r="EO28" s="11"/>
       <c r="EP28" s="11"/>
       <c r="EQ28" s="11"/>
-      <c r="ER28" s="11"/>
+      <c r="ER28" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="ES28" s="11"/>
-      <c r="ET28" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="ET28" s="11"/>
       <c r="EU28" s="11"/>
       <c r="EV28" s="11"/>
       <c r="EW28" s="11"/>
-      <c r="EX28" s="11"/>
+      <c r="EX28" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="EY28" s="11"/>
       <c r="EZ28" s="11"/>
       <c r="FA28" s="11"/>
-      <c r="FB28" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="FB28" s="11"/>
       <c r="FC28" s="11"/>
       <c r="FD28" s="11"/>
       <c r="FE28" s="11"/>
-      <c r="FF28" s="12" t="s">
+      <c r="FF28" s="11" t="s">
         <v>0</v>
       </c>
       <c r="FG28" s="11"/>
       <c r="FH28" s="11"/>
       <c r="FI28" s="11"/>
-      <c r="FJ28" s="11"/>
+      <c r="FJ28" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="FK28" s="11"/>
-      <c r="FL28" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="FL28" s="11"/>
       <c r="FM28" s="11"/>
       <c r="FN28" s="11"/>
       <c r="FO28" s="11"/>
-      <c r="FP28" s="12" t="s">
-        <v>0</v>
+      <c r="FP28" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="FQ28" s="11"/>
       <c r="FR28" s="11"/>
@@ -9160,15 +9407,15 @@
         <v>0</v>
       </c>
       <c r="FU28" s="11"/>
-      <c r="FV28" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="FV28" s="11"/>
       <c r="FW28" s="11"/>
       <c r="FX28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="FY28" s="11"/>
-      <c r="FZ28" s="11"/>
+      <c r="FZ28" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="GA28" s="11"/>
       <c r="GB28" s="12" t="s">
         <v>0</v>
@@ -9186,9 +9433,7 @@
         <v>0</v>
       </c>
       <c r="GK28" s="11"/>
-      <c r="GL28" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="GL28" s="11"/>
       <c r="GM28" s="11"/>
       <c r="GN28" s="12" t="s">
         <v>0</v>
@@ -9198,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="GQ28" s="11"/>
-      <c r="GR28" s="11" t="s">
+      <c r="GR28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="GS28" s="11"/>
@@ -9206,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="GU28" s="11"/>
-      <c r="GV28" s="12" t="s">
+      <c r="GV28" s="11" t="s">
         <v>0</v>
       </c>
       <c r="GW28" s="11"/>
@@ -9214,11 +9459,15 @@
         <v>1</v>
       </c>
       <c r="GY28" s="11"/>
-      <c r="GZ28" s="9"/>
-      <c r="HA28" s="10"/>
-      <c r="HB28" s="10"/>
-      <c r="HC28" s="10"/>
-      <c r="HD28" s="10"/>
+      <c r="GZ28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA28" s="11"/>
+      <c r="HB28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC28" s="11"/>
+      <c r="HD28" s="9"/>
       <c r="HE28" s="10"/>
       <c r="HF28" s="10"/>
       <c r="HG28" s="10"/>
@@ -9230,10 +9479,10 @@
       <c r="HM28" s="10"/>
       <c r="HN28" s="10"/>
       <c r="HO28" s="10"/>
-      <c r="HP28" s="4"/>
-      <c r="HQ28" s="4"/>
-      <c r="HR28" s="4"/>
-      <c r="HS28" s="4"/>
+      <c r="HP28" s="10"/>
+      <c r="HQ28" s="10"/>
+      <c r="HR28" s="10"/>
+      <c r="HS28" s="10"/>
       <c r="HT28" s="4"/>
       <c r="HU28" s="4"/>
       <c r="HV28" s="4"/>
@@ -9241,8 +9490,12 @@
       <c r="HX28" s="4"/>
       <c r="HY28" s="4"/>
       <c r="HZ28" s="4"/>
+      <c r="IA28" s="4"/>
+      <c r="IB28" s="4"/>
+      <c r="IC28" s="4"/>
+      <c r="ID28" s="4"/>
     </row>
-    <row r="29" spans="1:234" ht="16.2" thickBot="1">
+    <row r="29" spans="1:238" ht="16" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -9253,20 +9506,20 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="M29" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="72"/>
-      <c r="O29" s="68" t="s">
-        <v>56</v>
+      <c r="M29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="69"/>
+      <c r="O29" s="147" t="s">
+        <v>300</v>
       </c>
       <c r="P29" s="10"/>
-      <c r="R29" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="S29" s="132"/>
-      <c r="T29" s="104" t="s">
-        <v>243</v>
+      <c r="R29" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="S29" s="126"/>
+      <c r="T29" s="99" t="s">
+        <v>222</v>
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -9275,343 +9528,343 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="11"/>
-      <c r="AB29" s="82" t="s">
+      <c r="AB29" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW29" s="105"/>
+      <c r="AX29" s="105"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="83" t="s">
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="88" t="s">
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="82" t="s">
+      <c r="BE29" s="106"/>
+      <c r="BF29" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG29" s="105"/>
+      <c r="BH29" s="105"/>
+      <c r="BI29" s="11"/>
+      <c r="BJ29" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM29" s="11"/>
+      <c r="BN29" s="86" t="s">
         <v>168</v>
-      </c>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW29" s="110"/>
-      <c r="AX29" s="110"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC29" s="11"/>
-      <c r="BD29" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE29" s="111"/>
-      <c r="BF29" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG29" s="110"/>
-      <c r="BH29" s="110"/>
-      <c r="BI29" s="11"/>
-      <c r="BJ29" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK29" s="43"/>
-      <c r="BL29" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM29" s="11"/>
-      <c r="BN29" s="114" t="s">
-        <v>184</v>
       </c>
       <c r="BO29" s="11"/>
       <c r="BP29" s="11"/>
       <c r="BQ29" s="11"/>
-      <c r="BR29" s="82" t="s">
-        <v>195</v>
+      <c r="BR29" s="78" t="s">
+        <v>177</v>
       </c>
       <c r="BS29" s="43"/>
       <c r="BT29" s="43"/>
       <c r="BU29" s="43"/>
       <c r="BV29" s="43"/>
-      <c r="BW29" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX29" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="BY29" s="83"/>
+      <c r="BW29" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX29" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="BY29" s="79"/>
       <c r="BZ29" s="43"/>
       <c r="CA29" s="43"/>
-      <c r="CB29" s="88" t="s">
+      <c r="CB29" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE29" s="43"/>
+      <c r="CF29" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="CG29" s="43"/>
+      <c r="CH29" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="CI29" s="139"/>
+      <c r="CJ29" s="139"/>
+      <c r="CK29" s="112"/>
+      <c r="CL29" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="CM29" s="103"/>
+      <c r="CN29" s="103"/>
+      <c r="CO29" s="43"/>
+      <c r="CP29" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ29" s="17"/>
+      <c r="CR29" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="CS29" s="43"/>
+      <c r="CT29" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="CU29" s="11"/>
+      <c r="CV29" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="CC29" s="11"/>
-      <c r="CD29" s="82" t="s">
+      <c r="CW29" s="79"/>
+      <c r="CX29" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="CY29" s="11"/>
+      <c r="CZ29" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="DA29" s="106"/>
+      <c r="DB29" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="CE29" s="43"/>
-      <c r="CF29" s="83" t="s">
+      <c r="DC29" s="11"/>
+      <c r="DD29" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="DE29" s="159"/>
+      <c r="DF29" s="142" t="s">
         <v>209</v>
       </c>
-      <c r="CG29" s="43"/>
-      <c r="CH29" s="117" t="s">
+      <c r="DG29" s="105"/>
+      <c r="DH29" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="CI29" s="118"/>
-      <c r="CJ29" s="119" t="s">
+      <c r="DI29" s="43"/>
+      <c r="DJ29" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="DK29" s="105"/>
+      <c r="DL29" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="CK29" s="43"/>
-      <c r="CL29" s="88" t="s">
+      <c r="DM29" s="106"/>
+      <c r="DN29" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="DO29" s="105"/>
+      <c r="DP29" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="DQ29" s="43"/>
+      <c r="DR29" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="CM29" s="17"/>
-      <c r="CN29" s="82" t="s">
+      <c r="DS29" s="11"/>
+      <c r="DT29" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="DU29" s="105"/>
+      <c r="DV29" s="105"/>
+      <c r="DW29" s="105"/>
+      <c r="DX29" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="DY29" s="79"/>
+      <c r="DZ29" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA29" s="43"/>
+      <c r="EB29" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC29" s="79"/>
+      <c r="ED29" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="EE29" s="79"/>
+      <c r="EF29" s="79"/>
+      <c r="EG29" s="79"/>
+      <c r="EH29" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="EI29" s="105"/>
+      <c r="EJ29" s="105"/>
+      <c r="EK29" s="11"/>
+      <c r="EL29" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM29" s="43"/>
+      <c r="EN29" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="EO29" s="105"/>
+      <c r="EP29" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="EQ29" s="43"/>
+      <c r="ER29" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="ES29" s="43"/>
+      <c r="ET29" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="EU29" s="105"/>
+      <c r="EV29" s="105"/>
+      <c r="EW29" s="11"/>
+      <c r="EX29" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="EY29" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ29" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="FA29" s="105"/>
+      <c r="FB29" s="158" t="s">
+        <v>309</v>
+      </c>
+      <c r="FC29" s="79"/>
+      <c r="FD29" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="FE29" s="43"/>
+      <c r="FF29" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="FG29" s="43"/>
+      <c r="FH29" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="FI29" s="11"/>
+      <c r="FJ29" s="107" t="s">
+        <v>250</v>
+      </c>
+      <c r="FK29" s="106"/>
+      <c r="FL29" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="FM29" s="11"/>
+      <c r="FN29" s="11"/>
+      <c r="FO29" s="11"/>
+      <c r="FP29" s="11"/>
+      <c r="FQ29" s="11"/>
+      <c r="FR29" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="FS29" s="111"/>
+      <c r="FT29" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="FU29" s="111"/>
+      <c r="FV29" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="FW29" s="11"/>
+      <c r="FX29" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="CO29" s="43"/>
-      <c r="CP29" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="CQ29" s="11"/>
-      <c r="CR29" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="CS29" s="83"/>
-      <c r="CT29" s="88" t="s">
+      <c r="FY29" s="11"/>
+      <c r="FZ29" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="GA29" s="11"/>
+      <c r="GB29" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="CU29" s="11"/>
-      <c r="CV29" s="112" t="s">
+      <c r="GC29" s="106"/>
+      <c r="GD29" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="GE29" s="11"/>
+      <c r="GF29" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="GG29" s="106"/>
+      <c r="GH29" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="CW29" s="111"/>
-      <c r="CX29" s="113" t="s">
+      <c r="GI29" s="11"/>
+      <c r="GJ29" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="CY29" s="11"/>
-      <c r="CZ29" s="112" t="s">
+      <c r="GK29" s="106"/>
+      <c r="GL29" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="GM29" s="11"/>
+      <c r="GN29" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="DA29" s="111"/>
-      <c r="DB29" s="113" t="s">
+      <c r="GO29" s="106"/>
+      <c r="GP29" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="DC29" s="110"/>
-      <c r="DD29" s="82" t="s">
+      <c r="GQ29" s="105"/>
+      <c r="GR29" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="GS29" s="106"/>
+      <c r="GT29" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="DE29" s="43"/>
-      <c r="DF29" s="88" t="s">
+      <c r="GU29" s="11"/>
+      <c r="GV29" s="109" t="s">
         <v>232</v>
-      </c>
-      <c r="DG29" s="110"/>
-      <c r="DH29" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="DI29" s="111"/>
-      <c r="DJ29" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="DK29" s="110"/>
-      <c r="DL29" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="DM29" s="111"/>
-      <c r="DN29" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="DO29" s="11"/>
-      <c r="DP29" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="DQ29" s="110"/>
-      <c r="DR29" s="110"/>
-      <c r="DS29" s="110"/>
-      <c r="DT29" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="DU29" s="83"/>
-      <c r="DV29" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW29" s="43"/>
-      <c r="DX29" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY29" s="83"/>
-      <c r="DZ29" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="EA29" s="83"/>
-      <c r="EB29" s="83"/>
-      <c r="EC29" s="83"/>
-      <c r="ED29" s="88" t="s">
-        <v>289</v>
-      </c>
-      <c r="EE29" s="110"/>
-      <c r="EF29" s="110"/>
-      <c r="EG29" s="11"/>
-      <c r="EH29" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="EI29" s="43"/>
-      <c r="EJ29" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="EK29" s="110"/>
-      <c r="EL29" s="82" t="s">
-        <v>260</v>
-      </c>
-      <c r="EM29" s="43"/>
-      <c r="EN29" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="EO29" s="43"/>
-      <c r="EP29" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ29" s="110"/>
-      <c r="ER29" s="110"/>
-      <c r="ES29" s="11"/>
-      <c r="ET29" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="EU29" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV29" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="EW29" s="110"/>
-      <c r="EX29" s="112" t="s">
-        <v>267</v>
-      </c>
-      <c r="EY29" s="116"/>
-      <c r="EZ29" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="FA29" s="111"/>
-      <c r="FB29" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="FC29" s="111"/>
-      <c r="FD29" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="FE29" s="11"/>
-      <c r="FF29" s="112" t="s">
-        <v>273</v>
-      </c>
-      <c r="FG29" s="111"/>
-      <c r="FH29" s="113" t="s">
-        <v>274</v>
-      </c>
-      <c r="FI29" s="11"/>
-      <c r="FJ29" s="11"/>
-      <c r="FK29" s="11"/>
-      <c r="FL29" s="11"/>
-      <c r="FM29" s="11"/>
-      <c r="FN29" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="FO29" s="116"/>
-      <c r="FP29" s="116" t="s">
-        <v>239</v>
-      </c>
-      <c r="FQ29" s="116"/>
-      <c r="FR29" s="113" t="s">
-        <v>240</v>
-      </c>
-      <c r="FS29" s="11"/>
-      <c r="FT29" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="FU29" s="11"/>
-      <c r="FV29" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="FW29" s="11"/>
-      <c r="FX29" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="FY29" s="111"/>
-      <c r="FZ29" s="113" t="s">
-        <v>296</v>
-      </c>
-      <c r="GA29" s="11"/>
-      <c r="GB29" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="GC29" s="111"/>
-      <c r="GD29" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="GE29" s="11"/>
-      <c r="GF29" s="112" t="s">
-        <v>248</v>
-      </c>
-      <c r="GG29" s="111"/>
-      <c r="GH29" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="GI29" s="11"/>
-      <c r="GJ29" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="GK29" s="111"/>
-      <c r="GL29" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="GM29" s="110"/>
-      <c r="GN29" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="GO29" s="111"/>
-      <c r="GP29" s="113" t="s">
-        <v>253</v>
-      </c>
-      <c r="GQ29" s="11"/>
-      <c r="GR29" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="GS29" s="11"/>
-      <c r="GT29" s="11"/>
-      <c r="GU29" s="11"/>
-      <c r="GV29" s="114" t="s">
-        <v>255</v>
       </c>
       <c r="GW29" s="11"/>
       <c r="GX29" s="11"/>
       <c r="GY29" s="11"/>
-      <c r="GZ29" s="9"/>
-      <c r="HA29" s="10"/>
-      <c r="HB29" s="10"/>
-      <c r="HC29" s="10"/>
-      <c r="HD29" s="10"/>
+      <c r="GZ29" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="HA29" s="11"/>
+      <c r="HB29" s="11"/>
+      <c r="HC29" s="11"/>
+      <c r="HD29" s="9"/>
       <c r="HE29" s="10"/>
       <c r="HF29" s="10"/>
       <c r="HG29" s="10"/>
@@ -9623,10 +9876,10 @@
       <c r="HM29" s="10"/>
       <c r="HN29" s="10"/>
       <c r="HO29" s="10"/>
-      <c r="HP29" s="4"/>
-      <c r="HQ29" s="4"/>
-      <c r="HR29" s="4"/>
-      <c r="HS29" s="4"/>
+      <c r="HP29" s="10"/>
+      <c r="HQ29" s="10"/>
+      <c r="HR29" s="10"/>
+      <c r="HS29" s="10"/>
       <c r="HT29" s="4"/>
       <c r="HU29" s="4"/>
       <c r="HV29" s="4"/>
@@ -9634,8 +9887,12 @@
       <c r="HX29" s="4"/>
       <c r="HY29" s="4"/>
       <c r="HZ29" s="4"/>
+      <c r="IA29" s="4"/>
+      <c r="IB29" s="4"/>
+      <c r="IC29" s="4"/>
+      <c r="ID29" s="4"/>
     </row>
-    <row r="30" spans="1:234" ht="16.2" thickBot="1">
+    <row r="30" spans="1:238" ht="16" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -9648,11 +9905,11 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="59" t="s">
-        <v>54</v>
+      <c r="M30" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="N30" s="48"/>
-      <c r="O30" s="67"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -9665,54 +9922,54 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="11"/>
-      <c r="AB30" s="80" t="s">
-        <v>159</v>
+      <c r="AB30" s="76" t="s">
+        <v>143</v>
       </c>
       <c r="AC30" s="50"/>
       <c r="AD30" s="50" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AG30" s="50"/>
       <c r="AH30" s="50"/>
       <c r="AI30" s="50"/>
-      <c r="AJ30" s="81" t="s">
-        <v>165</v>
+      <c r="AJ30" s="77" t="s">
+        <v>149</v>
       </c>
       <c r="AK30" s="11"/>
-      <c r="AL30" s="80" t="s">
-        <v>167</v>
+      <c r="AL30" s="76" t="s">
+        <v>151</v>
       </c>
       <c r="AM30" s="50"/>
       <c r="AN30" s="50" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AO30" s="50"/>
       <c r="AP30" s="50"/>
       <c r="AQ30" s="50"/>
       <c r="AR30" s="50" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AS30" s="50"/>
       <c r="AT30" s="50" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="AU30" s="50"/>
-      <c r="AV30" s="81" t="s">
-        <v>174</v>
+      <c r="AV30" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
       <c r="AY30" s="11"/>
-      <c r="AZ30" s="80" t="s">
-        <v>172</v>
+      <c r="AZ30" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="BA30" s="50"/>
-      <c r="BB30" s="81" t="s">
-        <v>177</v>
+      <c r="BB30" s="77" t="s">
+        <v>161</v>
       </c>
       <c r="BC30" s="11"/>
       <c r="BD30" s="11"/>
@@ -9721,18 +9978,20 @@
       <c r="BG30" s="11"/>
       <c r="BH30" s="11"/>
       <c r="BI30" s="11"/>
-      <c r="BJ30" s="80" t="s">
-        <v>186</v>
+      <c r="BJ30" s="76" t="s">
+        <v>170</v>
       </c>
       <c r="BK30" s="50"/>
-      <c r="BL30" s="81"/>
+      <c r="BL30" s="77"/>
       <c r="BM30" s="11"/>
-      <c r="BN30" s="11"/>
+      <c r="BN30" s="155" t="s">
+        <v>285</v>
+      </c>
       <c r="BO30" s="11"/>
       <c r="BP30" s="11"/>
       <c r="BQ30" s="11"/>
-      <c r="BR30" s="80" t="s">
-        <v>199</v>
+      <c r="BR30" s="76" t="s">
+        <v>181</v>
       </c>
       <c r="BS30" s="50"/>
       <c r="BT30" s="50"/>
@@ -9742,136 +10001,148 @@
         <v>1</v>
       </c>
       <c r="BX30" s="50" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="BY30" s="50"/>
       <c r="BZ30" s="50"/>
       <c r="CA30" s="50"/>
-      <c r="CB30" s="81" t="s">
-        <v>164</v>
+      <c r="CB30" s="77" t="s">
+        <v>148</v>
       </c>
       <c r="CC30" s="11"/>
-      <c r="CD30" s="80" t="s">
-        <v>206</v>
+      <c r="CD30" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="CE30" s="50"/>
       <c r="CF30" s="50" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="CG30" s="50"/>
-      <c r="CH30" s="81"/>
-      <c r="CI30" s="17"/>
-      <c r="CJ30" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="CK30" s="50"/>
-      <c r="CL30" s="81" t="s">
-        <v>214</v>
-      </c>
-      <c r="CM30" s="11"/>
-      <c r="CN30" s="80" t="s">
-        <v>219</v>
-      </c>
+      <c r="CH30" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="CI30" s="140"/>
+      <c r="CJ30" s="140"/>
+      <c r="CK30" s="17"/>
+      <c r="CL30" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM30" s="50"/>
+      <c r="CN30" s="50"/>
       <c r="CO30" s="50"/>
-      <c r="CP30" s="81"/>
+      <c r="CP30" s="77" t="s">
+        <v>196</v>
+      </c>
       <c r="CQ30" s="11"/>
-      <c r="CR30" s="80" t="s">
-        <v>223</v>
+      <c r="CR30" s="76" t="s">
+        <v>200</v>
       </c>
       <c r="CS30" s="50"/>
-      <c r="CT30" s="81"/>
+      <c r="CT30" s="77"/>
       <c r="CU30" s="11"/>
-      <c r="CV30" s="11"/>
-      <c r="CW30" s="11"/>
-      <c r="CX30" s="11"/>
+      <c r="CV30" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="CW30" s="50"/>
+      <c r="CX30" s="77"/>
       <c r="CY30" s="11"/>
       <c r="CZ30" s="11"/>
       <c r="DA30" s="11"/>
       <c r="DB30" s="11"/>
       <c r="DC30" s="11"/>
-      <c r="DD30" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="DE30" s="50"/>
-      <c r="DF30" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="DG30" s="17"/>
-      <c r="DH30" s="17"/>
-      <c r="DI30" s="11"/>
-      <c r="DJ30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK30" s="11"/>
-      <c r="DL30" s="11"/>
+      <c r="DD30" s="160" t="s">
+        <v>289</v>
+      </c>
+      <c r="DE30" s="87"/>
+      <c r="DF30" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="DG30" s="11"/>
+      <c r="DH30" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI30" s="50"/>
+      <c r="DJ30" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="DK30" s="17"/>
+      <c r="DL30" s="17"/>
       <c r="DM30" s="11"/>
-      <c r="DN30" s="11"/>
+      <c r="DN30" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="DO30" s="11"/>
-      <c r="DP30" s="11"/>
-      <c r="DQ30" s="11"/>
-      <c r="DR30" s="11"/>
+      <c r="DP30" s="160" t="s">
+        <v>291</v>
+      </c>
+      <c r="DQ30" s="50"/>
+      <c r="DR30" s="77"/>
       <c r="DS30" s="11"/>
-      <c r="DT30" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="DU30" s="50"/>
-      <c r="DV30" s="50"/>
-      <c r="DW30" s="50"/>
-      <c r="DX30" s="50" t="s">
-        <v>291</v>
+      <c r="DT30" s="11"/>
+      <c r="DU30" s="11"/>
+      <c r="DV30" s="11"/>
+      <c r="DW30" s="11"/>
+      <c r="DX30" s="76" t="s">
+        <v>267</v>
       </c>
       <c r="DY30" s="50"/>
-      <c r="DZ30" s="50" t="s">
-        <v>284</v>
-      </c>
+      <c r="DZ30" s="50"/>
       <c r="EA30" s="50"/>
-      <c r="EB30" s="50"/>
+      <c r="EB30" s="50" t="s">
+        <v>268</v>
+      </c>
       <c r="EC30" s="50"/>
-      <c r="ED30" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="EE30" s="17"/>
-      <c r="EF30" s="17"/>
-      <c r="EG30" s="11"/>
-      <c r="EH30" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="EI30" s="50"/>
-      <c r="EJ30" s="81" t="s">
-        <v>263</v>
-      </c>
+      <c r="ED30" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="EE30" s="50"/>
+      <c r="EF30" s="50"/>
+      <c r="EG30" s="50"/>
+      <c r="EH30" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="EI30" s="17"/>
+      <c r="EJ30" s="17"/>
       <c r="EK30" s="11"/>
-      <c r="EL30" s="80" t="s">
-        <v>264</v>
+      <c r="EL30" s="76" t="s">
+        <v>256</v>
       </c>
       <c r="EM30" s="50"/>
-      <c r="EN30" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="EO30" s="50"/>
-      <c r="EP30" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="EQ30" s="17"/>
-      <c r="ER30" s="17"/>
-      <c r="ES30" s="11"/>
-      <c r="ET30" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="EU30" s="50"/>
-      <c r="EV30" s="81"/>
-      <c r="EW30" s="17"/>
-      <c r="EX30" s="17"/>
-      <c r="EY30" s="17"/>
-      <c r="EZ30" s="17"/>
-      <c r="FA30" s="11"/>
-      <c r="FB30" s="11"/>
-      <c r="FC30" s="11"/>
-      <c r="FD30" s="11"/>
-      <c r="FE30" s="11"/>
-      <c r="FF30" s="11"/>
-      <c r="FG30" s="11"/>
-      <c r="FH30" s="11"/>
+      <c r="EN30" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="EO30" s="11"/>
+      <c r="EP30" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="EQ30" s="50"/>
+      <c r="ER30" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="ES30" s="50"/>
+      <c r="ET30" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="EU30" s="17"/>
+      <c r="EV30" s="17"/>
+      <c r="EW30" s="11"/>
+      <c r="EX30" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="EY30" s="50"/>
+      <c r="EZ30" s="136" t="s">
+        <v>303</v>
+      </c>
+      <c r="FA30" s="17"/>
+      <c r="FB30" s="160" t="s">
+        <v>286</v>
+      </c>
+      <c r="FC30" s="50"/>
+      <c r="FD30" s="50"/>
+      <c r="FE30" s="50"/>
+      <c r="FF30" s="50"/>
+      <c r="FG30" s="50"/>
+      <c r="FH30" s="77"/>
       <c r="FI30" s="11"/>
       <c r="FJ30" s="11"/>
       <c r="FK30" s="11"/>
@@ -9893,13 +10164,13 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="11"/>
       <c r="GC30" s="11"/>
-      <c r="GD30" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="GD30" s="11"/>
       <c r="GE30" s="11"/>
       <c r="GF30" s="11"/>
       <c r="GG30" s="11"/>
-      <c r="GH30" s="11"/>
+      <c r="GH30" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="GI30" s="11"/>
       <c r="GJ30" s="11"/>
       <c r="GK30" s="11"/>
@@ -9917,11 +10188,11 @@
       <c r="GW30" s="11"/>
       <c r="GX30" s="11"/>
       <c r="GY30" s="11"/>
-      <c r="GZ30" s="9"/>
-      <c r="HA30" s="10"/>
-      <c r="HB30" s="10"/>
-      <c r="HC30" s="10"/>
-      <c r="HD30" s="10"/>
+      <c r="GZ30" s="11"/>
+      <c r="HA30" s="11"/>
+      <c r="HB30" s="11"/>
+      <c r="HC30" s="11"/>
+      <c r="HD30" s="9"/>
       <c r="HE30" s="10"/>
       <c r="HF30" s="10"/>
       <c r="HG30" s="10"/>
@@ -9933,10 +10204,10 @@
       <c r="HM30" s="10"/>
       <c r="HN30" s="10"/>
       <c r="HO30" s="10"/>
-      <c r="HP30" s="4"/>
-      <c r="HQ30" s="4"/>
-      <c r="HR30" s="4"/>
-      <c r="HS30" s="4"/>
+      <c r="HP30" s="10"/>
+      <c r="HQ30" s="10"/>
+      <c r="HR30" s="10"/>
+      <c r="HS30" s="10"/>
       <c r="HT30" s="4"/>
       <c r="HU30" s="4"/>
       <c r="HV30" s="4"/>
@@ -9944,8 +10215,12 @@
       <c r="HX30" s="4"/>
       <c r="HY30" s="4"/>
       <c r="HZ30" s="4"/>
+      <c r="IA30" s="4"/>
+      <c r="IB30" s="4"/>
+      <c r="IC30" s="4"/>
+      <c r="ID30" s="4"/>
     </row>
-    <row r="31" spans="1:234" ht="16.05" customHeight="1" thickBot="1">
+    <row r="31" spans="1:238" ht="16" customHeight="1" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -10037,7 +10312,7 @@
       <c r="BO31" s="11"/>
       <c r="BP31" s="11"/>
       <c r="BQ31" s="11"/>
-      <c r="BR31" s="115" t="s">
+      <c r="BR31" s="110" t="s">
         <v>0</v>
       </c>
       <c r="BS31" s="17"/>
@@ -10045,13 +10320,13 @@
       <c r="BU31" s="17"/>
       <c r="BV31" s="17"/>
       <c r="BW31" s="17"/>
-      <c r="BX31" s="115" t="s">
+      <c r="BX31" s="110" t="s">
         <v>0</v>
       </c>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
       <c r="CA31" s="17"/>
-      <c r="CB31" s="115" t="s">
+      <c r="CB31" s="110" t="s">
         <v>0</v>
       </c>
       <c r="CC31" s="11"/>
@@ -10063,21 +10338,21 @@
       <c r="CG31" s="11"/>
       <c r="CH31" s="11"/>
       <c r="CI31" s="11"/>
-      <c r="CJ31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK31" s="12"/>
+      <c r="CJ31" s="11"/>
+      <c r="CK31" s="11"/>
       <c r="CL31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CM31" s="11"/>
-      <c r="CN31" s="12" t="s">
+      <c r="CM31" s="12"/>
+      <c r="CN31" s="12"/>
+      <c r="CO31" s="12"/>
+      <c r="CP31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CO31" s="11"/>
-      <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
-      <c r="CR31" s="11"/>
+      <c r="CR31" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="CS31" s="11"/>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
@@ -10105,29 +10380,27 @@
       <c r="DQ31" s="11"/>
       <c r="DR31" s="11"/>
       <c r="DS31" s="11"/>
-      <c r="DT31" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="DT31" s="11"/>
       <c r="DU31" s="11"/>
       <c r="DV31" s="11"/>
       <c r="DW31" s="11"/>
       <c r="DX31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DY31" s="12"/>
-      <c r="DZ31" s="12" t="s">
+      <c r="DY31" s="11"/>
+      <c r="DZ31" s="11"/>
+      <c r="EA31" s="11"/>
+      <c r="EB31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="EA31" s="12"/>
-      <c r="EB31" s="12"/>
       <c r="EC31" s="12"/>
-      <c r="ED31" s="12"/>
-      <c r="EE31" s="11"/>
-      <c r="EF31" s="11"/>
-      <c r="EG31" s="11"/>
-      <c r="EH31" s="12" t="s">
+      <c r="ED31" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="EE31" s="12"/>
+      <c r="EF31" s="12"/>
+      <c r="EG31" s="12"/>
+      <c r="EH31" s="12"/>
       <c r="EI31" s="11"/>
       <c r="EJ31" s="11"/>
       <c r="EK31" s="11"/>
@@ -10135,17 +10408,19 @@
         <v>0</v>
       </c>
       <c r="EM31" s="11"/>
-      <c r="EN31" s="139" t="s">
-        <v>0</v>
-      </c>
+      <c r="EN31" s="11"/>
       <c r="EO31" s="11"/>
       <c r="EP31" s="12" t="s">
         <v>0</v>
       </c>
       <c r="EQ31" s="11"/>
-      <c r="ER31" s="11"/>
+      <c r="ER31" s="133" t="s">
+        <v>0</v>
+      </c>
       <c r="ES31" s="11"/>
-      <c r="ET31" s="11"/>
+      <c r="ET31" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="EU31" s="11"/>
       <c r="EV31" s="11"/>
       <c r="EW31" s="11"/>
@@ -10203,11 +10478,11 @@
       <c r="GW31" s="11"/>
       <c r="GX31" s="11"/>
       <c r="GY31" s="11"/>
-      <c r="GZ31" s="9"/>
-      <c r="HA31" s="10"/>
-      <c r="HB31" s="10"/>
-      <c r="HC31" s="10"/>
-      <c r="HD31" s="10"/>
+      <c r="GZ31" s="11"/>
+      <c r="HA31" s="11"/>
+      <c r="HB31" s="11"/>
+      <c r="HC31" s="11"/>
+      <c r="HD31" s="9"/>
       <c r="HE31" s="10"/>
       <c r="HF31" s="10"/>
       <c r="HG31" s="10"/>
@@ -10219,10 +10494,10 @@
       <c r="HM31" s="10"/>
       <c r="HN31" s="10"/>
       <c r="HO31" s="10"/>
-      <c r="HP31" s="4"/>
-      <c r="HQ31" s="4"/>
-      <c r="HR31" s="4"/>
-      <c r="HS31" s="4"/>
+      <c r="HP31" s="10"/>
+      <c r="HQ31" s="10"/>
+      <c r="HR31" s="10"/>
+      <c r="HS31" s="10"/>
       <c r="HT31" s="4"/>
       <c r="HU31" s="4"/>
       <c r="HV31" s="4"/>
@@ -10230,8 +10505,12 @@
       <c r="HX31" s="4"/>
       <c r="HY31" s="4"/>
       <c r="HZ31" s="4"/>
+      <c r="IA31" s="4"/>
+      <c r="IB31" s="4"/>
+      <c r="IC31" s="4"/>
+      <c r="ID31" s="4"/>
     </row>
-    <row r="32" spans="1:234" ht="16.05" customHeight="1" thickBot="1">
+    <row r="32" spans="1:238" ht="16" customHeight="1" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -10259,70 +10538,70 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="11"/>
-      <c r="AB32" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="112" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="113" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI32" s="141"/>
-      <c r="AJ32" s="113" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM32" s="140"/>
-      <c r="AN32" s="112" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO32" s="116"/>
-      <c r="AP32" s="113" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ32" s="140"/>
-      <c r="AR32" s="114" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS32" s="140"/>
-      <c r="AT32" s="114" t="s">
-        <v>306</v>
+      <c r="AB32" s="109" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI32" s="135"/>
+      <c r="AJ32" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM32" s="134"/>
+      <c r="AN32" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ32" s="134"/>
+      <c r="AR32" s="109" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="109" t="s">
+        <v>283</v>
       </c>
       <c r="AU32" s="11"/>
       <c r="AV32" s="11"/>
       <c r="AW32" s="11"/>
-      <c r="AX32" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY32" s="111"/>
-      <c r="AZ32" s="113" t="s">
-        <v>180</v>
+      <c r="AX32" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="108" t="s">
+        <v>164</v>
       </c>
       <c r="BA32" s="11"/>
-      <c r="BB32" s="114" t="s">
-        <v>181</v>
+      <c r="BB32" s="109" t="s">
+        <v>165</v>
       </c>
       <c r="BC32" s="11"/>
       <c r="BD32" s="11"/>
       <c r="BE32" s="11"/>
       <c r="BF32" s="11"/>
       <c r="BG32" s="11"/>
-      <c r="BH32" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="BI32" s="111"/>
-      <c r="BJ32" s="113" t="s">
-        <v>189</v>
+      <c r="BH32" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI32" s="106"/>
+      <c r="BJ32" s="108" t="s">
+        <v>173</v>
       </c>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
@@ -10331,53 +10610,57 @@
       <c r="BO32" s="11"/>
       <c r="BP32" s="11"/>
       <c r="BQ32" s="11"/>
-      <c r="BR32" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS32" s="111"/>
-      <c r="BT32" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="BU32" s="110"/>
-      <c r="BV32" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="BW32" s="116"/>
-      <c r="BX32" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY32" s="110"/>
-      <c r="BZ32" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="CA32" s="111"/>
-      <c r="CB32" s="113" t="s">
-        <v>205</v>
+      <c r="BR32" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="BS32" s="106"/>
+      <c r="BT32" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU32" s="105"/>
+      <c r="BV32" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="BW32" s="111"/>
+      <c r="BX32" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY32" s="105"/>
+      <c r="BZ32" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA32" s="106"/>
+      <c r="CB32" s="108" t="s">
+        <v>187</v>
       </c>
       <c r="CC32" s="11"/>
       <c r="CD32" s="11"/>
       <c r="CE32" s="11"/>
-      <c r="CF32" s="114" t="s">
-        <v>210</v>
+      <c r="CF32" s="109" t="s">
+        <v>192</v>
       </c>
       <c r="CG32" s="11"/>
       <c r="CH32" s="11"/>
       <c r="CI32" s="11"/>
-      <c r="CJ32" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="CK32" s="11"/>
-      <c r="CL32" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="CM32" s="11"/>
-      <c r="CN32" s="114" t="s">
-        <v>218</v>
+      <c r="CJ32" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="CK32" s="101"/>
+      <c r="CL32" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM32" s="156"/>
+      <c r="CN32" s="142" t="s">
+        <v>295</v>
       </c>
       <c r="CO32" s="11"/>
-      <c r="CP32" s="11"/>
+      <c r="CP32" s="109" t="s">
+        <v>198</v>
+      </c>
       <c r="CQ32" s="11"/>
-      <c r="CR32" s="11"/>
+      <c r="CR32" s="109" t="s">
+        <v>199</v>
+      </c>
       <c r="CS32" s="11"/>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
@@ -10403,61 +10686,61 @@
       <c r="DO32" s="11"/>
       <c r="DP32" s="11"/>
       <c r="DQ32" s="11"/>
-      <c r="DR32" s="112" t="s">
-        <v>292</v>
-      </c>
-      <c r="DS32" s="116"/>
-      <c r="DT32" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="DU32" s="116"/>
-      <c r="DV32" s="113" t="s">
-        <v>294</v>
-      </c>
-      <c r="DW32" s="11"/>
-      <c r="DX32" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="DY32" s="110"/>
-      <c r="DZ32" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="EA32" s="116"/>
-      <c r="EB32" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="EC32" s="110"/>
-      <c r="ED32" s="110"/>
-      <c r="EE32" s="11"/>
-      <c r="EF32" s="112" t="s">
-        <v>280</v>
-      </c>
-      <c r="EG32" s="116"/>
-      <c r="EH32" s="113" t="s">
-        <v>281</v>
-      </c>
+      <c r="DR32" s="11"/>
+      <c r="DS32" s="11"/>
+      <c r="DT32" s="11"/>
+      <c r="DU32" s="11"/>
+      <c r="DV32" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW32" s="111"/>
+      <c r="DX32" s="111" t="s">
+        <v>270</v>
+      </c>
+      <c r="DY32" s="111"/>
+      <c r="DZ32" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="EA32" s="11"/>
+      <c r="EB32" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="EC32" s="105"/>
+      <c r="ED32" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="EE32" s="111"/>
+      <c r="EF32" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="EG32" s="105"/>
+      <c r="EH32" s="105"/>
       <c r="EI32" s="11"/>
-      <c r="EJ32" s="11"/>
-      <c r="EK32" s="11"/>
-      <c r="EL32" s="114" t="s">
-        <v>278</v>
+      <c r="EJ32" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="EK32" s="111"/>
+      <c r="EL32" s="108" t="s">
+        <v>258</v>
       </c>
       <c r="EM32" s="11"/>
-      <c r="EN32" s="114" t="s">
-        <v>275</v>
-      </c>
+      <c r="EN32" s="11"/>
       <c r="EO32" s="11"/>
-      <c r="EP32" s="112" t="s">
-        <v>276</v>
-      </c>
-      <c r="EQ32" s="116"/>
-      <c r="ER32" s="113" t="s">
-        <v>277</v>
+      <c r="EP32" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="EQ32" s="11"/>
+      <c r="ER32" s="109" t="s">
+        <v>252</v>
       </c>
       <c r="ES32" s="11"/>
-      <c r="ET32" s="11"/>
-      <c r="EU32" s="11"/>
-      <c r="EV32" s="11"/>
+      <c r="ET32" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="EU32" s="111"/>
+      <c r="EV32" s="108" t="s">
+        <v>254</v>
+      </c>
       <c r="EW32" s="11"/>
       <c r="EX32" s="11"/>
       <c r="EY32" s="11"/>
@@ -10513,11 +10796,11 @@
       <c r="GW32" s="11"/>
       <c r="GX32" s="11"/>
       <c r="GY32" s="11"/>
-      <c r="GZ32" s="9"/>
-      <c r="HA32" s="10"/>
-      <c r="HB32" s="10"/>
-      <c r="HC32" s="10"/>
-      <c r="HD32" s="10"/>
+      <c r="GZ32" s="11"/>
+      <c r="HA32" s="11"/>
+      <c r="HB32" s="11"/>
+      <c r="HC32" s="11"/>
+      <c r="HD32" s="9"/>
       <c r="HE32" s="10"/>
       <c r="HF32" s="10"/>
       <c r="HG32" s="10"/>
@@ -10529,10 +10812,10 @@
       <c r="HM32" s="10"/>
       <c r="HN32" s="10"/>
       <c r="HO32" s="10"/>
-      <c r="HP32" s="4"/>
-      <c r="HQ32" s="4"/>
-      <c r="HR32" s="4"/>
-      <c r="HS32" s="4"/>
+      <c r="HP32" s="10"/>
+      <c r="HQ32" s="10"/>
+      <c r="HR32" s="10"/>
+      <c r="HS32" s="10"/>
       <c r="HT32" s="4"/>
       <c r="HU32" s="4"/>
       <c r="HV32" s="4"/>
@@ -10540,8 +10823,12 @@
       <c r="HX32" s="4"/>
       <c r="HY32" s="4"/>
       <c r="HZ32" s="4"/>
+      <c r="IA32" s="4"/>
+      <c r="IB32" s="4"/>
+      <c r="IC32" s="4"/>
+      <c r="ID32" s="4"/>
     </row>
-    <row r="33" spans="1:234" ht="16.05" customHeight="1">
+    <row r="33" spans="1:238" ht="16" customHeight="1" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -10629,11 +10916,15 @@
       <c r="CG33" s="11"/>
       <c r="CH33" s="11"/>
       <c r="CI33" s="11"/>
-      <c r="CJ33" s="11"/>
-      <c r="CK33" s="11"/>
-      <c r="CL33" s="11"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="11"/>
+      <c r="CJ33" s="141"/>
+      <c r="CK33" s="102"/>
+      <c r="CL33" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="CM33" s="157"/>
+      <c r="CN33" s="136" t="s">
+        <v>297</v>
+      </c>
       <c r="CO33" s="11"/>
       <c r="CP33" s="11"/>
       <c r="CQ33" s="11"/>
@@ -10663,17 +10954,17 @@
       <c r="DO33" s="11"/>
       <c r="DP33" s="11"/>
       <c r="DQ33" s="11"/>
-      <c r="DR33" s="17"/>
-      <c r="DS33" s="17"/>
-      <c r="DT33" s="17"/>
-      <c r="DU33" s="17"/>
-      <c r="DV33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW33" s="11"/>
-      <c r="DX33" s="11"/>
-      <c r="DY33" s="11"/>
-      <c r="DZ33" s="11"/>
+      <c r="DR33" s="11"/>
+      <c r="DS33" s="11"/>
+      <c r="DT33" s="11"/>
+      <c r="DU33" s="11"/>
+      <c r="DV33" s="17"/>
+      <c r="DW33" s="17"/>
+      <c r="DX33" s="17"/>
+      <c r="DY33" s="17"/>
+      <c r="DZ33" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="EA33" s="11"/>
       <c r="EB33" s="11"/>
       <c r="EC33" s="11"/>
@@ -10751,11 +11042,11 @@
       <c r="GW33" s="11"/>
       <c r="GX33" s="11"/>
       <c r="GY33" s="11"/>
-      <c r="GZ33" s="9"/>
-      <c r="HA33" s="10"/>
-      <c r="HB33" s="10"/>
-      <c r="HC33" s="10"/>
-      <c r="HD33" s="10"/>
+      <c r="GZ33" s="11"/>
+      <c r="HA33" s="11"/>
+      <c r="HB33" s="11"/>
+      <c r="HC33" s="11"/>
+      <c r="HD33" s="9"/>
       <c r="HE33" s="10"/>
       <c r="HF33" s="10"/>
       <c r="HG33" s="10"/>
@@ -10767,10 +11058,10 @@
       <c r="HM33" s="10"/>
       <c r="HN33" s="10"/>
       <c r="HO33" s="10"/>
-      <c r="HP33" s="4"/>
-      <c r="HQ33" s="4"/>
-      <c r="HR33" s="4"/>
-      <c r="HS33" s="4"/>
+      <c r="HP33" s="10"/>
+      <c r="HQ33" s="10"/>
+      <c r="HR33" s="10"/>
+      <c r="HS33" s="10"/>
       <c r="HT33" s="4"/>
       <c r="HU33" s="4"/>
       <c r="HV33" s="4"/>
@@ -10778,8 +11069,12 @@
       <c r="HX33" s="4"/>
       <c r="HY33" s="4"/>
       <c r="HZ33" s="4"/>
+      <c r="IA33" s="4"/>
+      <c r="IB33" s="4"/>
+      <c r="IC33" s="4"/>
+      <c r="ID33" s="4"/>
     </row>
-    <row r="34" spans="1:234" ht="25.95" customHeight="1">
+    <row r="34" spans="1:238" ht="26" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -10871,15 +11166,15 @@
       <c r="CK34" s="11"/>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
-      <c r="CN34" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="CO34" s="98"/>
-      <c r="CP34" s="98"/>
+      <c r="CN34" s="11"/>
+      <c r="CO34" s="11"/>
+      <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
-      <c r="CR34" s="11"/>
-      <c r="CS34" s="11"/>
-      <c r="CT34" s="11"/>
+      <c r="CR34" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS34" s="93"/>
+      <c r="CT34" s="93"/>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
@@ -10909,23 +11204,23 @@
       <c r="DU34" s="11"/>
       <c r="DV34" s="11"/>
       <c r="DW34" s="11"/>
-      <c r="DX34" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="DX34" s="11"/>
       <c r="DY34" s="11"/>
       <c r="DZ34" s="11"/>
       <c r="EA34" s="11"/>
-      <c r="EB34" s="11"/>
+      <c r="EB34" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EC34" s="11"/>
       <c r="ED34" s="11"/>
       <c r="EE34" s="11"/>
-      <c r="EF34" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="EF34" s="11"/>
       <c r="EG34" s="11"/>
       <c r="EH34" s="11"/>
       <c r="EI34" s="11"/>
-      <c r="EJ34" s="11"/>
+      <c r="EJ34" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EK34" s="11"/>
       <c r="EL34" s="11"/>
       <c r="EM34" s="11"/>
@@ -10993,11 +11288,11 @@
       <c r="GW34" s="11"/>
       <c r="GX34" s="11"/>
       <c r="GY34" s="11"/>
-      <c r="GZ34" s="9"/>
-      <c r="HA34" s="10"/>
-      <c r="HB34" s="10"/>
-      <c r="HC34" s="10"/>
-      <c r="HD34" s="10"/>
+      <c r="GZ34" s="11"/>
+      <c r="HA34" s="11"/>
+      <c r="HB34" s="11"/>
+      <c r="HC34" s="11"/>
+      <c r="HD34" s="9"/>
       <c r="HE34" s="10"/>
       <c r="HF34" s="10"/>
       <c r="HG34" s="10"/>
@@ -11009,10 +11304,10 @@
       <c r="HM34" s="10"/>
       <c r="HN34" s="10"/>
       <c r="HO34" s="10"/>
-      <c r="HP34" s="4"/>
-      <c r="HQ34" s="4"/>
-      <c r="HR34" s="4"/>
-      <c r="HS34" s="4"/>
+      <c r="HP34" s="10"/>
+      <c r="HQ34" s="10"/>
+      <c r="HR34" s="10"/>
+      <c r="HS34" s="10"/>
       <c r="HT34" s="4"/>
       <c r="HU34" s="4"/>
       <c r="HV34" s="4"/>
@@ -11020,8 +11315,12 @@
       <c r="HX34" s="4"/>
       <c r="HY34" s="4"/>
       <c r="HZ34" s="4"/>
+      <c r="IA34" s="4"/>
+      <c r="IB34" s="4"/>
+      <c r="IC34" s="4"/>
+      <c r="ID34" s="4"/>
     </row>
-    <row r="35" spans="1:234" ht="16.05" customHeight="1" thickBot="1">
+    <row r="35" spans="1:238" ht="16" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -11091,44 +11390,44 @@
       <c r="BO35" s="11"/>
       <c r="BP35" s="11"/>
       <c r="BQ35" s="11"/>
-      <c r="BR35" s="11"/>
-      <c r="BS35" s="11"/>
-      <c r="BT35" s="11"/>
-      <c r="BU35" s="11"/>
-      <c r="BV35" s="11"/>
-      <c r="BW35" s="11"/>
-      <c r="BX35" s="11"/>
-      <c r="BY35" s="11"/>
-      <c r="BZ35" s="11"/>
-      <c r="CA35" s="11"/>
-      <c r="CB35" s="11"/>
-      <c r="CC35" s="11"/>
-      <c r="CD35" s="11"/>
-      <c r="CE35" s="11"/>
-      <c r="CF35" s="11"/>
-      <c r="CG35" s="11"/>
-      <c r="CH35" s="11"/>
-      <c r="CI35" s="11"/>
-      <c r="CJ35" s="11"/>
-      <c r="CK35" s="11"/>
-      <c r="CL35" s="11"/>
-      <c r="CM35" s="11"/>
-      <c r="CN35" s="98"/>
-      <c r="CO35" s="98"/>
-      <c r="CP35" s="98"/>
-      <c r="CQ35" s="11"/>
-      <c r="CR35" s="11"/>
-      <c r="CS35" s="11"/>
-      <c r="CT35" s="11"/>
-      <c r="CU35" s="11"/>
-      <c r="CV35" s="11"/>
-      <c r="CW35" s="11"/>
-      <c r="CX35" s="11"/>
-      <c r="CY35" s="11"/>
-      <c r="CZ35" s="11"/>
-      <c r="DA35" s="11"/>
-      <c r="DB35" s="11"/>
-      <c r="DC35" s="11"/>
+      <c r="BR35" s="17"/>
+      <c r="BS35" s="17"/>
+      <c r="BT35" s="17"/>
+      <c r="BU35" s="17"/>
+      <c r="BV35" s="17"/>
+      <c r="BW35" s="17"/>
+      <c r="BX35" s="17"/>
+      <c r="BY35" s="17"/>
+      <c r="BZ35" s="17"/>
+      <c r="CA35" s="17"/>
+      <c r="CB35" s="17"/>
+      <c r="CC35" s="17"/>
+      <c r="CD35" s="17"/>
+      <c r="CE35" s="17"/>
+      <c r="CF35" s="17"/>
+      <c r="CG35" s="17"/>
+      <c r="CH35" s="17"/>
+      <c r="CI35" s="17"/>
+      <c r="CJ35" s="17"/>
+      <c r="CK35" s="17"/>
+      <c r="CL35" s="17"/>
+      <c r="CM35" s="17"/>
+      <c r="CN35" s="17"/>
+      <c r="CO35" s="17"/>
+      <c r="CP35" s="17"/>
+      <c r="CQ35" s="17"/>
+      <c r="CR35" s="148"/>
+      <c r="CS35" s="148"/>
+      <c r="CT35" s="148"/>
+      <c r="CU35" s="17"/>
+      <c r="CV35" s="17"/>
+      <c r="CW35" s="17"/>
+      <c r="CX35" s="17"/>
+      <c r="CY35" s="17"/>
+      <c r="CZ35" s="17"/>
+      <c r="DA35" s="17"/>
+      <c r="DB35" s="17"/>
+      <c r="DC35" s="17"/>
       <c r="DD35" s="11"/>
       <c r="DE35" s="11"/>
       <c r="DF35" s="11"/>
@@ -11147,28 +11446,28 @@
       <c r="DS35" s="11"/>
       <c r="DT35" s="11"/>
       <c r="DU35" s="11"/>
-      <c r="DV35" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="DV35" s="11"/>
       <c r="DW35" s="11"/>
-      <c r="DX35" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="DX35" s="11"/>
       <c r="DY35" s="11"/>
-      <c r="DZ35" s="11"/>
+      <c r="DZ35" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EA35" s="11"/>
-      <c r="EB35" s="11"/>
+      <c r="EB35" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EC35" s="11"/>
       <c r="ED35" s="11"/>
       <c r="EE35" s="11"/>
-      <c r="EF35" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="EF35" s="11"/>
       <c r="EG35" s="11"/>
+      <c r="EH35" s="11"/>
       <c r="EI35" s="11"/>
-      <c r="EJ35" s="11"/>
+      <c r="EJ35" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EK35" s="11"/>
-      <c r="EL35" s="11"/>
       <c r="EM35" s="11"/>
       <c r="EN35" s="11"/>
       <c r="EO35" s="11"/>
@@ -11234,11 +11533,11 @@
       <c r="GW35" s="11"/>
       <c r="GX35" s="11"/>
       <c r="GY35" s="11"/>
-      <c r="GZ35" s="9"/>
-      <c r="HA35" s="10"/>
-      <c r="HB35" s="10"/>
-      <c r="HC35" s="10"/>
-      <c r="HD35" s="10"/>
+      <c r="GZ35" s="11"/>
+      <c r="HA35" s="11"/>
+      <c r="HB35" s="11"/>
+      <c r="HC35" s="11"/>
+      <c r="HD35" s="9"/>
       <c r="HE35" s="10"/>
       <c r="HF35" s="10"/>
       <c r="HG35" s="10"/>
@@ -11250,10 +11549,10 @@
       <c r="HM35" s="10"/>
       <c r="HN35" s="10"/>
       <c r="HO35" s="10"/>
-      <c r="HP35" s="4"/>
-      <c r="HQ35" s="4"/>
-      <c r="HR35" s="4"/>
-      <c r="HS35" s="4"/>
+      <c r="HP35" s="10"/>
+      <c r="HQ35" s="10"/>
+      <c r="HR35" s="10"/>
+      <c r="HS35" s="10"/>
       <c r="HT35" s="4"/>
       <c r="HU35" s="4"/>
       <c r="HV35" s="4"/>
@@ -11261,8 +11560,12 @@
       <c r="HX35" s="4"/>
       <c r="HY35" s="4"/>
       <c r="HZ35" s="4"/>
+      <c r="IA35" s="4"/>
+      <c r="IB35" s="4"/>
+      <c r="IC35" s="4"/>
+      <c r="ID35" s="4"/>
     </row>
-    <row r="36" spans="1:234" ht="16.05" customHeight="1">
+    <row r="36" spans="1:238" ht="16" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -11332,48 +11635,48 @@
       <c r="BO36" s="11"/>
       <c r="BP36" s="11"/>
       <c r="BQ36" s="11"/>
-      <c r="BR36" s="43"/>
-      <c r="BS36" s="43"/>
-      <c r="BT36" s="43"/>
-      <c r="BU36" s="43"/>
-      <c r="BV36" s="43"/>
-      <c r="BW36" s="43"/>
-      <c r="BX36" s="43"/>
-      <c r="BY36" s="43"/>
-      <c r="BZ36" s="43"/>
-      <c r="CA36" s="43"/>
-      <c r="CB36" s="43"/>
-      <c r="CC36" s="43"/>
-      <c r="CD36" s="43"/>
-      <c r="CE36" s="43"/>
-      <c r="CF36" s="43"/>
-      <c r="CG36" s="43"/>
-      <c r="CH36" s="43"/>
-      <c r="CI36" s="43"/>
-      <c r="CJ36" s="43"/>
-      <c r="CK36" s="43"/>
-      <c r="CL36" s="43"/>
-      <c r="CM36" s="43"/>
-      <c r="CN36" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="CO36" s="93"/>
-      <c r="CP36" s="93"/>
-      <c r="CQ36" s="43"/>
-      <c r="CR36" s="43"/>
-      <c r="CS36" s="43"/>
-      <c r="CT36" s="43"/>
-      <c r="CU36" s="43"/>
-      <c r="CV36" s="43"/>
-      <c r="CW36" s="43"/>
-      <c r="CX36" s="43"/>
-      <c r="CY36" s="43"/>
+      <c r="BR36" s="17"/>
+      <c r="BS36" s="17"/>
+      <c r="BT36" s="17"/>
+      <c r="BU36" s="17"/>
+      <c r="BV36" s="17"/>
+      <c r="BW36" s="17"/>
+      <c r="BX36" s="17"/>
+      <c r="BY36" s="17"/>
+      <c r="BZ36" s="17"/>
+      <c r="CA36" s="17"/>
+      <c r="CB36" s="17"/>
+      <c r="CC36" s="17"/>
+      <c r="CD36" s="17"/>
+      <c r="CE36" s="17"/>
+      <c r="CF36" s="17"/>
+      <c r="CG36" s="17"/>
+      <c r="CH36" s="17"/>
+      <c r="CI36" s="17"/>
+      <c r="CJ36" s="17"/>
+      <c r="CK36" s="17"/>
+      <c r="CL36" s="17"/>
+      <c r="CM36" s="17"/>
+      <c r="CN36" s="17"/>
+      <c r="CO36" s="17"/>
+      <c r="CP36" s="17"/>
+      <c r="CQ36" s="17"/>
+      <c r="CR36" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS36" s="149"/>
+      <c r="CT36" s="149"/>
+      <c r="CU36" s="17"/>
+      <c r="CV36" s="17"/>
+      <c r="CW36" s="17"/>
+      <c r="CX36" s="17"/>
+      <c r="CY36" s="17"/>
       <c r="CZ36" s="17"/>
       <c r="DA36" s="17"/>
-      <c r="DB36" s="11"/>
-      <c r="DC36" s="11"/>
-      <c r="DD36" s="11"/>
-      <c r="DE36" s="11"/>
+      <c r="DB36" s="17"/>
+      <c r="DC36" s="17"/>
+      <c r="DD36" s="17"/>
+      <c r="DE36" s="17"/>
       <c r="DF36" s="11"/>
       <c r="DG36" s="11"/>
       <c r="DH36" s="11"/>
@@ -11390,18 +11693,18 @@
       <c r="DS36" s="11"/>
       <c r="DT36" s="11"/>
       <c r="DU36" s="11"/>
-      <c r="DV36" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="DV36" s="11"/>
       <c r="DW36" s="11"/>
-      <c r="EE36" s="11"/>
-      <c r="EF36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG36" s="11"/>
-      <c r="EH36" s="11"/>
+      <c r="DX36" s="11"/>
+      <c r="DY36" s="11"/>
+      <c r="DZ36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA36" s="11"/>
       <c r="EI36" s="11"/>
-      <c r="EJ36" s="11"/>
+      <c r="EJ36" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="EK36" s="11"/>
       <c r="EL36" s="11"/>
       <c r="EM36" s="11"/>
@@ -11469,11 +11772,11 @@
       <c r="GW36" s="11"/>
       <c r="GX36" s="11"/>
       <c r="GY36" s="11"/>
-      <c r="GZ36" s="9"/>
-      <c r="HA36" s="10"/>
-      <c r="HB36" s="10"/>
-      <c r="HC36" s="10"/>
-      <c r="HD36" s="10"/>
+      <c r="GZ36" s="11"/>
+      <c r="HA36" s="11"/>
+      <c r="HB36" s="11"/>
+      <c r="HC36" s="11"/>
+      <c r="HD36" s="9"/>
       <c r="HE36" s="10"/>
       <c r="HF36" s="10"/>
       <c r="HG36" s="10"/>
@@ -11485,10 +11788,10 @@
       <c r="HM36" s="10"/>
       <c r="HN36" s="10"/>
       <c r="HO36" s="10"/>
-      <c r="HP36" s="4"/>
-      <c r="HQ36" s="4"/>
-      <c r="HR36" s="4"/>
-      <c r="HS36" s="4"/>
+      <c r="HP36" s="10"/>
+      <c r="HQ36" s="10"/>
+      <c r="HR36" s="10"/>
+      <c r="HS36" s="10"/>
       <c r="HT36" s="4"/>
       <c r="HU36" s="4"/>
       <c r="HV36" s="4"/>
@@ -11496,8 +11799,12 @@
       <c r="HX36" s="4"/>
       <c r="HY36" s="4"/>
       <c r="HZ36" s="4"/>
+      <c r="IA36" s="4"/>
+      <c r="IB36" s="4"/>
+      <c r="IC36" s="4"/>
+      <c r="ID36" s="4"/>
     </row>
-    <row r="37" spans="1:234" s="4" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="37" spans="1:238" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -11566,48 +11873,48 @@
       <c r="BO37" s="11"/>
       <c r="BP37" s="11"/>
       <c r="BQ37" s="11"/>
-      <c r="BR37" s="50"/>
-      <c r="BS37" s="50"/>
-      <c r="BT37" s="50"/>
-      <c r="BU37" s="50"/>
-      <c r="BV37" s="50"/>
-      <c r="BW37" s="50"/>
-      <c r="BX37" s="50"/>
-      <c r="BY37" s="50"/>
-      <c r="BZ37" s="50"/>
-      <c r="CA37" s="50"/>
-      <c r="CB37" s="50"/>
-      <c r="CC37" s="50"/>
-      <c r="CD37" s="50"/>
-      <c r="CE37" s="50"/>
-      <c r="CF37" s="50"/>
-      <c r="CG37" s="50"/>
-      <c r="CH37" s="50"/>
-      <c r="CI37" s="50"/>
-      <c r="CJ37" s="50"/>
-      <c r="CK37" s="50"/>
-      <c r="CL37" s="50"/>
-      <c r="CM37" s="50"/>
-      <c r="CN37" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO37" s="92"/>
-      <c r="CP37" s="92"/>
-      <c r="CQ37" s="50"/>
-      <c r="CR37" s="50"/>
-      <c r="CS37" s="50"/>
-      <c r="CT37" s="50"/>
-      <c r="CU37" s="50"/>
-      <c r="CV37" s="50"/>
-      <c r="CW37" s="50"/>
-      <c r="CX37" s="50"/>
-      <c r="CY37" s="50"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+      <c r="BT37" s="17"/>
+      <c r="BU37" s="17"/>
+      <c r="BV37" s="17"/>
+      <c r="BW37" s="17"/>
+      <c r="BX37" s="17"/>
+      <c r="BY37" s="17"/>
+      <c r="BZ37" s="17"/>
+      <c r="CA37" s="17"/>
+      <c r="CB37" s="17"/>
+      <c r="CC37" s="17"/>
+      <c r="CD37" s="17"/>
+      <c r="CE37" s="17"/>
+      <c r="CF37" s="17"/>
+      <c r="CG37" s="17"/>
+      <c r="CH37" s="17"/>
+      <c r="CI37" s="17"/>
+      <c r="CJ37" s="17"/>
+      <c r="CK37" s="17"/>
+      <c r="CL37" s="17"/>
+      <c r="CM37" s="17"/>
+      <c r="CN37" s="17"/>
+      <c r="CO37" s="17"/>
+      <c r="CP37" s="17"/>
+      <c r="CQ37" s="17"/>
+      <c r="CR37" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS37" s="150"/>
+      <c r="CT37" s="150"/>
+      <c r="CU37" s="17"/>
+      <c r="CV37" s="17"/>
+      <c r="CW37" s="17"/>
+      <c r="CX37" s="17"/>
+      <c r="CY37" s="17"/>
       <c r="CZ37" s="17"/>
       <c r="DA37" s="17"/>
-      <c r="DB37" s="1"/>
-      <c r="DC37" s="1"/>
-      <c r="DD37" s="1"/>
-      <c r="DE37" s="1"/>
+      <c r="DB37" s="17"/>
+      <c r="DC37" s="17"/>
+      <c r="DD37" s="17"/>
+      <c r="DE37" s="17"/>
       <c r="DF37" s="1"/>
       <c r="DG37" s="1"/>
       <c r="DH37" s="1"/>
@@ -11616,33 +11923,33 @@
       <c r="DK37" s="1"/>
       <c r="DL37" s="1"/>
       <c r="DM37" s="1"/>
-      <c r="DN37" s="123"/>
+      <c r="DN37" s="1"/>
       <c r="DO37" s="1"/>
       <c r="DP37" s="1"/>
       <c r="DQ37" s="1"/>
-      <c r="DR37" s="1"/>
+      <c r="DR37" s="117"/>
       <c r="DS37" s="1"/>
       <c r="DT37" s="1"/>
       <c r="DU37" s="1"/>
-      <c r="DV37" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="DV37" s="1"/>
       <c r="DW37" s="1"/>
       <c r="DX37" s="1"/>
       <c r="DY37" s="1"/>
-      <c r="DZ37" s="1"/>
+      <c r="DZ37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="EA37" s="1"/>
       <c r="EB37" s="1"/>
       <c r="EC37" s="1"/>
       <c r="ED37" s="1"/>
       <c r="EE37" s="1"/>
-      <c r="EF37" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="EF37" s="1"/>
       <c r="EG37" s="1"/>
       <c r="EH37" s="1"/>
       <c r="EI37" s="1"/>
-      <c r="EJ37" s="1"/>
+      <c r="EJ37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="EK37" s="1"/>
       <c r="EL37" s="1"/>
       <c r="EM37" s="1"/>
@@ -11652,19 +11959,19 @@
       <c r="EQ37" s="1"/>
       <c r="ER37" s="1"/>
       <c r="ES37" s="1"/>
-      <c r="ET37" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU37" s="123"/>
-      <c r="EV37" s="123"/>
-      <c r="EW37" s="123"/>
-      <c r="EX37" s="123"/>
-      <c r="EY37" s="123"/>
-      <c r="EZ37" s="123"/>
-      <c r="FA37" s="1"/>
-      <c r="FB37" s="1"/>
-      <c r="FC37" s="1"/>
-      <c r="FD37" s="1"/>
+      <c r="ET37" s="1"/>
+      <c r="EU37" s="1"/>
+      <c r="EV37" s="1"/>
+      <c r="EW37" s="1"/>
+      <c r="EX37" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY37" s="117"/>
+      <c r="EZ37" s="117"/>
+      <c r="FA37" s="117"/>
+      <c r="FB37" s="117"/>
+      <c r="FC37" s="117"/>
+      <c r="FD37" s="117"/>
       <c r="FE37" s="1"/>
       <c r="FF37" s="1"/>
       <c r="FG37" s="1"/>
@@ -11706,19 +12013,19 @@
       <c r="GQ37" s="1"/>
       <c r="GR37" s="1"/>
       <c r="GS37" s="1"/>
-      <c r="GT37" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="GU37" s="124"/>
-      <c r="GV37" s="124"/>
-      <c r="GW37" s="124"/>
-      <c r="GX37" s="124"/>
-      <c r="GY37" s="124"/>
-      <c r="GZ37" s="5"/>
-      <c r="HA37" s="2"/>
-      <c r="HB37" s="2"/>
-      <c r="HC37" s="2"/>
-      <c r="HD37" s="2"/>
+      <c r="GT37" s="1"/>
+      <c r="GU37" s="1"/>
+      <c r="GV37" s="1"/>
+      <c r="GW37" s="1"/>
+      <c r="GX37" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY37" s="118"/>
+      <c r="GZ37" s="118"/>
+      <c r="HA37" s="118"/>
+      <c r="HB37" s="118"/>
+      <c r="HC37" s="118"/>
+      <c r="HD37" s="5"/>
       <c r="HE37" s="2"/>
       <c r="HF37" s="2"/>
       <c r="HG37" s="2"/>
@@ -11730,8 +12037,12 @@
       <c r="HM37" s="2"/>
       <c r="HN37" s="2"/>
       <c r="HO37" s="2"/>
+      <c r="HP37" s="2"/>
+      <c r="HQ37" s="2"/>
+      <c r="HR37" s="2"/>
+      <c r="HS37" s="2"/>
     </row>
-    <row r="38" spans="1:234" s="4" customFormat="1" ht="16.05" customHeight="1">
+    <row r="38" spans="1:238" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11804,50 +12115,50 @@
       <c r="BO38" s="11"/>
       <c r="BP38" s="11"/>
       <c r="BQ38" s="11"/>
-      <c r="BR38" s="11"/>
-      <c r="BS38" s="11"/>
-      <c r="BT38" s="11"/>
-      <c r="BU38" s="11"/>
-      <c r="BV38" s="11"/>
-      <c r="BW38" s="11"/>
-      <c r="BX38" s="11"/>
-      <c r="BY38" s="11"/>
-      <c r="BZ38" s="11"/>
-      <c r="CA38" s="11"/>
-      <c r="CB38" s="11"/>
-      <c r="CC38" s="11"/>
-      <c r="CD38" s="11"/>
-      <c r="CE38" s="11"/>
-      <c r="CF38" s="11"/>
-      <c r="CG38" s="11"/>
-      <c r="CH38" s="11"/>
-      <c r="CI38" s="11"/>
-      <c r="CJ38" s="11"/>
-      <c r="CK38" s="11"/>
-      <c r="CL38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM38" s="12"/>
-      <c r="CN38" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="CO38" s="89"/>
-      <c r="CP38" s="89"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
-      <c r="CS38" s="11"/>
-      <c r="CT38" s="11"/>
-      <c r="CU38" s="11"/>
-      <c r="CV38" s="11"/>
-      <c r="CW38" s="11"/>
-      <c r="CX38" s="11"/>
-      <c r="CY38" s="11"/>
-      <c r="CZ38" s="11"/>
-      <c r="DA38" s="11"/>
-      <c r="DB38" s="1"/>
-      <c r="DC38" s="1"/>
-      <c r="DD38" s="1"/>
-      <c r="DE38" s="1"/>
+      <c r="BR38" s="17"/>
+      <c r="BS38" s="17"/>
+      <c r="BT38" s="17"/>
+      <c r="BU38" s="17"/>
+      <c r="BV38" s="17"/>
+      <c r="BW38" s="17"/>
+      <c r="BX38" s="17"/>
+      <c r="BY38" s="17"/>
+      <c r="BZ38" s="17"/>
+      <c r="CA38" s="17"/>
+      <c r="CB38" s="17"/>
+      <c r="CC38" s="17"/>
+      <c r="CD38" s="17"/>
+      <c r="CE38" s="17"/>
+      <c r="CF38" s="17"/>
+      <c r="CG38" s="17"/>
+      <c r="CH38" s="17"/>
+      <c r="CI38" s="17"/>
+      <c r="CJ38" s="17"/>
+      <c r="CK38" s="17"/>
+      <c r="CL38" s="17"/>
+      <c r="CM38" s="17"/>
+      <c r="CN38" s="17"/>
+      <c r="CO38" s="17"/>
+      <c r="CP38" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ38" s="110"/>
+      <c r="CR38" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS38" s="151"/>
+      <c r="CT38" s="151"/>
+      <c r="CU38" s="17"/>
+      <c r="CV38" s="17"/>
+      <c r="CW38" s="17"/>
+      <c r="CX38" s="17"/>
+      <c r="CY38" s="17"/>
+      <c r="CZ38" s="17"/>
+      <c r="DA38" s="17"/>
+      <c r="DB38" s="17"/>
+      <c r="DC38" s="17"/>
+      <c r="DD38" s="11"/>
+      <c r="DE38" s="11"/>
       <c r="DF38" s="1"/>
       <c r="DG38" s="1"/>
       <c r="DH38" s="1"/>
@@ -11856,11 +12167,11 @@
       <c r="DK38" s="1"/>
       <c r="DL38" s="1"/>
       <c r="DM38" s="1"/>
-      <c r="DN38" s="123"/>
+      <c r="DN38" s="1"/>
       <c r="DO38" s="1"/>
       <c r="DP38" s="1"/>
       <c r="DQ38" s="1"/>
-      <c r="DR38" s="1"/>
+      <c r="DR38" s="117"/>
       <c r="DS38" s="1"/>
       <c r="DT38" s="1"/>
       <c r="DU38" s="1"/>
@@ -11888,17 +12199,17 @@
       <c r="EQ38" s="1"/>
       <c r="ER38" s="1"/>
       <c r="ES38" s="1"/>
-      <c r="ET38" s="123"/>
-      <c r="EU38" s="123"/>
-      <c r="EV38" s="123"/>
-      <c r="EW38" s="123"/>
-      <c r="EX38" s="123"/>
-      <c r="EY38" s="123"/>
-      <c r="EZ38" s="123"/>
-      <c r="FA38" s="1"/>
-      <c r="FB38" s="1"/>
-      <c r="FC38" s="1"/>
-      <c r="FD38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="117"/>
+      <c r="EY38" s="117"/>
+      <c r="EZ38" s="117"/>
+      <c r="FA38" s="117"/>
+      <c r="FB38" s="117"/>
+      <c r="FC38" s="117"/>
+      <c r="FD38" s="117"/>
       <c r="FE38" s="1"/>
       <c r="FF38" s="1"/>
       <c r="FG38" s="1"/>
@@ -11940,17 +12251,17 @@
       <c r="GQ38" s="1"/>
       <c r="GR38" s="1"/>
       <c r="GS38" s="1"/>
-      <c r="GT38" s="124"/>
-      <c r="GU38" s="124"/>
-      <c r="GV38" s="124"/>
-      <c r="GW38" s="124"/>
-      <c r="GX38" s="124"/>
-      <c r="GY38" s="124"/>
-      <c r="GZ38" s="131"/>
-      <c r="HA38" s="2"/>
-      <c r="HB38" s="2"/>
-      <c r="HC38" s="2"/>
-      <c r="HD38" s="2"/>
+      <c r="GT38" s="1"/>
+      <c r="GU38" s="1"/>
+      <c r="GV38" s="1"/>
+      <c r="GW38" s="1"/>
+      <c r="GX38" s="118"/>
+      <c r="GY38" s="118"/>
+      <c r="GZ38" s="118"/>
+      <c r="HA38" s="118"/>
+      <c r="HB38" s="118"/>
+      <c r="HC38" s="118"/>
+      <c r="HD38" s="125"/>
       <c r="HE38" s="2"/>
       <c r="HF38" s="2"/>
       <c r="HG38" s="2"/>
@@ -11962,8 +12273,12 @@
       <c r="HM38" s="2"/>
       <c r="HN38" s="2"/>
       <c r="HO38" s="2"/>
+      <c r="HP38" s="2"/>
+      <c r="HQ38" s="2"/>
+      <c r="HR38" s="2"/>
+      <c r="HS38" s="2"/>
     </row>
-    <row r="39" spans="1:234" s="4" customFormat="1" ht="16.05" customHeight="1">
+    <row r="39" spans="1:238" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -11972,21 +12287,21 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="130"/>
-      <c r="T39" s="130"/>
-      <c r="U39" s="130"/>
-      <c r="V39" s="130"/>
-      <c r="W39" s="130"/>
-      <c r="X39" s="130"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="124"/>
+      <c r="X39" s="124"/>
       <c r="Y39" s="2"/>
       <c r="Z39"/>
       <c r="AA39" s="1"/>
@@ -12072,13 +12387,13 @@
       <c r="CY39" s="11"/>
       <c r="CZ39" s="11"/>
       <c r="DA39" s="11"/>
-      <c r="DB39" s="124"/>
-      <c r="DC39" s="124"/>
-      <c r="DD39" s="124"/>
-      <c r="DE39" s="1"/>
-      <c r="DF39" s="1"/>
-      <c r="DG39" s="1"/>
-      <c r="DH39" s="1"/>
+      <c r="DB39" s="11"/>
+      <c r="DC39" s="11"/>
+      <c r="DD39" s="11"/>
+      <c r="DE39" s="11"/>
+      <c r="DF39" s="118"/>
+      <c r="DG39" s="118"/>
+      <c r="DH39" s="118"/>
       <c r="DI39" s="1"/>
       <c r="DJ39" s="1"/>
       <c r="DK39" s="1"/>
@@ -12168,17 +12483,17 @@
       <c r="GQ39" s="1"/>
       <c r="GR39" s="1"/>
       <c r="GS39" s="1"/>
-      <c r="GT39" s="125"/>
-      <c r="GU39" s="125"/>
-      <c r="GV39" s="125"/>
-      <c r="GW39" s="125"/>
-      <c r="GX39" s="125"/>
-      <c r="GY39" s="125"/>
-      <c r="GZ39" s="6"/>
-      <c r="HA39" s="2"/>
-      <c r="HB39" s="2"/>
-      <c r="HC39" s="2"/>
-      <c r="HD39" s="2"/>
+      <c r="GT39" s="1"/>
+      <c r="GU39" s="1"/>
+      <c r="GV39" s="1"/>
+      <c r="GW39" s="1"/>
+      <c r="GX39" s="119"/>
+      <c r="GY39" s="119"/>
+      <c r="GZ39" s="119"/>
+      <c r="HA39" s="119"/>
+      <c r="HB39" s="119"/>
+      <c r="HC39" s="119"/>
+      <c r="HD39" s="6"/>
       <c r="HE39" s="2"/>
       <c r="HF39" s="2"/>
       <c r="HG39" s="2"/>
@@ -12190,66 +12505,70 @@
       <c r="HM39" s="2"/>
       <c r="HN39" s="2"/>
       <c r="HO39" s="2"/>
+      <c r="HP39" s="2"/>
+      <c r="HQ39" s="2"/>
+      <c r="HR39" s="2"/>
+      <c r="HS39" s="2"/>
     </row>
-    <row r="40" spans="1:234" s="4" customFormat="1" ht="16.05" customHeight="1">
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
+    <row r="40" spans="1:238" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
       <c r="BB40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="BD40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="CL40" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="CZ40"/>
-      <c r="DB40" s="126"/>
-      <c r="DC40" s="126"/>
-      <c r="DD40" s="126"/>
-      <c r="EN40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV40"/>
-      <c r="FX40" s="4" t="s">
+      <c r="CP40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="DD40"/>
+      <c r="DF40" s="120"/>
+      <c r="DG40" s="120"/>
+      <c r="DH40" s="120"/>
+      <c r="ER40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ40"/>
+      <c r="GB40" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:234" s="4" customFormat="1" ht="16.05" customHeight="1">
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
+    <row r="41" spans="1:238" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
       <c r="N41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
       <c r="BB41" s="4" t="s">
         <v>1</v>
       </c>
@@ -12259,8 +12578,8 @@
       <c r="CB41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="CD41" s="138" t="s">
-        <v>157</v>
+      <c r="CD41" s="132" t="s">
+        <v>141</v>
       </c>
       <c r="CG41" s="2"/>
       <c r="CH41" s="2"/>
@@ -12269,52 +12588,56 @@
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
       <c r="CM41" s="2"/>
-      <c r="CN41" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="CN41" s="2"/>
       <c r="CO41" s="2"/>
       <c r="CP41" s="2"/>
       <c r="CQ41" s="2"/>
-      <c r="CR41" s="2"/>
+      <c r="CR41" s="161" t="s">
+        <v>82</v>
+      </c>
       <c r="CS41" s="2"/>
-      <c r="DB41" s="127"/>
-      <c r="DC41" s="127"/>
-      <c r="DD41" s="127"/>
-      <c r="DM41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX41" s="4" t="s">
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="DF41" s="121"/>
+      <c r="DG41" s="121"/>
+      <c r="DH41" s="121"/>
+      <c r="DQ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB41" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:234" s="4" customFormat="1">
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
+    <row r="42" spans="1:238" s="4" customFormat="1">
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
       <c r="BB42" s="4" t="s">
         <v>1</v>
       </c>
@@ -12324,7 +12647,7 @@
       <c r="BJ42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="CD42" s="138"/>
+      <c r="CD42" s="132"/>
       <c r="CG42" s="2"/>
       <c r="CH42" s="2"/>
       <c r="CI42" s="2"/>
@@ -12332,54 +12655,58 @@
       <c r="CK42" s="2"/>
       <c r="CL42" s="2"/>
       <c r="CM42" s="2"/>
-      <c r="CN42" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="CO42" s="34"/>
-      <c r="CP42" s="34"/>
-      <c r="CQ42" s="34"/>
-      <c r="CR42" s="34"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="162" t="s">
+        <v>83</v>
+      </c>
       <c r="CS42" s="34"/>
-      <c r="CT42" s="25"/>
-      <c r="CU42" s="25"/>
-      <c r="CV42" s="25"/>
-      <c r="CW42" s="25"/>
+      <c r="CT42" s="34"/>
+      <c r="CU42" s="34"/>
+      <c r="CV42" s="34"/>
+      <c r="CW42" s="34"/>
       <c r="CX42" s="25"/>
       <c r="CY42" s="25"/>
       <c r="CZ42" s="25"/>
       <c r="DA42" s="25"/>
-      <c r="DB42" s="127"/>
-      <c r="DC42" s="127"/>
-      <c r="DD42" s="127"/>
-      <c r="ET42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF42" s="4" t="s">
+      <c r="DB42" s="25"/>
+      <c r="DC42" s="25"/>
+      <c r="DD42" s="25"/>
+      <c r="DE42" s="25"/>
+      <c r="DF42" s="121"/>
+      <c r="DG42" s="121"/>
+      <c r="DH42" s="121"/>
+      <c r="EX42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ42" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:234" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="131"/>
+    <row r="43" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
       <c r="N43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="131"/>
-      <c r="S43" s="131"/>
-      <c r="T43" s="131"/>
-      <c r="U43" s="131"/>
-      <c r="V43" s="131"/>
-      <c r="W43" s="131"/>
-      <c r="X43" s="131"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
       <c r="BB43" s="4" t="s">
         <v>1</v>
       </c>
@@ -12392,8 +12719,8 @@
       <c r="CB43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="CD43" s="138" t="s">
-        <v>158</v>
+      <c r="CD43" s="132" t="s">
+        <v>142</v>
       </c>
       <c r="CG43" s="2"/>
       <c r="CH43" s="2"/>
@@ -12402,55 +12729,59 @@
       <c r="CK43" s="2"/>
       <c r="CL43" s="2"/>
       <c r="CM43" s="2"/>
-      <c r="CN43" s="35"/>
-      <c r="CO43" s="35"/>
-      <c r="CP43" s="35"/>
-      <c r="CQ43" s="35"/>
+      <c r="CN43" s="2"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="2"/>
+      <c r="CQ43" s="2"/>
       <c r="CR43" s="35"/>
       <c r="CS43" s="35"/>
-      <c r="CT43" s="126"/>
-      <c r="CU43" s="126"/>
-      <c r="CV43" s="126"/>
-      <c r="CW43" s="126"/>
-      <c r="CX43" s="126"/>
-      <c r="CY43" s="126"/>
-      <c r="CZ43" s="126"/>
-      <c r="DA43" s="126"/>
-      <c r="DB43" s="128"/>
-      <c r="DC43" s="128"/>
-      <c r="DD43" s="128"/>
-      <c r="DM43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF43" s="4" t="s">
+      <c r="CT43" s="35"/>
+      <c r="CU43" s="35"/>
+      <c r="CV43" s="35"/>
+      <c r="CW43" s="35"/>
+      <c r="CX43" s="120"/>
+      <c r="CY43" s="120"/>
+      <c r="CZ43" s="120"/>
+      <c r="DA43" s="120"/>
+      <c r="DB43" s="120"/>
+      <c r="DC43" s="120"/>
+      <c r="DD43" s="120"/>
+      <c r="DE43" s="120"/>
+      <c r="DF43" s="122"/>
+      <c r="DG43" s="122"/>
+      <c r="DH43" s="122"/>
+      <c r="DQ43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ43" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:234" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="131"/>
+    <row r="44" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
       <c r="N44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="131"/>
-      <c r="R44" s="131"/>
-      <c r="S44" s="131"/>
-      <c r="T44" s="131"/>
-      <c r="U44" s="131"/>
-      <c r="V44" s="131"/>
-      <c r="W44" s="131"/>
-      <c r="X44" s="131"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
       <c r="BB44" s="4" t="s">
         <v>1</v>
       </c>
@@ -12464,61 +12795,62 @@
       <c r="CK44" s="2"/>
       <c r="CL44" s="2"/>
       <c r="CM44" s="2"/>
-      <c r="CN44" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="CO44" s="64"/>
-      <c r="CP44" s="64"/>
+      <c r="CN44" s="2"/>
+      <c r="CO44" s="2"/>
+      <c r="CP44" s="2"/>
       <c r="CQ44" s="2"/>
-      <c r="CR44" s="2"/>
-      <c r="CS44" s="2"/>
-      <c r="CY44" s="127"/>
-      <c r="CZ44" s="127"/>
-      <c r="DA44" s="127"/>
-      <c r="DB44" s="128"/>
-      <c r="DC44" s="128"/>
-      <c r="DD44" s="128"/>
-      <c r="DM44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GV44" s="142" t="s">
-        <v>307</v>
-      </c>
-      <c r="GX44" s="4" t="s">
+      <c r="CR44" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS44" s="62"/>
+      <c r="CT44" s="62"/>
+      <c r="CU44" s="2"/>
+      <c r="CV44" s="2"/>
+      <c r="CW44" s="2"/>
+      <c r="DC44" s="121"/>
+      <c r="DD44" s="121"/>
+      <c r="DE44" s="121"/>
+      <c r="DF44" s="122"/>
+      <c r="DG44" s="122"/>
+      <c r="DH44" s="122"/>
+      <c r="DQ44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB44" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:234" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="131"/>
+    <row r="45" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
       <c r="N45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-      <c r="S45" s="131"/>
-      <c r="T45" s="131"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="131"/>
-      <c r="W45" s="131"/>
-      <c r="X45" s="131"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="125"/>
       <c r="BJ45" s="4" t="s">
         <v>1</v>
       </c>
@@ -12529,52 +12861,56 @@
       <c r="CK45" s="2"/>
       <c r="CL45" s="2"/>
       <c r="CM45" s="2"/>
-      <c r="CN45" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="CN45" s="2"/>
       <c r="CO45" s="2"/>
       <c r="CP45" s="2"/>
       <c r="CQ45" s="2"/>
-      <c r="CR45" s="2"/>
+      <c r="CR45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="CS45" s="2"/>
-      <c r="CY45" s="127"/>
-      <c r="CZ45" s="127"/>
-      <c r="DA45" s="127"/>
-      <c r="DB45" s="128"/>
-      <c r="DC45" s="128"/>
-      <c r="DD45" s="128"/>
-      <c r="DM45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF45" s="4" t="s">
+      <c r="CT45" s="2"/>
+      <c r="CU45" s="2"/>
+      <c r="CV45" s="2"/>
+      <c r="CW45" s="2"/>
+      <c r="DC45" s="121"/>
+      <c r="DD45" s="121"/>
+      <c r="DE45" s="121"/>
+      <c r="DF45" s="122"/>
+      <c r="DG45" s="122"/>
+      <c r="DH45" s="122"/>
+      <c r="DQ45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ45" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:234" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="131"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="131"/>
-      <c r="Q46" s="131"/>
-      <c r="R46" s="131"/>
-      <c r="S46" s="131"/>
-      <c r="T46" s="131"/>
-      <c r="U46" s="131"/>
-      <c r="V46" s="131"/>
-      <c r="W46" s="131"/>
-      <c r="X46" s="131"/>
+    <row r="46" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
       <c r="CG46" s="2"/>
       <c r="CH46" s="2"/>
       <c r="CI46" s="2"/>
@@ -12582,43 +12918,47 @@
       <c r="CK46" s="2"/>
       <c r="CL46" s="2"/>
       <c r="CM46" s="2"/>
-      <c r="CN46" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CO46" s="64"/>
-      <c r="CP46" s="64"/>
+      <c r="CN46" s="2"/>
+      <c r="CO46" s="2"/>
+      <c r="CP46" s="2"/>
       <c r="CQ46" s="2"/>
-      <c r="CR46" s="2"/>
-      <c r="CS46" s="2"/>
-      <c r="CY46" s="128"/>
-      <c r="CZ46" s="128"/>
-      <c r="DA46" s="128"/>
-      <c r="DB46" s="128"/>
-      <c r="DC46" s="128"/>
-      <c r="DD46" s="128"/>
-      <c r="ET46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV46" s="4" t="s">
+      <c r="CR46" s="163" t="s">
+        <v>311</v>
+      </c>
+      <c r="CS46" s="62"/>
+      <c r="CT46" s="62"/>
+      <c r="CU46" s="2"/>
+      <c r="CV46" s="2"/>
+      <c r="CW46" s="2"/>
+      <c r="DC46" s="122"/>
+      <c r="DD46" s="122"/>
+      <c r="DE46" s="122"/>
+      <c r="DF46" s="122"/>
+      <c r="DG46" s="122"/>
+      <c r="DH46" s="122"/>
+      <c r="EX46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ46" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:234" s="4" customFormat="1">
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="131"/>
-      <c r="Q47" s="131"/>
-      <c r="R47" s="131"/>
-      <c r="S47" s="131"/>
-      <c r="T47" s="131"/>
-      <c r="U47" s="131"/>
-      <c r="V47" s="131"/>
-      <c r="W47" s="131"/>
-      <c r="X47" s="131"/>
+    <row r="47" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="Q47" s="125"/>
+      <c r="R47" s="125"/>
+      <c r="S47" s="125"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="125"/>
       <c r="CG47" s="2"/>
       <c r="CH47" s="2"/>
       <c r="CI47" s="2"/>
@@ -12626,28 +12966,32 @@
       <c r="CK47" s="2"/>
       <c r="CL47" s="2"/>
       <c r="CM47" s="2"/>
-      <c r="CN47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CO47" s="7"/>
-      <c r="CP47" s="7"/>
+      <c r="CN47" s="2"/>
+      <c r="CO47" s="2"/>
+      <c r="CP47" s="2"/>
       <c r="CQ47" s="2"/>
-      <c r="CR47" s="2"/>
-      <c r="CS47" s="2"/>
-      <c r="CY47" s="128"/>
-      <c r="CZ47" s="128"/>
-      <c r="DA47" s="128"/>
-      <c r="DB47" s="128"/>
-      <c r="DC47" s="128"/>
-      <c r="DD47" s="128"/>
-      <c r="EV47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF47" s="4" t="s">
+      <c r="CR47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS47" s="7"/>
+      <c r="CT47" s="7"/>
+      <c r="CU47" s="2"/>
+      <c r="CV47" s="2"/>
+      <c r="CW47" s="2"/>
+      <c r="DC47" s="122"/>
+      <c r="DD47" s="122"/>
+      <c r="DE47" s="122"/>
+      <c r="DF47" s="122"/>
+      <c r="DG47" s="122"/>
+      <c r="DH47" s="122"/>
+      <c r="EZ47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ47" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:234" s="4" customFormat="1" ht="16.2" thickBot="1">
+    <row r="48" spans="1:238" s="4" customFormat="1" ht="16" thickBot="1">
       <c r="N48" s="4" t="s">
         <v>1</v>
       </c>
@@ -12666,34 +13010,38 @@
       <c r="CK48" s="2"/>
       <c r="CL48" s="2"/>
       <c r="CM48" s="2"/>
-      <c r="CN48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="CO48" s="7"/>
-      <c r="CP48" s="7"/>
+      <c r="CN48" s="2"/>
+      <c r="CO48" s="2"/>
+      <c r="CP48" s="2"/>
       <c r="CQ48" s="2"/>
-      <c r="CR48" s="2"/>
-      <c r="CS48" s="2"/>
-      <c r="CY48" s="128"/>
-      <c r="CZ48" s="128"/>
-      <c r="DA48" s="128"/>
-      <c r="DB48" s="128"/>
-      <c r="DC48" s="128"/>
-      <c r="DD48" s="128"/>
-      <c r="DM48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX48" s="4" t="s">
+      <c r="CR48" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS48" s="62"/>
+      <c r="CT48" s="62"/>
+      <c r="CU48" s="2"/>
+      <c r="CV48" s="2"/>
+      <c r="CW48" s="2"/>
+      <c r="DC48" s="122"/>
+      <c r="DD48" s="122"/>
+      <c r="DE48" s="122"/>
+      <c r="DF48" s="122"/>
+      <c r="DG48" s="122"/>
+      <c r="DH48" s="122"/>
+      <c r="DQ48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB48" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
+    <row r="49" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
       <c r="N49" s="4" t="s">
         <v>1</v>
       </c>
@@ -12712,37 +13060,41 @@
       <c r="CK49" s="2"/>
       <c r="CL49" s="2"/>
       <c r="CM49" s="2"/>
-      <c r="CN49" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="CO49" s="64"/>
-      <c r="CP49" s="64"/>
+      <c r="CN49" s="2"/>
+      <c r="CO49" s="2"/>
+      <c r="CP49" s="2"/>
       <c r="CQ49" s="2"/>
-      <c r="CR49" s="2"/>
-      <c r="CS49" s="2"/>
-      <c r="CY49" s="128"/>
-      <c r="CZ49" s="128"/>
-      <c r="DA49" s="128"/>
-      <c r="DB49" s="128"/>
-      <c r="DC49" s="128"/>
-      <c r="DD49" s="128"/>
-      <c r="DM49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX49" s="4" t="s">
+      <c r="CR49" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS49" s="36"/>
+      <c r="CT49" s="36"/>
+      <c r="CU49" s="2"/>
+      <c r="CV49" s="2"/>
+      <c r="CW49" s="2"/>
+      <c r="DC49" s="122"/>
+      <c r="DD49" s="122"/>
+      <c r="DE49" s="122"/>
+      <c r="DF49" s="122"/>
+      <c r="DG49" s="122"/>
+      <c r="DH49" s="122"/>
+      <c r="DQ49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB49" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
+    <row r="50" spans="14:210" s="4" customFormat="1">
       <c r="N50" s="4" t="s">
         <v>1</v>
       </c>
@@ -12761,36 +13113,40 @@
       <c r="CK50" s="2"/>
       <c r="CL50" s="2"/>
       <c r="CM50" s="2"/>
-      <c r="CN50" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="CO50" s="36"/>
-      <c r="CP50" s="36"/>
+      <c r="CN50" s="2"/>
+      <c r="CO50" s="2"/>
+      <c r="CP50" s="2"/>
       <c r="CQ50" s="2"/>
-      <c r="CR50" s="2"/>
-      <c r="CS50" s="2"/>
-      <c r="CY50" s="128"/>
-      <c r="CZ50" s="128"/>
-      <c r="DA50" s="128"/>
-      <c r="DB50" s="129"/>
-      <c r="DC50" s="129"/>
-      <c r="DD50" s="129"/>
-      <c r="DM50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET50" s="4" t="s">
+      <c r="CR50" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS50" s="62"/>
+      <c r="CT50" s="62"/>
+      <c r="CU50" s="2"/>
+      <c r="CV50" s="2"/>
+      <c r="CW50" s="2"/>
+      <c r="DC50" s="122"/>
+      <c r="DD50" s="122"/>
+      <c r="DE50" s="122"/>
+      <c r="DF50" s="123"/>
+      <c r="DG50" s="123"/>
+      <c r="DH50" s="123"/>
+      <c r="DQ50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="14:206" s="4" customFormat="1">
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
+    <row r="51" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
+      <c r="T51" s="120"/>
+      <c r="U51" s="120"/>
+      <c r="V51" s="120"/>
+      <c r="W51" s="120"/>
+      <c r="X51" s="120"/>
       <c r="CG51" s="2"/>
       <c r="CH51" s="2"/>
       <c r="CI51" s="2"/>
@@ -12798,33 +13154,37 @@
       <c r="CK51" s="2"/>
       <c r="CL51" s="2"/>
       <c r="CM51" s="2"/>
-      <c r="CN51" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO51" s="64"/>
-      <c r="CP51" s="64"/>
+      <c r="CN51" s="2"/>
+      <c r="CO51" s="2"/>
+      <c r="CP51" s="2"/>
       <c r="CQ51" s="2"/>
-      <c r="CR51" s="2"/>
-      <c r="CS51" s="2"/>
-      <c r="CY51" s="128"/>
-      <c r="CZ51" s="128"/>
-      <c r="DA51" s="128"/>
-      <c r="DB51" s="129"/>
-      <c r="DC51" s="129"/>
-      <c r="DD51" s="129"/>
-      <c r="ET51" s="4" t="s">
+      <c r="CR51" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="CS51" s="7"/>
+      <c r="CT51" s="7"/>
+      <c r="CU51" s="2"/>
+      <c r="CV51" s="2"/>
+      <c r="CW51" s="2"/>
+      <c r="DC51" s="122"/>
+      <c r="DD51" s="122"/>
+      <c r="DE51" s="122"/>
+      <c r="DF51" s="123"/>
+      <c r="DG51" s="123"/>
+      <c r="DH51" s="123"/>
+      <c r="EX51" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="126"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
+    <row r="52" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="120"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
       <c r="CG52" s="2"/>
       <c r="CH52" s="2"/>
       <c r="CI52" s="2"/>
@@ -12832,389 +13192,398 @@
       <c r="CK52" s="2"/>
       <c r="CL52" s="2"/>
       <c r="CM52" s="2"/>
-      <c r="CN52" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO52" s="7"/>
-      <c r="CP52" s="7"/>
+      <c r="CN52" s="2"/>
+      <c r="CO52" s="2"/>
+      <c r="CP52" s="2"/>
       <c r="CQ52" s="2"/>
-      <c r="CR52" s="2"/>
-      <c r="CS52" s="2"/>
-      <c r="CY52" s="128"/>
-      <c r="CZ52" s="128"/>
-      <c r="DA52" s="128"/>
-      <c r="DB52" s="129"/>
-      <c r="DC52" s="129"/>
-      <c r="DD52" s="129"/>
-      <c r="ET52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX52" s="4" t="s">
+      <c r="CR52" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS52" s="38"/>
+      <c r="CT52" s="38"/>
+      <c r="CU52" s="2"/>
+      <c r="CV52" s="2"/>
+      <c r="CW52" s="2"/>
+      <c r="DC52" s="122"/>
+      <c r="DD52" s="122"/>
+      <c r="DE52" s="122"/>
+      <c r="DF52" s="123"/>
+      <c r="DG52" s="123"/>
+      <c r="DH52" s="123"/>
+      <c r="EX52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB52" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127"/>
-      <c r="V53" s="127"/>
-      <c r="W53" s="127"/>
-      <c r="X53" s="127"/>
-      <c r="CG53" s="2"/>
-      <c r="CH53" s="2"/>
-      <c r="CI53" s="2"/>
-      <c r="CJ53" s="2"/>
-      <c r="CK53" s="2"/>
-      <c r="CL53" s="2"/>
-      <c r="CM53" s="2"/>
-      <c r="CN53" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="CO53" s="38"/>
-      <c r="CP53" s="38"/>
-      <c r="CQ53" s="2"/>
-      <c r="CR53" s="2"/>
-      <c r="CS53" s="2"/>
-      <c r="CY53" s="129"/>
-      <c r="CZ53" s="129"/>
-      <c r="DA53" s="129"/>
-      <c r="DB53" s="129"/>
-      <c r="DC53" s="129"/>
-      <c r="DD53" s="129"/>
-      <c r="DM53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET53" s="4" t="s">
+    <row r="53" spans="14:210" s="4" customFormat="1">
+      <c r="Q53" s="121"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="121"/>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="CG53" s="127"/>
+      <c r="CH53" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI53" s="60"/>
+      <c r="CJ53" s="60"/>
+      <c r="CK53" s="69"/>
+      <c r="CL53" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="CM53" s="60"/>
+      <c r="CN53" s="60"/>
+      <c r="CO53" s="69"/>
+      <c r="CP53" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ53" s="69"/>
+      <c r="CR53" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS53" s="60"/>
+      <c r="CT53" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU53" s="69"/>
+      <c r="CV53" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW53" s="62"/>
+      <c r="DC53" s="123"/>
+      <c r="DD53" s="123"/>
+      <c r="DE53" s="123"/>
+      <c r="DF53" s="123"/>
+      <c r="DG53" s="123"/>
+      <c r="DH53" s="123"/>
+      <c r="DQ53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX53" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="14:206" s="4" customFormat="1">
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="128"/>
-      <c r="V54" s="128"/>
-      <c r="W54" s="128"/>
-      <c r="X54" s="128"/>
-      <c r="CF54" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG54" s="133"/>
-      <c r="CH54" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="CI54" s="72"/>
-      <c r="CJ54" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="CK54" s="72"/>
-      <c r="CL54" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM54" s="72"/>
-      <c r="CN54" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="CO54" s="62"/>
-      <c r="CP54" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ54" s="72"/>
-      <c r="CR54" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS54" s="64"/>
-      <c r="CT54" s="134"/>
-      <c r="CU54" s="134"/>
-      <c r="CV54" s="134"/>
-      <c r="CW54" s="134"/>
-      <c r="CX54" s="135"/>
-      <c r="CY54" s="129"/>
-      <c r="CZ54" s="129"/>
-      <c r="DA54" s="129"/>
-      <c r="DM54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET54" s="4" t="s">
+    <row r="54" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="122"/>
+      <c r="V54" s="122"/>
+      <c r="W54" s="122"/>
+      <c r="X54" s="122"/>
+      <c r="CF54" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG54" s="127"/>
+      <c r="CH54" s="70"/>
+      <c r="CI54" s="71"/>
+      <c r="CJ54" s="71"/>
+      <c r="CK54" s="71"/>
+      <c r="CL54" s="71"/>
+      <c r="CM54" s="71"/>
+      <c r="CN54" s="71"/>
+      <c r="CO54" s="71"/>
+      <c r="CP54" s="71"/>
+      <c r="CQ54" s="71"/>
+      <c r="CR54" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS54" s="71"/>
+      <c r="CT54" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="CU54" s="71"/>
+      <c r="CV54" s="92"/>
+      <c r="CW54" s="7"/>
+      <c r="CX54" s="128"/>
+      <c r="CY54" s="128"/>
+      <c r="CZ54" s="128"/>
+      <c r="DA54" s="128"/>
+      <c r="DB54" s="129"/>
+      <c r="DC54" s="123"/>
+      <c r="DD54" s="123"/>
+      <c r="DE54" s="123"/>
+      <c r="DQ54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX54" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="S55" s="128"/>
-      <c r="T55" s="128"/>
-      <c r="U55" s="128"/>
-      <c r="V55" s="128"/>
-      <c r="W55" s="128"/>
-      <c r="X55" s="128"/>
-      <c r="CF55" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG55" s="133"/>
-      <c r="CH55" s="73"/>
-      <c r="CI55" s="74"/>
-      <c r="CJ55" s="74"/>
-      <c r="CK55" s="74"/>
-      <c r="CL55" s="74"/>
-      <c r="CM55" s="74"/>
-      <c r="CN55" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO55" s="74"/>
-      <c r="CP55" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="CQ55" s="74"/>
-      <c r="CR55" s="97"/>
-      <c r="CS55" s="7"/>
-      <c r="CT55" s="135"/>
-      <c r="CU55" s="135"/>
-      <c r="CV55" s="135"/>
-      <c r="CW55" s="135"/>
-      <c r="CX55" s="135"/>
+    <row r="55" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="122"/>
+      <c r="V55" s="122"/>
+      <c r="W55" s="122"/>
+      <c r="X55" s="122"/>
+      <c r="CF55" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG55" s="2"/>
+      <c r="CH55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI55" s="2"/>
+      <c r="CJ55" s="2"/>
+      <c r="CK55" s="2"/>
+      <c r="CL55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM55" s="2"/>
+      <c r="CN55" s="2"/>
+      <c r="CO55" s="2"/>
+      <c r="CP55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ55" s="2"/>
+      <c r="CR55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS55" s="2"/>
+      <c r="CT55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU55" s="2"/>
+      <c r="CV55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW55" s="2"/>
+      <c r="CX55" s="129"/>
       <c r="CY55" s="129"/>
       <c r="CZ55" s="129"/>
       <c r="DA55" s="129"/>
       <c r="DB55" s="129"/>
-      <c r="DC55" s="129"/>
-      <c r="DD55" s="129"/>
-      <c r="DM55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF55" s="4" t="s">
+      <c r="DC55" s="123"/>
+      <c r="DD55" s="123"/>
+      <c r="DE55" s="123"/>
+      <c r="DF55" s="123"/>
+      <c r="DG55" s="123"/>
+      <c r="DH55" s="123"/>
+      <c r="DQ55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ55" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="128"/>
-      <c r="U56" s="128"/>
-      <c r="V56" s="128"/>
-      <c r="W56" s="128"/>
-      <c r="X56" s="128"/>
+    <row r="56" spans="14:210" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="122"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="122"/>
+      <c r="W56" s="122"/>
+      <c r="X56" s="122"/>
       <c r="CF56" s="4" t="s">
         <v>1</v>
       </c>
       <c r="CG56" s="2"/>
-      <c r="CH56" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="CH56" s="2"/>
       <c r="CI56" s="2"/>
-      <c r="CJ56" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="CJ56" s="2"/>
       <c r="CK56" s="2"/>
-      <c r="CL56" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="CL56" s="2"/>
       <c r="CM56" s="2"/>
-      <c r="CN56" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="CN56" s="2"/>
       <c r="CO56" s="2"/>
-      <c r="CP56" s="2" t="s">
-        <v>88</v>
+      <c r="CP56" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="CQ56" s="2"/>
-      <c r="CR56" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="CR56" s="2"/>
       <c r="CS56" s="2"/>
-      <c r="CY56" s="129"/>
-      <c r="CZ56" s="129"/>
-      <c r="DA56" s="129"/>
-      <c r="DB56" s="129"/>
-      <c r="DC56" s="129"/>
-      <c r="DD56" s="129"/>
-      <c r="GF56" s="4" t="s">
+      <c r="CT56" s="2"/>
+      <c r="CU56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV56" s="2"/>
+      <c r="CW56" s="2"/>
+      <c r="DC56" s="123"/>
+      <c r="DD56" s="123"/>
+      <c r="DE56" s="123"/>
+      <c r="DF56" s="123"/>
+      <c r="DG56" s="123"/>
+      <c r="DH56" s="123"/>
+      <c r="GJ56" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="14:206" s="4" customFormat="1" ht="16.2" thickBot="1">
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
-      <c r="U57" s="129"/>
-      <c r="V57" s="129"/>
-      <c r="W57" s="129"/>
-      <c r="X57" s="129"/>
+    <row r="57" spans="14:210" s="4" customFormat="1">
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
+      <c r="U57" s="123"/>
+      <c r="V57" s="123"/>
+      <c r="W57" s="123"/>
+      <c r="X57" s="123"/>
       <c r="CG57" s="2"/>
       <c r="CH57" s="2"/>
       <c r="CI57" s="2"/>
       <c r="CJ57" s="2"/>
       <c r="CK57" s="2"/>
-      <c r="CL57" s="63" t="s">
-        <v>32</v>
-      </c>
+      <c r="CL57" s="2"/>
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
       <c r="CO57" s="2"/>
-      <c r="CP57" s="2"/>
-      <c r="CQ57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR57" s="2"/>
-      <c r="CS57" s="2"/>
-      <c r="CX57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB57" s="129"/>
-      <c r="DC57" s="129"/>
-      <c r="DD57" s="129"/>
+      <c r="CP57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ57" s="2"/>
+      <c r="CR57" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS57" s="37"/>
+      <c r="CT57" s="37"/>
+      <c r="CU57" s="37"/>
+      <c r="CV57" s="37"/>
+      <c r="CW57" s="37"/>
+      <c r="DB57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF57" s="123"/>
+      <c r="DG57" s="123"/>
+      <c r="DH57" s="123"/>
     </row>
-    <row r="58" spans="14:206" s="4" customFormat="1">
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="129"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="129"/>
-      <c r="CG58" s="2"/>
-      <c r="CH58" s="2"/>
-      <c r="CI58" s="2"/>
-      <c r="CJ58" s="2"/>
-      <c r="CK58" s="2"/>
-      <c r="CL58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="CM58" s="2"/>
-      <c r="CN58" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO58" s="37"/>
-      <c r="CP58" s="37"/>
-      <c r="CQ58" s="37"/>
-      <c r="CR58" s="37"/>
-      <c r="CS58" s="37"/>
-      <c r="CT58" s="129"/>
-      <c r="CU58" s="129"/>
-      <c r="CV58" s="129"/>
-      <c r="CW58" s="129"/>
-      <c r="CX58" s="129"/>
-      <c r="CY58" s="129"/>
-      <c r="CZ58" s="129"/>
-      <c r="DA58" s="129"/>
-      <c r="DM58" s="4" t="s">
+    <row r="58" spans="14:210" s="4" customFormat="1">
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+      <c r="U58" s="123"/>
+      <c r="V58" s="123"/>
+      <c r="W58" s="123"/>
+      <c r="X58" s="123"/>
+      <c r="CR58" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS58" s="123"/>
+      <c r="CT58" s="123"/>
+      <c r="CU58" s="123"/>
+      <c r="CV58" s="123"/>
+      <c r="CW58" s="123"/>
+      <c r="CX58" s="123"/>
+      <c r="CY58" s="123"/>
+      <c r="CZ58" s="123"/>
+      <c r="DA58" s="123"/>
+      <c r="DB58" s="123"/>
+      <c r="DC58" s="123"/>
+      <c r="DD58" s="123"/>
+      <c r="DE58" s="123"/>
+      <c r="DQ58" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="14:206" s="4" customFormat="1">
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
-      <c r="U59" s="129"/>
-      <c r="V59" s="129"/>
-      <c r="W59" s="129"/>
-      <c r="X59" s="129"/>
-      <c r="CN59" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO59" s="129"/>
-      <c r="CP59" s="129"/>
-      <c r="CQ59" s="129"/>
-      <c r="CR59" s="129"/>
-      <c r="CS59" s="129"/>
-      <c r="CT59" s="129"/>
-      <c r="CU59" s="129"/>
-      <c r="CV59" s="129"/>
-      <c r="CW59" s="129"/>
-      <c r="CX59" s="129"/>
-      <c r="CY59" s="129"/>
-      <c r="CZ59" s="129"/>
-      <c r="DA59" s="129"/>
-      <c r="DM59" s="4" t="s">
+    <row r="59" spans="14:210" s="4" customFormat="1">
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="123"/>
+      <c r="X59" s="123"/>
+      <c r="CR59" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS59" s="123"/>
+      <c r="CT59" s="123"/>
+      <c r="CU59" s="123"/>
+      <c r="CV59" s="123"/>
+      <c r="CW59" s="123"/>
+      <c r="CX59" s="123"/>
+      <c r="CY59" s="123"/>
+      <c r="CZ59" s="123"/>
+      <c r="DA59" s="123"/>
+      <c r="DB59" s="123"/>
+      <c r="DC59" s="123"/>
+      <c r="DD59" s="123"/>
+      <c r="DE59" s="123"/>
+      <c r="DQ59" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="14:206" s="4" customFormat="1">
-      <c r="CN60" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO60" s="129"/>
-      <c r="CP60" s="129"/>
-      <c r="CQ60" s="129"/>
-      <c r="CR60" s="129"/>
-      <c r="CS60" s="129"/>
-      <c r="CT60" s="129"/>
-      <c r="CU60" s="129"/>
-      <c r="CV60" s="129"/>
-      <c r="CW60" s="129"/>
-      <c r="CX60" s="129"/>
-      <c r="CY60" s="129"/>
-      <c r="CZ60" s="129"/>
-      <c r="DA60" s="129"/>
-      <c r="DM60" s="4" t="s">
+    <row r="60" spans="14:210" s="4" customFormat="1">
+      <c r="CX60" s="123"/>
+      <c r="CY60" s="123"/>
+      <c r="CZ60" s="123"/>
+      <c r="DA60" s="123"/>
+      <c r="DB60" s="123"/>
+      <c r="DC60" s="123"/>
+      <c r="DD60" s="123"/>
+      <c r="DE60" s="123"/>
+      <c r="DQ60" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="14:206" s="4" customFormat="1">
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
-      <c r="U61" s="129"/>
-      <c r="V61" s="129"/>
-      <c r="W61" s="129"/>
-      <c r="X61" s="129"/>
+    <row r="61" spans="14:210" s="4" customFormat="1">
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="123"/>
     </row>
-    <row r="62" spans="14:206" s="4" customFormat="1">
-      <c r="Q62" s="129"/>
-      <c r="R62" s="129"/>
-      <c r="S62" s="129"/>
-      <c r="T62" s="129"/>
-      <c r="U62" s="129"/>
-      <c r="V62" s="129"/>
-      <c r="W62" s="129"/>
-      <c r="X62" s="129"/>
+    <row r="62" spans="14:210" s="4" customFormat="1">
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
+      <c r="U62" s="123"/>
+      <c r="V62" s="123"/>
+      <c r="W62" s="123"/>
+      <c r="X62" s="123"/>
     </row>
-    <row r="63" spans="14:206" s="4" customFormat="1">
-      <c r="Q63" s="129"/>
-      <c r="R63" s="129"/>
-      <c r="S63" s="129"/>
-      <c r="T63" s="129"/>
-      <c r="U63" s="129"/>
-      <c r="V63" s="129"/>
-      <c r="W63" s="129"/>
-      <c r="X63" s="129"/>
+    <row r="63" spans="14:210" s="4" customFormat="1">
+      <c r="Q63" s="123"/>
+      <c r="R63" s="123"/>
+      <c r="S63" s="123"/>
+      <c r="T63" s="123"/>
+      <c r="U63" s="123"/>
+      <c r="V63" s="123"/>
+      <c r="W63" s="123"/>
+      <c r="X63" s="123"/>
     </row>
-    <row r="64" spans="14:206" s="4" customFormat="1">
-      <c r="DM64" s="4" t="s">
+    <row r="64" spans="14:210" s="4" customFormat="1">
+      <c r="DQ64" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="117:117" s="4" customFormat="1">
-      <c r="DM65" s="4" t="s">
+    <row r="65" spans="121:121" s="4" customFormat="1">
+      <c r="DQ65" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="117:117" s="4" customFormat="1"/>
-    <row r="67" spans="117:117" s="4" customFormat="1"/>
-    <row r="68" spans="117:117" s="4" customFormat="1"/>
-    <row r="69" spans="117:117" s="4" customFormat="1"/>
-    <row r="70" spans="117:117" s="4" customFormat="1"/>
-    <row r="71" spans="117:117" s="4" customFormat="1"/>
-    <row r="72" spans="117:117" s="4" customFormat="1"/>
-    <row r="73" spans="117:117" s="4" customFormat="1"/>
-    <row r="74" spans="117:117" s="4" customFormat="1"/>
-    <row r="75" spans="117:117" s="4" customFormat="1"/>
-    <row r="76" spans="117:117" s="4" customFormat="1"/>
-    <row r="77" spans="117:117" s="4" customFormat="1"/>
-    <row r="78" spans="117:117" s="4" customFormat="1"/>
-    <row r="79" spans="117:117" s="4" customFormat="1"/>
-    <row r="80" spans="117:117" s="4" customFormat="1"/>
+    <row r="66" spans="121:121" s="4" customFormat="1"/>
+    <row r="67" spans="121:121" s="4" customFormat="1"/>
+    <row r="68" spans="121:121" s="4" customFormat="1"/>
+    <row r="69" spans="121:121" s="4" customFormat="1"/>
+    <row r="70" spans="121:121" s="4" customFormat="1"/>
+    <row r="71" spans="121:121" s="4" customFormat="1"/>
+    <row r="72" spans="121:121" s="4" customFormat="1"/>
+    <row r="73" spans="121:121" s="4" customFormat="1"/>
+    <row r="74" spans="121:121" s="4" customFormat="1"/>
+    <row r="75" spans="121:121" s="4" customFormat="1"/>
+    <row r="76" spans="121:121" s="4" customFormat="1"/>
+    <row r="77" spans="121:121" s="4" customFormat="1"/>
+    <row r="78" spans="121:121" s="4" customFormat="1"/>
+    <row r="79" spans="121:121" s="4" customFormat="1"/>
+    <row r="80" spans="121:121" s="4" customFormat="1"/>
     <row r="81" s="4" customFormat="1"/>
     <row r="82" s="4" customFormat="1"/>
     <row r="83" s="4" customFormat="1"/>
@@ -13263,31 +13632,27 @@
     <row r="126" s="4" customFormat="1"/>
     <row r="127" s="4" customFormat="1"/>
     <row r="128" s="4" customFormat="1"/>
-    <row r="129" spans="69:207" s="4" customFormat="1"/>
-    <row r="130" spans="69:207" s="4" customFormat="1"/>
-    <row r="131" spans="69:207" s="4" customFormat="1"/>
-    <row r="132" spans="69:207" s="4" customFormat="1"/>
-    <row r="133" spans="69:207" s="4" customFormat="1"/>
-    <row r="134" spans="69:207" s="4" customFormat="1"/>
-    <row r="135" spans="69:207" s="4" customFormat="1"/>
-    <row r="136" spans="69:207" s="4" customFormat="1"/>
-    <row r="137" spans="69:207" s="4" customFormat="1"/>
-    <row r="138" spans="69:207" s="4" customFormat="1"/>
-    <row r="139" spans="69:207" s="4" customFormat="1"/>
-    <row r="140" spans="69:207" s="4" customFormat="1"/>
-    <row r="141" spans="69:207" s="4" customFormat="1">
-      <c r="DB141" s="1"/>
-      <c r="DC141" s="1"/>
-      <c r="DD141" s="1"/>
-      <c r="DE141" s="1"/>
+    <row r="129" spans="69:211" s="4" customFormat="1"/>
+    <row r="130" spans="69:211" s="4" customFormat="1"/>
+    <row r="131" spans="69:211" s="4" customFormat="1"/>
+    <row r="132" spans="69:211" s="4" customFormat="1"/>
+    <row r="133" spans="69:211" s="4" customFormat="1"/>
+    <row r="134" spans="69:211" s="4" customFormat="1"/>
+    <row r="135" spans="69:211" s="4" customFormat="1"/>
+    <row r="136" spans="69:211" s="4" customFormat="1"/>
+    <row r="137" spans="69:211" s="4" customFormat="1"/>
+    <row r="138" spans="69:211" s="4" customFormat="1"/>
+    <row r="139" spans="69:211" s="4" customFormat="1"/>
+    <row r="140" spans="69:211" s="4" customFormat="1"/>
+    <row r="141" spans="69:211" s="4" customFormat="1">
       <c r="DF141" s="1"/>
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DW141" s="1"/>
-      <c r="DX141" s="1"/>
-      <c r="DY141" s="1"/>
-      <c r="DZ141" s="1"/>
+      <c r="DJ141" s="1"/>
+      <c r="DK141" s="1"/>
+      <c r="DL141" s="1"/>
+      <c r="DM141" s="1"/>
       <c r="EA141" s="1"/>
       <c r="EB141" s="1"/>
       <c r="EC141" s="1"/>
@@ -13365,20 +13730,20 @@
       <c r="GW141" s="1"/>
       <c r="GX141" s="1"/>
       <c r="GY141" s="1"/>
+      <c r="GZ141" s="1"/>
+      <c r="HA141" s="1"/>
+      <c r="HB141" s="1"/>
+      <c r="HC141" s="1"/>
     </row>
-    <row r="142" spans="69:207" s="4" customFormat="1">
-      <c r="DB142" s="1"/>
-      <c r="DC142" s="1"/>
-      <c r="DD142" s="1"/>
-      <c r="DE142" s="1"/>
+    <row r="142" spans="69:211" s="4" customFormat="1">
       <c r="DF142" s="1"/>
       <c r="DG142" s="1"/>
       <c r="DH142" s="1"/>
       <c r="DI142" s="1"/>
-      <c r="DW142" s="1"/>
-      <c r="DX142" s="1"/>
-      <c r="DY142" s="1"/>
-      <c r="DZ142" s="1"/>
+      <c r="DJ142" s="1"/>
+      <c r="DK142" s="1"/>
+      <c r="DL142" s="1"/>
+      <c r="DM142" s="1"/>
       <c r="EA142" s="1"/>
       <c r="EB142" s="1"/>
       <c r="EC142" s="1"/>
@@ -13456,20 +13821,37 @@
       <c r="GW142" s="1"/>
       <c r="GX142" s="1"/>
       <c r="GY142" s="1"/>
+      <c r="GZ142" s="1"/>
+      <c r="HA142" s="1"/>
+      <c r="HB142" s="1"/>
+      <c r="HC142" s="1"/>
     </row>
-    <row r="143" spans="69:207" s="4" customFormat="1">
-      <c r="DB143" s="1"/>
-      <c r="DC143" s="1"/>
-      <c r="DD143" s="1"/>
-      <c r="DE143" s="1"/>
+    <row r="143" spans="69:211" s="4" customFormat="1">
+      <c r="CG143" s="1"/>
+      <c r="CH143" s="1"/>
+      <c r="CI143" s="1"/>
+      <c r="CJ143" s="1"/>
+      <c r="CK143" s="1"/>
+      <c r="CL143" s="1"/>
+      <c r="CM143" s="1"/>
+      <c r="CN143" s="1"/>
+      <c r="CO143" s="1"/>
+      <c r="CP143" s="1"/>
+      <c r="CQ143" s="1"/>
+      <c r="CR143" s="1"/>
+      <c r="CS143" s="1"/>
+      <c r="CT143" s="1"/>
+      <c r="CU143" s="1"/>
+      <c r="CV143" s="1"/>
+      <c r="CW143" s="1"/>
       <c r="DF143" s="1"/>
       <c r="DG143" s="1"/>
       <c r="DH143" s="1"/>
       <c r="DI143" s="1"/>
-      <c r="DW143" s="1"/>
-      <c r="DX143" s="1"/>
-      <c r="DY143" s="1"/>
-      <c r="DZ143" s="1"/>
+      <c r="DJ143" s="1"/>
+      <c r="DK143" s="1"/>
+      <c r="DL143" s="1"/>
+      <c r="DM143" s="1"/>
       <c r="EA143" s="1"/>
       <c r="EB143" s="1"/>
       <c r="EC143" s="1"/>
@@ -13547,8 +13929,12 @@
       <c r="GW143" s="1"/>
       <c r="GX143" s="1"/>
       <c r="GY143" s="1"/>
+      <c r="GZ143" s="1"/>
+      <c r="HA143" s="1"/>
+      <c r="HB143" s="1"/>
+      <c r="HC143" s="1"/>
     </row>
-    <row r="144" spans="69:207" s="4" customFormat="1">
+    <row r="144" spans="69:211" s="4" customFormat="1">
       <c r="BQ144" s="1"/>
       <c r="BR144" s="1"/>
       <c r="BS144" s="1"/>
@@ -13594,10 +13980,10 @@
       <c r="DG144" s="1"/>
       <c r="DH144" s="1"/>
       <c r="DI144" s="1"/>
-      <c r="DW144" s="1"/>
-      <c r="DX144" s="1"/>
-      <c r="DY144" s="1"/>
-      <c r="DZ144" s="1"/>
+      <c r="DJ144" s="1"/>
+      <c r="DK144" s="1"/>
+      <c r="DL144" s="1"/>
+      <c r="DM144" s="1"/>
       <c r="EA144" s="1"/>
       <c r="EB144" s="1"/>
       <c r="EC144" s="1"/>
@@ -13675,8 +14061,12 @@
       <c r="GW144" s="1"/>
       <c r="GX144" s="1"/>
       <c r="GY144" s="1"/>
+      <c r="GZ144" s="1"/>
+      <c r="HA144" s="1"/>
+      <c r="HB144" s="1"/>
+      <c r="HC144" s="1"/>
     </row>
-    <row r="145" spans="7:223" s="4" customFormat="1">
+    <row r="145" spans="7:227" s="4" customFormat="1">
       <c r="BQ145" s="1"/>
       <c r="BR145" s="1"/>
       <c r="BS145" s="1"/>
@@ -13722,10 +14112,10 @@
       <c r="DG145" s="1"/>
       <c r="DH145" s="1"/>
       <c r="DI145" s="1"/>
-      <c r="DW145" s="1"/>
-      <c r="DX145" s="1"/>
-      <c r="DY145" s="1"/>
-      <c r="DZ145" s="1"/>
+      <c r="DJ145" s="1"/>
+      <c r="DK145" s="1"/>
+      <c r="DL145" s="1"/>
+      <c r="DM145" s="1"/>
       <c r="EA145" s="1"/>
       <c r="EB145" s="1"/>
       <c r="EC145" s="1"/>
@@ -13803,8 +14193,12 @@
       <c r="GW145" s="1"/>
       <c r="GX145" s="1"/>
       <c r="GY145" s="1"/>
+      <c r="GZ145" s="1"/>
+      <c r="HA145" s="1"/>
+      <c r="HB145" s="1"/>
+      <c r="HC145" s="1"/>
     </row>
-    <row r="146" spans="7:223" s="4" customFormat="1">
+    <row r="146" spans="7:227" s="4" customFormat="1">
       <c r="BQ146" s="1"/>
       <c r="BR146" s="1"/>
       <c r="BS146" s="1"/>
@@ -13850,10 +14244,10 @@
       <c r="DG146" s="1"/>
       <c r="DH146" s="1"/>
       <c r="DI146" s="1"/>
-      <c r="DW146" s="1"/>
-      <c r="DX146" s="1"/>
-      <c r="DY146" s="1"/>
-      <c r="DZ146" s="1"/>
+      <c r="DJ146" s="1"/>
+      <c r="DK146" s="1"/>
+      <c r="DL146" s="1"/>
+      <c r="DM146" s="1"/>
       <c r="EA146" s="1"/>
       <c r="EB146" s="1"/>
       <c r="EC146" s="1"/>
@@ -13931,8 +14325,12 @@
       <c r="GW146" s="1"/>
       <c r="GX146" s="1"/>
       <c r="GY146" s="1"/>
+      <c r="GZ146" s="1"/>
+      <c r="HA146" s="1"/>
+      <c r="HB146" s="1"/>
+      <c r="HC146" s="1"/>
     </row>
-    <row r="147" spans="7:223" s="4" customFormat="1">
+    <row r="147" spans="7:227" s="4" customFormat="1">
       <c r="BQ147" s="1"/>
       <c r="BR147" s="1"/>
       <c r="BS147" s="1"/>
@@ -13978,10 +14376,10 @@
       <c r="DG147" s="1"/>
       <c r="DH147" s="1"/>
       <c r="DI147" s="1"/>
-      <c r="DW147" s="1"/>
-      <c r="DX147" s="1"/>
-      <c r="DY147" s="1"/>
-      <c r="DZ147" s="1"/>
+      <c r="DJ147" s="1"/>
+      <c r="DK147" s="1"/>
+      <c r="DL147" s="1"/>
+      <c r="DM147" s="1"/>
       <c r="EA147" s="1"/>
       <c r="EB147" s="1"/>
       <c r="EC147" s="1"/>
@@ -14059,8 +14457,12 @@
       <c r="GW147" s="1"/>
       <c r="GX147" s="1"/>
       <c r="GY147" s="1"/>
+      <c r="GZ147" s="1"/>
+      <c r="HA147" s="1"/>
+      <c r="HB147" s="1"/>
+      <c r="HC147" s="1"/>
     </row>
-    <row r="148" spans="7:223" s="4" customFormat="1">
+    <row r="148" spans="7:227" s="4" customFormat="1">
       <c r="BQ148" s="1"/>
       <c r="BR148" s="1"/>
       <c r="BS148" s="1"/>
@@ -14106,10 +14508,10 @@
       <c r="DG148" s="1"/>
       <c r="DH148" s="1"/>
       <c r="DI148" s="1"/>
-      <c r="DW148" s="1"/>
-      <c r="DX148" s="1"/>
-      <c r="DY148" s="1"/>
-      <c r="DZ148" s="1"/>
+      <c r="DJ148" s="1"/>
+      <c r="DK148" s="1"/>
+      <c r="DL148" s="1"/>
+      <c r="DM148" s="1"/>
       <c r="EA148" s="1"/>
       <c r="EB148" s="1"/>
       <c r="EC148" s="1"/>
@@ -14187,8 +14589,12 @@
       <c r="GW148" s="1"/>
       <c r="GX148" s="1"/>
       <c r="GY148" s="1"/>
+      <c r="GZ148" s="1"/>
+      <c r="HA148" s="1"/>
+      <c r="HB148" s="1"/>
+      <c r="HC148" s="1"/>
     </row>
-    <row r="149" spans="7:223" s="4" customFormat="1">
+    <row r="149" spans="7:227" s="4" customFormat="1">
       <c r="BQ149" s="1"/>
       <c r="BR149" s="1"/>
       <c r="BS149" s="1"/>
@@ -14234,10 +14640,10 @@
       <c r="DG149" s="1"/>
       <c r="DH149" s="1"/>
       <c r="DI149" s="1"/>
-      <c r="DW149" s="1"/>
-      <c r="DX149" s="1"/>
-      <c r="DY149" s="1"/>
-      <c r="DZ149" s="1"/>
+      <c r="DJ149" s="1"/>
+      <c r="DK149" s="1"/>
+      <c r="DL149" s="1"/>
+      <c r="DM149" s="1"/>
       <c r="EA149" s="1"/>
       <c r="EB149" s="1"/>
       <c r="EC149" s="1"/>
@@ -14315,8 +14721,12 @@
       <c r="GW149" s="1"/>
       <c r="GX149" s="1"/>
       <c r="GY149" s="1"/>
+      <c r="GZ149" s="1"/>
+      <c r="HA149" s="1"/>
+      <c r="HB149" s="1"/>
+      <c r="HC149" s="1"/>
     </row>
-    <row r="150" spans="7:223" s="4" customFormat="1">
+    <row r="150" spans="7:227" s="4" customFormat="1">
       <c r="BQ150" s="1"/>
       <c r="BR150" s="1"/>
       <c r="BS150" s="1"/>
@@ -14362,10 +14772,10 @@
       <c r="DG150" s="1"/>
       <c r="DH150" s="1"/>
       <c r="DI150" s="1"/>
-      <c r="DW150" s="1"/>
-      <c r="DX150" s="1"/>
-      <c r="DY150" s="1"/>
-      <c r="DZ150" s="1"/>
+      <c r="DJ150" s="1"/>
+      <c r="DK150" s="1"/>
+      <c r="DL150" s="1"/>
+      <c r="DM150" s="1"/>
       <c r="EA150" s="1"/>
       <c r="EB150" s="1"/>
       <c r="EC150" s="1"/>
@@ -14443,8 +14853,12 @@
       <c r="GW150" s="1"/>
       <c r="GX150" s="1"/>
       <c r="GY150" s="1"/>
+      <c r="GZ150" s="1"/>
+      <c r="HA150" s="1"/>
+      <c r="HB150" s="1"/>
+      <c r="HC150" s="1"/>
     </row>
-    <row r="151" spans="7:223" s="4" customFormat="1">
+    <row r="151" spans="7:227" s="4" customFormat="1">
       <c r="BQ151" s="1"/>
       <c r="BR151" s="1"/>
       <c r="BS151" s="1"/>
@@ -14584,8 +14998,12 @@
       <c r="GW151" s="1"/>
       <c r="GX151" s="1"/>
       <c r="GY151" s="1"/>
+      <c r="GZ151" s="1"/>
+      <c r="HA151" s="1"/>
+      <c r="HB151" s="1"/>
+      <c r="HC151" s="1"/>
     </row>
-    <row r="152" spans="7:223" s="4" customFormat="1">
+    <row r="152" spans="7:227" s="4" customFormat="1">
       <c r="BQ152" s="1"/>
       <c r="BR152" s="1"/>
       <c r="BS152" s="1"/>
@@ -14725,8 +15143,12 @@
       <c r="GW152" s="1"/>
       <c r="GX152" s="1"/>
       <c r="GY152" s="1"/>
+      <c r="GZ152" s="1"/>
+      <c r="HA152" s="1"/>
+      <c r="HB152" s="1"/>
+      <c r="HC152" s="1"/>
     </row>
-    <row r="153" spans="7:223" s="4" customFormat="1">
+    <row r="153" spans="7:227" s="4" customFormat="1">
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
       <c r="BS153" s="1"/>
@@ -14866,8 +15288,12 @@
       <c r="GW153" s="1"/>
       <c r="GX153" s="1"/>
       <c r="GY153" s="1"/>
+      <c r="GZ153" s="1"/>
+      <c r="HA153" s="1"/>
+      <c r="HB153" s="1"/>
+      <c r="HC153" s="1"/>
     </row>
-    <row r="154" spans="7:223" s="4" customFormat="1">
+    <row r="154" spans="7:227" s="4" customFormat="1">
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
       <c r="BS154" s="1"/>
@@ -15007,8 +15433,12 @@
       <c r="GW154" s="1"/>
       <c r="GX154" s="1"/>
       <c r="GY154" s="1"/>
+      <c r="GZ154" s="1"/>
+      <c r="HA154" s="1"/>
+      <c r="HB154" s="1"/>
+      <c r="HC154" s="1"/>
     </row>
-    <row r="155" spans="7:223" s="4" customFormat="1">
+    <row r="155" spans="7:227" s="4" customFormat="1">
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
       <c r="BS155" s="1"/>
@@ -15148,8 +15578,12 @@
       <c r="GW155" s="1"/>
       <c r="GX155" s="1"/>
       <c r="GY155" s="1"/>
+      <c r="GZ155" s="1"/>
+      <c r="HA155" s="1"/>
+      <c r="HB155" s="1"/>
+      <c r="HC155" s="1"/>
     </row>
-    <row r="156" spans="7:223" s="4" customFormat="1">
+    <row r="156" spans="7:227" s="4" customFormat="1">
       <c r="BQ156" s="1"/>
       <c r="BR156" s="1"/>
       <c r="BS156" s="1"/>
@@ -15289,8 +15723,12 @@
       <c r="GW156" s="1"/>
       <c r="GX156" s="1"/>
       <c r="GY156" s="1"/>
+      <c r="GZ156" s="1"/>
+      <c r="HA156" s="1"/>
+      <c r="HB156" s="1"/>
+      <c r="HC156" s="1"/>
     </row>
-    <row r="157" spans="7:223" s="4" customFormat="1">
+    <row r="157" spans="7:227" s="4" customFormat="1">
       <c r="BQ157" s="1"/>
       <c r="BR157" s="1"/>
       <c r="BS157" s="1"/>
@@ -15430,10 +15868,10 @@
       <c r="GW157" s="1"/>
       <c r="GX157" s="1"/>
       <c r="GY157" s="1"/>
+      <c r="GZ157" s="1"/>
       <c r="HA157" s="1"/>
       <c r="HB157" s="1"/>
       <c r="HC157" s="1"/>
-      <c r="HD157" s="1"/>
       <c r="HE157" s="1"/>
       <c r="HF157" s="1"/>
       <c r="HG157" s="1"/>
@@ -15445,8 +15883,12 @@
       <c r="HM157" s="1"/>
       <c r="HN157" s="1"/>
       <c r="HO157" s="1"/>
+      <c r="HP157" s="1"/>
+      <c r="HQ157" s="1"/>
+      <c r="HR157" s="1"/>
+      <c r="HS157" s="1"/>
     </row>
-    <row r="158" spans="7:223" s="4" customFormat="1">
+    <row r="158" spans="7:227" s="4" customFormat="1">
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -15605,10 +16047,10 @@
       <c r="GW158" s="1"/>
       <c r="GX158" s="1"/>
       <c r="GY158" s="1"/>
+      <c r="GZ158" s="1"/>
       <c r="HA158" s="1"/>
       <c r="HB158" s="1"/>
       <c r="HC158" s="1"/>
-      <c r="HD158" s="1"/>
       <c r="HE158" s="1"/>
       <c r="HF158" s="1"/>
       <c r="HG158" s="1"/>
@@ -15620,8 +16062,12 @@
       <c r="HM158" s="1"/>
       <c r="HN158" s="1"/>
       <c r="HO158" s="1"/>
+      <c r="HP158" s="1"/>
+      <c r="HQ158" s="1"/>
+      <c r="HR158" s="1"/>
+      <c r="HS158" s="1"/>
     </row>
-    <row r="159" spans="7:223" s="4" customFormat="1">
+    <row r="159" spans="7:227" s="4" customFormat="1">
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -15780,10 +16226,10 @@
       <c r="GW159" s="1"/>
       <c r="GX159" s="1"/>
       <c r="GY159" s="1"/>
+      <c r="GZ159" s="1"/>
       <c r="HA159" s="1"/>
       <c r="HB159" s="1"/>
       <c r="HC159" s="1"/>
-      <c r="HD159" s="1"/>
       <c r="HE159" s="1"/>
       <c r="HF159" s="1"/>
       <c r="HG159" s="1"/>
@@ -15795,8 +16241,12 @@
       <c r="HM159" s="1"/>
       <c r="HN159" s="1"/>
       <c r="HO159" s="1"/>
+      <c r="HP159" s="1"/>
+      <c r="HQ159" s="1"/>
+      <c r="HR159" s="1"/>
+      <c r="HS159" s="1"/>
     </row>
-    <row r="160" spans="7:223" s="4" customFormat="1">
+    <row r="160" spans="7:227" s="4" customFormat="1">
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -15955,10 +16405,10 @@
       <c r="GW160" s="1"/>
       <c r="GX160" s="1"/>
       <c r="GY160" s="1"/>
+      <c r="GZ160" s="1"/>
       <c r="HA160" s="1"/>
       <c r="HB160" s="1"/>
       <c r="HC160" s="1"/>
-      <c r="HD160" s="1"/>
       <c r="HE160" s="1"/>
       <c r="HF160" s="1"/>
       <c r="HG160" s="1"/>
@@ -15970,8 +16420,12 @@
       <c r="HM160" s="1"/>
       <c r="HN160" s="1"/>
       <c r="HO160" s="1"/>
+      <c r="HP160" s="1"/>
+      <c r="HQ160" s="1"/>
+      <c r="HR160" s="1"/>
+      <c r="HS160" s="1"/>
     </row>
-    <row r="161" spans="7:223" s="4" customFormat="1">
+    <row r="161" spans="7:227" s="4" customFormat="1">
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -16130,10 +16584,10 @@
       <c r="GW161" s="1"/>
       <c r="GX161" s="1"/>
       <c r="GY161" s="1"/>
+      <c r="GZ161" s="1"/>
       <c r="HA161" s="1"/>
       <c r="HB161" s="1"/>
       <c r="HC161" s="1"/>
-      <c r="HD161" s="1"/>
       <c r="HE161" s="1"/>
       <c r="HF161" s="1"/>
       <c r="HG161" s="1"/>
@@ -16145,10 +16599,14 @@
       <c r="HM161" s="1"/>
       <c r="HN161" s="1"/>
       <c r="HO161" s="1"/>
+      <c r="HP161" s="1"/>
+      <c r="HQ161" s="1"/>
+      <c r="HR161" s="1"/>
+      <c r="HS161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
